--- a/Client/Table/Level/视频答题题库.xlsx
+++ b/Client/Table/Level/视频答题题库.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29340" windowHeight="16530"/>
+    <workbookView windowWidth="30375" windowHeight="14895"/>
   </bookViews>
   <sheets>
     <sheet name="TableAnswerInfo_NJZW" sheetId="3" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="51">
   <si>
     <t>[2,2]</t>
   </si>
@@ -92,6 +92,9 @@
   </si>
   <si>
     <t>2500次/m</t>
+  </si>
+  <si>
+    <t>testWidth.mp4</t>
   </si>
   <si>
     <t>下方哪个是人体正常体温？</t>
@@ -172,8 +175,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
@@ -203,6 +206,88 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -211,95 +296,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="10"/>
-      <color theme="10"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -308,40 +304,47 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -363,13 +366,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -381,19 +432,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -405,25 +510,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -435,115 +528,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -554,15 +557,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -577,21 +571,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -614,8 +593,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -635,11 +623,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -659,148 +662,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1153,7 +1156,7 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="7"/>
@@ -1284,7 +1287,7 @@
         <v>1</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H5" s="4"/>
     </row>
@@ -1294,13 +1297,13 @@
         <v>3</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F6" s="6">
         <v>1</v>
@@ -1316,19 +1319,19 @@
         <v>4</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F7" s="6">
         <v>2</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H7" s="4"/>
     </row>
@@ -1338,13 +1341,13 @@
         <v>5</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F8" s="6">
         <v>1</v>
@@ -1360,19 +1363,19 @@
         <v>6</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F9" s="6">
         <v>1</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H9" s="4"/>
     </row>
@@ -1382,13 +1385,13 @@
         <v>7</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F10" s="6">
         <v>1</v>
@@ -1404,19 +1407,19 @@
         <v>8</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F11" s="6">
         <v>2</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H11" s="4"/>
     </row>
@@ -1426,13 +1429,13 @@
         <v>9</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F12" s="6">
         <v>1</v>
@@ -1447,19 +1450,19 @@
         <v>10</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F13" s="6">
         <v>1</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H13" s="4"/>
     </row>

--- a/Client/Table/Level/视频答题题库.xlsx
+++ b/Client/Table/Level/视频答题题库.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="271">
   <si>
     <t>[2,2]</t>
   </si>
@@ -73,100 +73,760 @@
     <t>intArray</t>
   </si>
   <si>
-    <t>小苏打对牙齿有什么作用？</t>
-  </si>
-  <si>
-    <t>小苏打好吃</t>
-  </si>
-  <si>
-    <t>清除牙垢</t>
-  </si>
-  <si>
-    <t>TestVideo.mp4</t>
-  </si>
-  <si>
-    <t>正常人的心率是？</t>
-  </si>
-  <si>
-    <t>75次/m</t>
-  </si>
-  <si>
-    <t>2500次/m</t>
-  </si>
-  <si>
-    <t>testWidth.mp4</t>
-  </si>
-  <si>
-    <t>下方哪个是人体正常体温？</t>
-  </si>
-  <si>
-    <t>36℃</t>
-  </si>
-  <si>
-    <t>63℃</t>
-  </si>
-  <si>
-    <t>血小板有什么用？</t>
-  </si>
-  <si>
-    <t>卖萌</t>
-  </si>
-  <si>
-    <t>维护血管壁完整</t>
-  </si>
-  <si>
-    <t>两大血型系统分别是？</t>
-  </si>
-  <si>
-    <t>ABO和RH</t>
-  </si>
-  <si>
-    <t>安卓和苹果</t>
-  </si>
-  <si>
-    <t>不管是服用什么药物都要忌什么？</t>
-  </si>
-  <si>
-    <t>忌吸烟</t>
-  </si>
-  <si>
-    <t>忌吃饭</t>
-  </si>
-  <si>
-    <t>有机整体是指？</t>
-  </si>
-  <si>
-    <t>五脏</t>
-  </si>
-  <si>
-    <t>脚指甲</t>
-  </si>
-  <si>
-    <t>大蒜可以预防什么？</t>
-  </si>
-  <si>
-    <t>口臭</t>
-  </si>
-  <si>
-    <t>感冒</t>
-  </si>
-  <si>
-    <t>饮酒时不宜吃下列哪种？</t>
-  </si>
-  <si>
-    <t>鹅卵石</t>
-  </si>
-  <si>
-    <t>下酒菜</t>
-  </si>
-  <si>
-    <t>冰箱里的茶叶有什么作用？</t>
-  </si>
-  <si>
-    <t>去腥味</t>
-  </si>
-  <si>
-    <t>省电</t>
+    <t>视频中的食品可以吃吗？</t>
+  </si>
+  <si>
+    <t>可以</t>
+  </si>
+  <si>
+    <t>不可以</t>
+  </si>
+  <si>
+    <t>SP_001</t>
+  </si>
+  <si>
+    <t>小猫在追什么？</t>
+  </si>
+  <si>
+    <t>轮子</t>
+  </si>
+  <si>
+    <t>光点</t>
+  </si>
+  <si>
+    <t>SP_002</t>
+  </si>
+  <si>
+    <t>小孩子睡在什么地方？</t>
+  </si>
+  <si>
+    <t>拖鞋</t>
+  </si>
+  <si>
+    <t>床上</t>
+  </si>
+  <si>
+    <t>SP_003</t>
+  </si>
+  <si>
+    <t>视频中的迈凯伦是什么车型？</t>
+  </si>
+  <si>
+    <t>SUV</t>
+  </si>
+  <si>
+    <t>超跑</t>
+  </si>
+  <si>
+    <t>SP_004</t>
+  </si>
+  <si>
+    <t>小孩洗了什么东西？</t>
+  </si>
+  <si>
+    <t>空气</t>
+  </si>
+  <si>
+    <t>袜子</t>
+  </si>
+  <si>
+    <t>SP_005</t>
+  </si>
+  <si>
+    <t>视频中的支架像什么？</t>
+  </si>
+  <si>
+    <t>脚脚</t>
+  </si>
+  <si>
+    <t>竹子</t>
+  </si>
+  <si>
+    <t>SP_006</t>
+  </si>
+  <si>
+    <t>视频中的木偶是怎么动起来的？</t>
+  </si>
+  <si>
+    <t>提线</t>
+  </si>
+  <si>
+    <t>机器</t>
+  </si>
+  <si>
+    <t>SP_007</t>
+  </si>
+  <si>
+    <t>皮球打到了几个人？</t>
+  </si>
+  <si>
+    <t>1个</t>
+  </si>
+  <si>
+    <t>2个</t>
+  </si>
+  <si>
+    <t>SP_008</t>
+  </si>
+  <si>
+    <t>一铲子可以切下几个？</t>
+  </si>
+  <si>
+    <t>SP_009</t>
+  </si>
+  <si>
+    <t>恐龙推着什么？</t>
+  </si>
+  <si>
+    <t>祖国人</t>
+  </si>
+  <si>
+    <t>奥特曼</t>
+  </si>
+  <si>
+    <t>SP_010</t>
+  </si>
+  <si>
+    <t>小鸭子头上有什么？</t>
+  </si>
+  <si>
+    <t>竹蜻蜓</t>
+  </si>
+  <si>
+    <t>自由</t>
+  </si>
+  <si>
+    <t>SP_011</t>
+  </si>
+  <si>
+    <t>视频中的东西是什么？</t>
+  </si>
+  <si>
+    <t>美女</t>
+  </si>
+  <si>
+    <t>蘑菇</t>
+  </si>
+  <si>
+    <t>SP_012</t>
+  </si>
+  <si>
+    <t>小伙砸下车是为了干什么？</t>
+  </si>
+  <si>
+    <t>看看路滑不滑</t>
+  </si>
+  <si>
+    <t>手动打开转向灯</t>
+  </si>
+  <si>
+    <t>SP_013</t>
+  </si>
+  <si>
+    <t>绳子吊着的是什么？</t>
+  </si>
+  <si>
+    <t>小狗狗</t>
+  </si>
+  <si>
+    <t>小猫猫</t>
+  </si>
+  <si>
+    <t>SP_014</t>
+  </si>
+  <si>
+    <t>拖鞋为什么会变成这样?</t>
+  </si>
+  <si>
+    <t>本来就这样</t>
+  </si>
+  <si>
+    <t>狗咬的</t>
+  </si>
+  <si>
+    <t>SP_015</t>
+  </si>
+  <si>
+    <t>摩托后座是什么？</t>
+  </si>
+  <si>
+    <t>猎犬</t>
+  </si>
+  <si>
+    <t>拿着手机的女人</t>
+  </si>
+  <si>
+    <t>SP_016</t>
+  </si>
+  <si>
+    <t>冰下面有水吗？</t>
+  </si>
+  <si>
+    <t>有</t>
+  </si>
+  <si>
+    <t>没有</t>
+  </si>
+  <si>
+    <t>SP_017</t>
+  </si>
+  <si>
+    <t>小孩手里拿的是什么？</t>
+  </si>
+  <si>
+    <t>可乐</t>
+  </si>
+  <si>
+    <t>雪碧</t>
+  </si>
+  <si>
+    <t>SP_018</t>
+  </si>
+  <si>
+    <t>视频中的“棒子”是指？</t>
+  </si>
+  <si>
+    <t>玉米</t>
+  </si>
+  <si>
+    <t>木棍</t>
+  </si>
+  <si>
+    <t>SP_019</t>
+  </si>
+  <si>
+    <t>视频中出现在屋顶上的是什么？</t>
+  </si>
+  <si>
+    <t>SP_020</t>
+  </si>
+  <si>
+    <t>小猫推到了什么？</t>
+  </si>
+  <si>
+    <t>灯</t>
+  </si>
+  <si>
+    <t>SP_021</t>
+  </si>
+  <si>
+    <t>小猪想要什么？</t>
+  </si>
+  <si>
+    <t>吃的</t>
+  </si>
+  <si>
+    <t>SP_022</t>
+  </si>
+  <si>
+    <t>小孩想要打下来什么？</t>
+  </si>
+  <si>
+    <t>飞机</t>
+  </si>
+  <si>
+    <t>蜻蜓</t>
+  </si>
+  <si>
+    <t>SP_023</t>
+  </si>
+  <si>
+    <t>鱼在干什么？</t>
+  </si>
+  <si>
+    <t>吐水</t>
+  </si>
+  <si>
+    <t>吃饭</t>
+  </si>
+  <si>
+    <t>SP_024</t>
+  </si>
+  <si>
+    <t>吹掉了老爷子的什么？</t>
+  </si>
+  <si>
+    <t>假牙</t>
+  </si>
+  <si>
+    <t>头发</t>
+  </si>
+  <si>
+    <t>SP_025</t>
+  </si>
+  <si>
+    <t>最后拿的是什么？</t>
+  </si>
+  <si>
+    <t>狗粮</t>
+  </si>
+  <si>
+    <t>猫粮</t>
+  </si>
+  <si>
+    <t>SP_026</t>
+  </si>
+  <si>
+    <t>视频中的人想要干什么？</t>
+  </si>
+  <si>
+    <t>给小猫洗澡</t>
+  </si>
+  <si>
+    <t>给小猫拔毛</t>
+  </si>
+  <si>
+    <t>SP_027</t>
+  </si>
+  <si>
+    <t>小哥哥在惊讶什么？</t>
+  </si>
+  <si>
+    <t>声音太大了</t>
+  </si>
+  <si>
+    <t>屁股疼</t>
+  </si>
+  <si>
+    <t>SP_028</t>
+  </si>
+  <si>
+    <t>熊猫在干什么？</t>
+  </si>
+  <si>
+    <t>尿尿</t>
+  </si>
+  <si>
+    <t>SP_029</t>
+  </si>
+  <si>
+    <t>黑人是真人吗？</t>
+  </si>
+  <si>
+    <t>是</t>
+  </si>
+  <si>
+    <t>不是</t>
+  </si>
+  <si>
+    <t>SP_030</t>
+  </si>
+  <si>
+    <t>这是什么鞋子？</t>
+  </si>
+  <si>
+    <t>水鞋</t>
+  </si>
+  <si>
+    <t>储水鞋</t>
+  </si>
+  <si>
+    <t>SP_031</t>
+  </si>
+  <si>
+    <t>视频中的人是什么学院的？</t>
+  </si>
+  <si>
+    <t>法学院的</t>
+  </si>
+  <si>
+    <t>农学院的</t>
+  </si>
+  <si>
+    <t>SP_032</t>
+  </si>
+  <si>
+    <t>视频中的表情包是谁？</t>
+  </si>
+  <si>
+    <t>小猪佩奇</t>
+  </si>
+  <si>
+    <t>喜洋洋</t>
+  </si>
+  <si>
+    <t>SP_033</t>
+  </si>
+  <si>
+    <t>视频中的人为什么伤心？</t>
+  </si>
+  <si>
+    <t>打不开了</t>
+  </si>
+  <si>
+    <t>过期了</t>
+  </si>
+  <si>
+    <t>SP_034</t>
+  </si>
+  <si>
+    <t>这是一个什么房间？</t>
+  </si>
+  <si>
+    <t>镜子房间</t>
+  </si>
+  <si>
+    <t>次元房间</t>
+  </si>
+  <si>
+    <t>SP_035</t>
+  </si>
+  <si>
+    <t>马桶像什么？</t>
+  </si>
+  <si>
+    <t>马</t>
+  </si>
+  <si>
+    <t>青蛙</t>
+  </si>
+  <si>
+    <t>SP_036</t>
+  </si>
+  <si>
+    <t>墙里的小人布置是什么场景？</t>
+  </si>
+  <si>
+    <t>DJ现场</t>
+  </si>
+  <si>
+    <t>厨房做饭</t>
+  </si>
+  <si>
+    <t>SP_037</t>
+  </si>
+  <si>
+    <t>这是什么地方？</t>
+  </si>
+  <si>
+    <t>次元入口</t>
+  </si>
+  <si>
+    <t>冰雪岩洞</t>
+  </si>
+  <si>
+    <t>SP_038</t>
+  </si>
+  <si>
+    <t>小哥哥遇到了什么问题？</t>
+  </si>
+  <si>
+    <t>伞坏了</t>
+  </si>
+  <si>
+    <t>拖鞋卡主了</t>
+  </si>
+  <si>
+    <t>SP_039</t>
+  </si>
+  <si>
+    <t>这是女孩子吗？</t>
+  </si>
+  <si>
+    <t>SP_040</t>
+  </si>
+  <si>
+    <t>视频是中什么天气</t>
+  </si>
+  <si>
+    <t>雨天</t>
+  </si>
+  <si>
+    <t>晴天</t>
+  </si>
+  <si>
+    <t>SP_041</t>
+  </si>
+  <si>
+    <t>前车的人拿出了什么水果？</t>
+  </si>
+  <si>
+    <t>西瓜</t>
+  </si>
+  <si>
+    <t>南瓜</t>
+  </si>
+  <si>
+    <t>SP_042</t>
+  </si>
+  <si>
+    <t>杆子上的图是什么？</t>
+  </si>
+  <si>
+    <t>鱼</t>
+  </si>
+  <si>
+    <t>老虎</t>
+  </si>
+  <si>
+    <t>SP_043</t>
+  </si>
+  <si>
+    <t>为什么会这样停车？</t>
+  </si>
+  <si>
+    <t>腿太短了</t>
+  </si>
+  <si>
+    <t>懒得</t>
+  </si>
+  <si>
+    <t>SP_044</t>
+  </si>
+  <si>
+    <t>你看到了吗?</t>
+  </si>
+  <si>
+    <t>看到了</t>
+  </si>
+  <si>
+    <t>没看到</t>
+  </si>
+  <si>
+    <t>SP_045</t>
+  </si>
+  <si>
+    <t>第三个被子是什么图案？</t>
+  </si>
+  <si>
+    <t>肉饼</t>
+  </si>
+  <si>
+    <t>鸡蛋</t>
+  </si>
+  <si>
+    <t>SP_046</t>
+  </si>
+  <si>
+    <t>视频中的小哥哥试图做什么？</t>
+  </si>
+  <si>
+    <t>比爱心</t>
+  </si>
+  <si>
+    <t>吃肉</t>
+  </si>
+  <si>
+    <t>SP_047</t>
+  </si>
+  <si>
+    <t>做好安全措施了吗？</t>
+  </si>
+  <si>
+    <t>做了</t>
+  </si>
+  <si>
+    <t>没做</t>
+  </si>
+  <si>
+    <t>SP_048</t>
+  </si>
+  <si>
+    <t>最后捂手的是？</t>
+  </si>
+  <si>
+    <t>SP_049</t>
+  </si>
+  <si>
+    <t>球拍是真断的？</t>
+  </si>
+  <si>
+    <t>自己断的</t>
+  </si>
+  <si>
+    <t>掰断的</t>
+  </si>
+  <si>
+    <t>SP_050</t>
+  </si>
+  <si>
+    <t>水冲走了什么？</t>
+  </si>
+  <si>
+    <t>铲车</t>
+  </si>
+  <si>
+    <t>SP_051</t>
+  </si>
+  <si>
+    <t>火中的是谁？</t>
+  </si>
+  <si>
+    <t>卡卡罗特</t>
+  </si>
+  <si>
+    <t>贝吉塔</t>
+  </si>
+  <si>
+    <t>SP_052</t>
+  </si>
+  <si>
+    <t>视频中的配音是什么动漫里的？</t>
+  </si>
+  <si>
+    <t>海绵宝宝</t>
+  </si>
+  <si>
+    <t>SP_053</t>
+  </si>
+  <si>
+    <t>小孩子给老虎投喂了什么？</t>
+  </si>
+  <si>
+    <t>肉</t>
+  </si>
+  <si>
+    <t>SP_054</t>
+  </si>
+  <si>
+    <t>小哥哥干了什么？</t>
+  </si>
+  <si>
+    <t>信仰之跃</t>
+  </si>
+  <si>
+    <t>雷霆跳跃</t>
+  </si>
+  <si>
+    <t>SP_055</t>
+  </si>
+  <si>
+    <t>小猫的眼睛是什么颜色？</t>
+  </si>
+  <si>
+    <t>蓝色</t>
+  </si>
+  <si>
+    <t>黑色</t>
+  </si>
+  <si>
+    <t>SP_056</t>
+  </si>
+  <si>
+    <t>这个车标是什么品牌？</t>
+  </si>
+  <si>
+    <t>迈凯伦</t>
+  </si>
+  <si>
+    <t>保时捷</t>
+  </si>
+  <si>
+    <t>SP_057</t>
+  </si>
+  <si>
+    <t>这是什么准备动作</t>
+  </si>
+  <si>
+    <t>跑步</t>
+  </si>
+  <si>
+    <t>跳水</t>
+  </si>
+  <si>
+    <t>SP_058</t>
+  </si>
+  <si>
+    <t>老板说的是几？</t>
+  </si>
+  <si>
+    <t>SP_059</t>
+  </si>
+  <si>
+    <t>形容一下小喵的内心</t>
+  </si>
+  <si>
+    <t>你最好有事</t>
+  </si>
+  <si>
+    <t>我谢谢你啊</t>
+  </si>
+  <si>
+    <t>SP_060</t>
+  </si>
+  <si>
+    <t>狗狗是怎么摔倒的？</t>
+  </si>
+  <si>
+    <t>鸡蛋滑到的</t>
+  </si>
+  <si>
+    <t>被鸭子气的</t>
+  </si>
+  <si>
+    <t>SP_061</t>
+  </si>
+  <si>
+    <t>视频中吃的这一口是什么颜色的冰沙？</t>
+  </si>
+  <si>
+    <t>白色</t>
+  </si>
+  <si>
+    <t>绿色</t>
+  </si>
+  <si>
+    <t>SP_062</t>
+  </si>
+  <si>
+    <t>第一个人是真的扭不动吗？</t>
+  </si>
+  <si>
+    <t>是的</t>
+  </si>
+  <si>
+    <t>不是的</t>
+  </si>
+  <si>
+    <t>SP_063</t>
+  </si>
+  <si>
+    <t>鳄鱼为什么无动于衷？</t>
+  </si>
+  <si>
+    <t>不在食谱中</t>
+  </si>
+  <si>
+    <t>饱了</t>
+  </si>
+  <si>
+    <t>SP_064</t>
+  </si>
+  <si>
+    <t>他在笑什么？</t>
+  </si>
+  <si>
+    <t>可以换新帽子了</t>
+  </si>
+  <si>
+    <t>帽子正好掉在牛头上</t>
+  </si>
+  <si>
+    <t>SP_065</t>
+  </si>
+  <si>
+    <t>利用了什么原理？</t>
+  </si>
+  <si>
+    <t>重力</t>
+  </si>
+  <si>
+    <t>弹力</t>
+  </si>
+  <si>
+    <t>SP_066</t>
+  </si>
+  <si>
+    <t>螃蟹是怎么走的？</t>
+  </si>
+  <si>
+    <t>滑着走</t>
+  </si>
+  <si>
+    <t>横着走</t>
+  </si>
+  <si>
+    <t>SP_067</t>
   </si>
 </sst>
 </file>
@@ -200,9 +860,9 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10.5"/>
+      <sz val="16"/>
       <color rgb="FF333333"/>
-      <name val="Helvetica"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1153,10 +1813,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="D70" sqref="D70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="7"/>
@@ -1262,7 +1922,7 @@
         <v>21</v>
       </c>
       <c r="F4" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>22</v>
@@ -1284,7 +1944,7 @@
         <v>25</v>
       </c>
       <c r="F5" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>26</v>
@@ -1309,7 +1969,7 @@
         <v>1</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="H6" s="4"/>
     </row>
@@ -1319,19 +1979,19 @@
         <v>4</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F7" s="6">
         <v>2</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="H7" s="4"/>
     </row>
@@ -1341,19 +2001,19 @@
         <v>5</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F8" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="H8" s="4"/>
     </row>
@@ -1363,19 +2023,19 @@
         <v>6</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F9" s="6">
         <v>1</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="H9" s="4"/>
     </row>
@@ -1385,19 +2045,19 @@
         <v>7</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="F10" s="6">
         <v>1</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="H10" s="4"/>
     </row>
@@ -1407,19 +2067,19 @@
         <v>8</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="F11" s="6">
         <v>2</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="H11" s="4"/>
     </row>
@@ -1429,19 +2089,19 @@
         <v>9</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F12" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="H12" s="4"/>
     </row>
@@ -1450,21 +2110,1161 @@
         <v>10</v>
       </c>
       <c r="C13" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="F13" s="6">
+        <v>2</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="H13" s="4"/>
+    </row>
+    <row r="14" customHeight="1" spans="2:7">
+      <c r="B14" s="3">
+        <v>11</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F14" s="6">
+        <v>1</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" customHeight="1" spans="2:7">
+      <c r="B15" s="3">
+        <v>12</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="F15" s="6">
+        <v>2</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="16" customHeight="1" spans="2:7">
+      <c r="B16" s="3">
+        <v>13</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="F16" s="6">
+        <v>2</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="17" customHeight="1" spans="2:7">
+      <c r="B17" s="3">
+        <v>14</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="F17" s="6">
+        <v>2</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="18" customHeight="1" spans="2:7">
+      <c r="B18" s="3">
+        <v>15</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="F18" s="6">
+        <v>2</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="19" customHeight="1" spans="2:7">
+      <c r="B19" s="3">
+        <v>16</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="F19" s="6">
+        <v>2</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="20" customHeight="1" spans="2:7">
+      <c r="B20" s="3">
+        <v>17</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="F20" s="6">
+        <v>1</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="21" customHeight="1" spans="2:7">
+      <c r="B21" s="3">
+        <v>18</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="F21" s="6">
+        <v>2</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="22" customHeight="1" spans="2:7">
+      <c r="B22" s="3">
+        <v>19</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="F22" s="6">
+        <v>1</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="23" customHeight="1" spans="2:7">
+      <c r="B23" s="3">
+        <v>20</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="F23" s="6">
+        <v>1</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="24" customHeight="1" spans="2:7">
+      <c r="B24" s="3">
+        <v>21</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F24" s="6">
+        <v>1</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="25" customHeight="1" spans="2:7">
+      <c r="B25" s="3">
+        <v>22</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F25" s="6">
+        <v>2</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" customHeight="1" spans="2:7">
+      <c r="B26" s="3">
+        <v>23</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="F26" s="6">
+        <v>1</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="27" customHeight="1" spans="2:7">
+      <c r="B27" s="3">
+        <v>24</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="F27" s="6">
+        <v>1</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="28" customHeight="1" spans="2:7">
+      <c r="B28" s="3">
+        <v>25</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="F28" s="6">
+        <v>1</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="29" customHeight="1" spans="2:7">
+      <c r="B29" s="3">
+        <v>26</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="F29" s="6">
+        <v>1</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="30" customHeight="1" spans="2:7">
+      <c r="B30" s="3">
+        <v>27</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="F30" s="6">
+        <v>1</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="31" customHeight="1" spans="2:7">
+      <c r="B31" s="3">
+        <v>28</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="F31" s="6">
+        <v>1</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="32" customHeight="1" spans="2:7">
+      <c r="B32" s="3">
+        <v>29</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="F32" s="6">
+        <v>2</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="33" customHeight="1" spans="2:7">
+      <c r="B33" s="3">
+        <v>30</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="F33" s="6">
+        <v>2</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="34" customHeight="1" spans="2:7">
+      <c r="B34" s="3">
+        <v>31</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="F34" s="6">
+        <v>1</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="35" customHeight="1" spans="2:7">
+      <c r="B35" s="3">
+        <v>32</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="F35" s="6">
+        <v>2</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="36" customHeight="1" spans="2:7">
+      <c r="B36" s="3">
+        <v>33</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="F36" s="6">
+        <v>1</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="37" customHeight="1" spans="2:7">
+      <c r="B37" s="3">
+        <v>34</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="F37" s="6">
+        <v>1</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="38" customHeight="1" spans="2:7">
+      <c r="B38" s="3">
+        <v>35</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="F38" s="6">
+        <v>1</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="39" customHeight="1" spans="2:7">
+      <c r="B39" s="3">
+        <v>36</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="F39" s="6">
+        <v>2</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="40" customHeight="1" spans="2:7">
+      <c r="B40" s="3">
+        <v>37</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="F40" s="6">
+        <v>1</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="41" customHeight="1" spans="2:7">
+      <c r="B41" s="3">
+        <v>38</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="F41" s="6">
+        <v>2</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="42" customHeight="1" spans="2:7">
+      <c r="B42" s="3">
+        <v>39</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="F42" s="6">
+        <v>2</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="43" customHeight="1" spans="2:7">
+      <c r="B43" s="3">
+        <v>40</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="F43" s="6">
+        <v>1</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="44" customHeight="1" spans="2:7">
+      <c r="B44" s="3">
+        <v>41</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="F44" s="6">
+        <v>1</v>
+      </c>
+      <c r="G44" s="7" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="45" customHeight="1" spans="2:7">
+      <c r="B45" s="3">
+        <v>42</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="E45" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="F45" s="6">
+        <v>1</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="46" customHeight="1" spans="2:7">
+      <c r="B46" s="3">
+        <v>43</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="E46" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="F46" s="6">
+        <v>1</v>
+      </c>
+      <c r="G46" s="7" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="47" customHeight="1" spans="2:7">
+      <c r="B47" s="3">
+        <v>44</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="F47" s="6">
+        <v>1</v>
+      </c>
+      <c r="G47" s="7" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="48" customHeight="1" spans="2:7">
+      <c r="B48" s="3">
+        <v>45</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="E48" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="F48" s="6">
+        <v>1</v>
+      </c>
+      <c r="G48" s="7" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="49" customHeight="1" spans="2:7">
+      <c r="B49" s="3">
+        <v>46</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="E49" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="F49" s="6">
+        <v>2</v>
+      </c>
+      <c r="G49" s="7" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="50" customHeight="1" spans="2:7">
+      <c r="B50" s="3">
+        <v>47</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="E50" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="F50" s="6">
+        <v>1</v>
+      </c>
+      <c r="G50" s="7" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="51" customHeight="1" spans="2:7">
+      <c r="B51" s="3">
         <v>48</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="C51" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="E51" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="F51" s="6">
+        <v>1</v>
+      </c>
+      <c r="G51" s="7" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="52" customHeight="1" spans="2:7">
+      <c r="B52" s="3">
         <v>49</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="C52" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="E52" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="F52" s="6">
+        <v>1</v>
+      </c>
+      <c r="G52" s="7" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="53" customHeight="1" spans="2:7">
+      <c r="B53" s="3">
         <v>50</v>
       </c>
-      <c r="F13" s="6">
-        <v>1</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H13" s="4"/>
+      <c r="C53" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="E53" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="F53" s="6">
+        <v>2</v>
+      </c>
+      <c r="G53" s="7" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="54" customHeight="1" spans="2:7">
+      <c r="B54" s="3">
+        <v>51</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E54" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="F54" s="6">
+        <v>2</v>
+      </c>
+      <c r="G54" s="7" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="55" customHeight="1" spans="2:7">
+      <c r="B55" s="3">
+        <v>52</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="E55" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="F55" s="6">
+        <v>1</v>
+      </c>
+      <c r="G55" s="7" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="56" customHeight="1" spans="2:7">
+      <c r="B56" s="3">
+        <v>53</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="E56" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="F56" s="6">
+        <v>2</v>
+      </c>
+      <c r="G56" s="7" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="57" customHeight="1" spans="2:7">
+      <c r="B57" s="3">
+        <v>54</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="E57" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="F57" s="6">
+        <v>2</v>
+      </c>
+      <c r="G57" s="7" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="58" customHeight="1" spans="2:7">
+      <c r="B58" s="3">
+        <v>55</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="E58" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="F58" s="6">
+        <v>2</v>
+      </c>
+      <c r="G58" s="7" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="59" customHeight="1" spans="2:7">
+      <c r="B59" s="3">
+        <v>56</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="E59" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="F59" s="6">
+        <v>2</v>
+      </c>
+      <c r="G59" s="7" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="60" customHeight="1" spans="2:7">
+      <c r="B60" s="3">
+        <v>57</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="D60" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="E60" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="F60" s="6">
+        <v>2</v>
+      </c>
+      <c r="G60" s="7" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="61" customHeight="1" spans="2:7">
+      <c r="B61" s="3">
+        <v>58</v>
+      </c>
+      <c r="C61" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="D61" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="E61" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="F61" s="6">
+        <v>1</v>
+      </c>
+      <c r="G61" s="7" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="62" customHeight="1" spans="2:7">
+      <c r="B62" s="3">
+        <v>59</v>
+      </c>
+      <c r="C62" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="D62" s="6">
+        <v>5</v>
+      </c>
+      <c r="E62" s="6">
+        <v>6</v>
+      </c>
+      <c r="F62" s="6">
+        <v>2</v>
+      </c>
+      <c r="G62" s="7" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="63" customHeight="1" spans="2:7">
+      <c r="B63" s="3">
+        <v>60</v>
+      </c>
+      <c r="C63" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="D63" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="E63" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="F63" s="6">
+        <v>1</v>
+      </c>
+      <c r="G63" s="7" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="64" customHeight="1" spans="2:7">
+      <c r="B64" s="3">
+        <v>61</v>
+      </c>
+      <c r="C64" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="D64" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="E64" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="F64" s="6">
+        <v>1</v>
+      </c>
+      <c r="G64" s="7" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="65" customHeight="1" spans="2:7">
+      <c r="B65" s="3">
+        <v>62</v>
+      </c>
+      <c r="C65" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="D65" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="E65" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="F65" s="6">
+        <v>1</v>
+      </c>
+      <c r="G65" s="7" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="66" customHeight="1" spans="2:7">
+      <c r="B66" s="3">
+        <v>63</v>
+      </c>
+      <c r="C66" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="D66" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="E66" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="F66" s="6">
+        <v>2</v>
+      </c>
+      <c r="G66" s="7" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="67" customHeight="1" spans="2:7">
+      <c r="B67" s="3">
+        <v>64</v>
+      </c>
+      <c r="C67" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="D67" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="E67" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="F67" s="6">
+        <v>1</v>
+      </c>
+      <c r="G67" s="7" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="68" customHeight="1" spans="2:7">
+      <c r="B68" s="3">
+        <v>65</v>
+      </c>
+      <c r="C68" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="D68" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="E68" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="F68" s="6">
+        <v>2</v>
+      </c>
+      <c r="G68" s="7" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="69" customHeight="1" spans="2:7">
+      <c r="B69" s="3">
+        <v>66</v>
+      </c>
+      <c r="C69" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="D69" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="E69" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="F69" s="6">
+        <v>2</v>
+      </c>
+      <c r="G69" s="7" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="70" customHeight="1" spans="2:7">
+      <c r="B70" s="3">
+        <v>67</v>
+      </c>
+      <c r="C70" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="D70" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="E70" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="F70" s="6">
+        <v>2</v>
+      </c>
+      <c r="G70" s="7" t="s">
+        <v>270</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Client/Table/Level/视频答题题库.xlsx
+++ b/Client/Table/Level/视频答题题库.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30375" windowHeight="14895"/>
+    <workbookView windowWidth="30615" windowHeight="15480"/>
   </bookViews>
   <sheets>
     <sheet name="TableAnswerInfo_NJZW" sheetId="3" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="385">
   <si>
     <t>[2,2]</t>
   </si>
@@ -73,760 +73,1102 @@
     <t>intArray</t>
   </si>
   <si>
-    <t>视频中的食品可以吃吗？</t>
-  </si>
-  <si>
-    <t>可以</t>
-  </si>
-  <si>
-    <t>不可以</t>
+    <t>男生放了几个？</t>
   </si>
   <si>
     <t>SP_001</t>
   </si>
   <si>
-    <t>小猫在追什么？</t>
-  </si>
-  <si>
-    <t>轮子</t>
-  </si>
-  <si>
-    <t>光点</t>
+    <t>这个金锢是什么？</t>
+  </si>
+  <si>
+    <t>锅灶</t>
+  </si>
+  <si>
+    <t>锅架</t>
   </si>
   <si>
     <t>SP_002</t>
   </si>
   <si>
-    <t>小孩子睡在什么地方？</t>
-  </si>
-  <si>
-    <t>拖鞋</t>
-  </si>
-  <si>
-    <t>床上</t>
+    <t>男生想干什么？</t>
+  </si>
+  <si>
+    <t>真的分手</t>
+  </si>
+  <si>
+    <t>结婚</t>
   </si>
   <si>
     <t>SP_003</t>
   </si>
   <si>
-    <t>视频中的迈凯伦是什么车型？</t>
-  </si>
-  <si>
-    <t>SUV</t>
-  </si>
-  <si>
-    <t>超跑</t>
+    <t>动物们在干什么？</t>
+  </si>
+  <si>
+    <t>模仿人类</t>
+  </si>
+  <si>
+    <t>教小朋友</t>
   </si>
   <si>
     <t>SP_004</t>
   </si>
   <si>
-    <t>小孩洗了什么东西？</t>
-  </si>
-  <si>
-    <t>空气</t>
+    <t>“扒拉”是什么意思？</t>
+  </si>
+  <si>
+    <t>拉扯</t>
+  </si>
+  <si>
+    <t>偷东西</t>
+  </si>
+  <si>
+    <t>SP_005</t>
+  </si>
+  <si>
+    <t>小姐姐什么裤子？</t>
+  </si>
+  <si>
+    <t>牛仔裤</t>
+  </si>
+  <si>
+    <t>短裤</t>
+  </si>
+  <si>
+    <t>SP_006</t>
+  </si>
+  <si>
+    <t>男生把假发藏在了什么地方？</t>
+  </si>
+  <si>
+    <t>衣服里</t>
+  </si>
+  <si>
+    <t>头上</t>
+  </si>
+  <si>
+    <t>SP_007</t>
+  </si>
+  <si>
+    <t>男生的动作代表还能怎么看？</t>
+  </si>
+  <si>
+    <t>坐着看</t>
+  </si>
+  <si>
+    <t>不看</t>
+  </si>
+  <si>
+    <t>SP_008</t>
+  </si>
+  <si>
+    <t>男生为什么挨打？</t>
+  </si>
+  <si>
+    <t>懂的都懂</t>
+  </si>
+  <si>
+    <t>我不知道</t>
+  </si>
+  <si>
+    <t>SP_009</t>
+  </si>
+  <si>
+    <t>女生最后的动作是什么？</t>
+  </si>
+  <si>
+    <t>花手</t>
+  </si>
+  <si>
+    <t>扭腰</t>
+  </si>
+  <si>
+    <t>SP_010</t>
+  </si>
+  <si>
+    <t>视频中提到的吃的东西都有什么？</t>
+  </si>
+  <si>
+    <t>羊肉串，羊肠</t>
+  </si>
+  <si>
+    <t>羊肉串，羊蝎子</t>
+  </si>
+  <si>
+    <t>SP_011</t>
+  </si>
+  <si>
+    <t>第一个小哥哥在干什么？</t>
+  </si>
+  <si>
+    <t>擦玻璃</t>
+  </si>
+  <si>
+    <t>擦空气</t>
+  </si>
+  <si>
+    <t>SP_012</t>
+  </si>
+  <si>
+    <t>小姐姐分手了吗？</t>
+  </si>
+  <si>
+    <t>分了</t>
+  </si>
+  <si>
+    <t>没分</t>
+  </si>
+  <si>
+    <t>SP_013</t>
+  </si>
+  <si>
+    <t>第一个片段男生为什么吓到了？</t>
+  </si>
+  <si>
+    <t>面膜</t>
+  </si>
+  <si>
+    <t>不是自己老婆</t>
+  </si>
+  <si>
+    <t>SP_014</t>
+  </si>
+  <si>
+    <t>是这个意思吗？</t>
+  </si>
+  <si>
+    <t>是的</t>
+  </si>
+  <si>
+    <t>不是的</t>
+  </si>
+  <si>
+    <t>SP_015</t>
+  </si>
+  <si>
+    <t>是同一个妹子吗？</t>
+  </si>
+  <si>
+    <t>影流之主</t>
+  </si>
+  <si>
+    <t>不是</t>
+  </si>
+  <si>
+    <t>SP_016</t>
+  </si>
+  <si>
+    <t>小姐姐带手表了吗？</t>
+  </si>
+  <si>
+    <t>没带</t>
+  </si>
+  <si>
+    <t>带了</t>
+  </si>
+  <si>
+    <t>SP_017</t>
+  </si>
+  <si>
+    <t>工具盒里的工具是真的嘛？</t>
+  </si>
+  <si>
+    <t>画的</t>
+  </si>
+  <si>
+    <t>真的</t>
+  </si>
+  <si>
+    <t>SP_018</t>
+  </si>
+  <si>
+    <t>饲养员在给熊猫干什么？</t>
+  </si>
+  <si>
+    <t>洗澡澡</t>
+  </si>
+  <si>
+    <t>吃饭饭</t>
+  </si>
+  <si>
+    <t>SP_019</t>
+  </si>
+  <si>
+    <t>第五只没有没有吃到？</t>
+  </si>
+  <si>
+    <t>被第四只抢了</t>
+  </si>
+  <si>
+    <t>本来就没有</t>
+  </si>
+  <si>
+    <t>SP_020</t>
+  </si>
+  <si>
+    <t>小熊的衣服是什么颜色的？</t>
+  </si>
+  <si>
+    <t>棕色</t>
+  </si>
+  <si>
+    <t>黑色</t>
+  </si>
+  <si>
+    <t>SP_021</t>
+  </si>
+  <si>
+    <t>是真的方便面吗？</t>
+  </si>
+  <si>
+    <t>SP_022</t>
+  </si>
+  <si>
+    <t>视频最后二哈的左眼是什么颜色？</t>
+  </si>
+  <si>
+    <t>白色</t>
+  </si>
+  <si>
+    <t>红色</t>
+  </si>
+  <si>
+    <t>SP_023</t>
+  </si>
+  <si>
+    <t>描述一下狗子的内心</t>
+  </si>
+  <si>
+    <t>莫挨老子</t>
+  </si>
+  <si>
+    <t>泥奏凯</t>
+  </si>
+  <si>
+    <t>SP_024</t>
+  </si>
+  <si>
+    <t>一共几个成语？</t>
+  </si>
+  <si>
+    <t>5个</t>
+  </si>
+  <si>
+    <t>7个</t>
+  </si>
+  <si>
+    <t>SP_025</t>
+  </si>
+  <si>
+    <t>这个橘子甜吗？</t>
+  </si>
+  <si>
+    <t>不甜</t>
+  </si>
+  <si>
+    <t>甜</t>
+  </si>
+  <si>
+    <t>SP_026</t>
+  </si>
+  <si>
+    <t>是一样重吗？</t>
+  </si>
+  <si>
+    <t>当然是铁重</t>
+  </si>
+  <si>
+    <t>当然是一样</t>
+  </si>
+  <si>
+    <t>SP_027</t>
+  </si>
+  <si>
+    <t>视频中的背景音乐是什么歌？</t>
+  </si>
+  <si>
+    <t>jar of love</t>
+  </si>
+  <si>
+    <t>演员</t>
+  </si>
+  <si>
+    <t>SP_028</t>
+  </si>
+  <si>
+    <t>就问你扎心不？</t>
+  </si>
+  <si>
+    <t>老扎心了</t>
+  </si>
+  <si>
+    <t>莫得感觉</t>
+  </si>
+  <si>
+    <t>SP_029</t>
+  </si>
+  <si>
+    <t>梦中惊醒的小哥哥碰到了什么东西？</t>
+  </si>
+  <si>
+    <t>椅子</t>
+  </si>
+  <si>
+    <t>电脑</t>
+  </si>
+  <si>
+    <t>SP_030</t>
+  </si>
+  <si>
+    <t>小孩的心愿是什么？</t>
+  </si>
+  <si>
+    <t>不上学</t>
+  </si>
+  <si>
+    <t>上大海</t>
+  </si>
+  <si>
+    <t>SP_031</t>
+  </si>
+  <si>
+    <t>接住了吗？</t>
+  </si>
+  <si>
+    <t>没有</t>
+  </si>
+  <si>
+    <t>接住了</t>
+  </si>
+  <si>
+    <t>SP_032</t>
+  </si>
+  <si>
+    <t>这个形象模仿的谁？</t>
+  </si>
+  <si>
+    <t>小青</t>
+  </si>
+  <si>
+    <t>白蛇</t>
+  </si>
+  <si>
+    <t>SP_033</t>
+  </si>
+  <si>
+    <t>插座是真的嘛？</t>
+  </si>
+  <si>
+    <t>假的</t>
+  </si>
+  <si>
+    <t>SP_034</t>
+  </si>
+  <si>
+    <t>黑人小哥是捅进去的球吗？</t>
+  </si>
+  <si>
+    <t>才不是呢</t>
+  </si>
+  <si>
+    <t>SP_035</t>
+  </si>
+  <si>
+    <t>视频中的男生要了什么套餐？</t>
+  </si>
+  <si>
+    <t>单身狗套餐</t>
+  </si>
+  <si>
+    <t>情侣套餐</t>
+  </si>
+  <si>
+    <t>SP_036</t>
+  </si>
+  <si>
+    <t>跳的好不好？</t>
+  </si>
+  <si>
+    <t>针不搓</t>
+  </si>
+  <si>
+    <t>不太行</t>
+  </si>
+  <si>
+    <t>SP_037</t>
+  </si>
+  <si>
+    <t>小哥哥为什么掉下去了?</t>
+  </si>
+  <si>
+    <t>没有把握平衡</t>
+  </si>
+  <si>
+    <t>屁股太大</t>
+  </si>
+  <si>
+    <t>SP_038</t>
+  </si>
+  <si>
+    <t>杆子为什么断了？</t>
+  </si>
+  <si>
+    <t>太重了</t>
+  </si>
+  <si>
+    <t>拒绝使用</t>
+  </si>
+  <si>
+    <t>SP_039</t>
+  </si>
+  <si>
+    <t>纸尿裤真的显年轻吗？</t>
+  </si>
+  <si>
+    <t>给我整不会了</t>
+  </si>
+  <si>
+    <t>显，但也没那么显</t>
+  </si>
+  <si>
+    <t>SP_040</t>
+  </si>
+  <si>
+    <t>小姐姐是单马尾还是双马尾？</t>
+  </si>
+  <si>
+    <t>单</t>
+  </si>
+  <si>
+    <t>双</t>
+  </si>
+  <si>
+    <t>SP_041</t>
+  </si>
+  <si>
+    <t>黑斑是真的吗？</t>
+  </si>
+  <si>
+    <t>是</t>
+  </si>
+  <si>
+    <t>SP_042</t>
+  </si>
+  <si>
+    <t>背景音乐是什么？</t>
+  </si>
+  <si>
+    <t>萨日朗</t>
+  </si>
+  <si>
+    <t>化蝶飞</t>
+  </si>
+  <si>
+    <t>SP_043</t>
+  </si>
+  <si>
+    <t>你最好有事</t>
+  </si>
+  <si>
+    <t>忍辱负重</t>
+  </si>
+  <si>
+    <t>SP_044</t>
+  </si>
+  <si>
+    <t>这是什么狗？</t>
+  </si>
+  <si>
+    <t>金毛</t>
+  </si>
+  <si>
+    <t>二哈</t>
+  </si>
+  <si>
+    <t>SP_045</t>
+  </si>
+  <si>
+    <t>给你100能帮我把车拿出来嘛？</t>
+  </si>
+  <si>
+    <t>给你100表演下怎么进去</t>
+  </si>
+  <si>
+    <t>不能</t>
+  </si>
+  <si>
+    <t>SP_046</t>
+  </si>
+  <si>
+    <t>小猫想干嘛？</t>
+  </si>
+  <si>
+    <t>想陪他玩</t>
+  </si>
+  <si>
+    <t>想要一个喵玩</t>
+  </si>
+  <si>
+    <t>SP_047</t>
+  </si>
+  <si>
+    <t>第一个手里拿的花是什么？</t>
+  </si>
+  <si>
+    <t>白玫瑰</t>
+  </si>
+  <si>
+    <t>向日葵</t>
+  </si>
+  <si>
+    <t>SP_048</t>
+  </si>
+  <si>
+    <t>我们一起见证了日落！</t>
+  </si>
+  <si>
+    <t>明天会更好</t>
+  </si>
+  <si>
+    <t>没好事</t>
+  </si>
+  <si>
+    <t>SP_049</t>
+  </si>
+  <si>
+    <t>男生对鞋子的爱你不懂！</t>
+  </si>
+  <si>
+    <t>啊对对对</t>
+  </si>
+  <si>
+    <t>啊错错错</t>
+  </si>
+  <si>
+    <t>SP_050</t>
+  </si>
+  <si>
+    <t>变成一个成语</t>
+  </si>
+  <si>
+    <t>多管闲事</t>
+  </si>
+  <si>
+    <t>吃嘛嘛香</t>
+  </si>
+  <si>
+    <t>SP_051</t>
+  </si>
+  <si>
+    <t>女孩子为什么过不去？</t>
+  </si>
+  <si>
+    <t>太胖了</t>
+  </si>
+  <si>
+    <t>力气太小</t>
+  </si>
+  <si>
+    <t>SP_052</t>
+  </si>
+  <si>
+    <t>牛仔裤是不是有一个洞？</t>
+  </si>
+  <si>
+    <t>SP_053</t>
+  </si>
+  <si>
+    <t>小妹妹在笑什么？</t>
+  </si>
+  <si>
+    <t>这人好笨啊</t>
+  </si>
+  <si>
+    <t>吃多了胃疼</t>
+  </si>
+  <si>
+    <t>SP_054</t>
+  </si>
+  <si>
+    <t>good time</t>
+  </si>
+  <si>
+    <t>千里之外</t>
+  </si>
+  <si>
+    <t>SP_055</t>
+  </si>
+  <si>
+    <t>这个行为是否很直男？</t>
+  </si>
+  <si>
+    <t>SP_056</t>
+  </si>
+  <si>
+    <t>蔬菜2块钱多少克？</t>
+  </si>
+  <si>
+    <t>SP_057</t>
+  </si>
+  <si>
+    <t>最后一个出现的动物是什么？</t>
+  </si>
+  <si>
+    <t>鱼</t>
+  </si>
+  <si>
+    <t>熊</t>
+  </si>
+  <si>
+    <t>SP_058</t>
+  </si>
+  <si>
+    <t>这个故事告诉我们什么？</t>
+  </si>
+  <si>
+    <t>不要在马的后面</t>
+  </si>
+  <si>
+    <t>两腿一蹬，与世无争</t>
+  </si>
+  <si>
+    <t>SP_059</t>
+  </si>
+  <si>
+    <t>用的什么洗头膏？</t>
+  </si>
+  <si>
+    <t>霸王</t>
+  </si>
+  <si>
+    <t>duang</t>
+  </si>
+  <si>
+    <t>SP_060</t>
+  </si>
+  <si>
+    <t>视频中的小哥哥因为什么撞到了牌子？</t>
+  </si>
+  <si>
+    <t>向往自由</t>
+  </si>
+  <si>
+    <t>被吓到了</t>
+  </si>
+  <si>
+    <t>SP_061</t>
+  </si>
+  <si>
+    <t>日常猜一下背景音乐?</t>
+  </si>
+  <si>
+    <t>最伟大的作品</t>
+  </si>
+  <si>
+    <t>Roly Poly</t>
+  </si>
+  <si>
+    <t>SP_062</t>
+  </si>
+  <si>
+    <t>发生了什么？</t>
+  </si>
+  <si>
+    <t>没纸了</t>
+  </si>
+  <si>
+    <t>忘记带勺子了</t>
+  </si>
+  <si>
+    <t>SP_063</t>
+  </si>
+  <si>
+    <t>背景是什么？</t>
+  </si>
+  <si>
+    <t>海边</t>
+  </si>
+  <si>
+    <t>楼顶</t>
+  </si>
+  <si>
+    <t>SP_064</t>
+  </si>
+  <si>
+    <t>接球手接到球了吗？</t>
+  </si>
+  <si>
+    <t>接到了</t>
+  </si>
+  <si>
+    <t>SP_065</t>
+  </si>
+  <si>
+    <t>这是什么动物？</t>
+  </si>
+  <si>
+    <t>马</t>
+  </si>
+  <si>
+    <t>羊驼</t>
+  </si>
+  <si>
+    <t>SP_066</t>
+  </si>
+  <si>
+    <t>你也跟着笑了吗？</t>
+  </si>
+  <si>
+    <t>我才没有</t>
+  </si>
+  <si>
+    <t>1；2</t>
+  </si>
+  <si>
+    <t>SP_067</t>
+  </si>
+  <si>
+    <t>视频中小猫起到了什么作用？</t>
+  </si>
+  <si>
+    <t>卖萌</t>
+  </si>
+  <si>
+    <t>撑杆</t>
+  </si>
+  <si>
+    <t>SP_068</t>
+  </si>
+  <si>
+    <t>是故意的吗？</t>
+  </si>
+  <si>
+    <t>这绝对是</t>
+  </si>
+  <si>
+    <t>SP_069</t>
+  </si>
+  <si>
+    <t>所以1+1到底等于几？</t>
+  </si>
+  <si>
+    <t>SP_070</t>
+  </si>
+  <si>
+    <t>师傅去不去飞机场？</t>
+  </si>
+  <si>
+    <t>去</t>
+  </si>
+  <si>
+    <t>不去</t>
+  </si>
+  <si>
+    <t>SP_071</t>
+  </si>
+  <si>
+    <t>小姐姐的帽子有顶吗？</t>
+  </si>
+  <si>
+    <t>有</t>
+  </si>
+  <si>
+    <t>SP_072</t>
+  </si>
+  <si>
+    <t>它在干什么？</t>
+  </si>
+  <si>
+    <t>吐水</t>
+  </si>
+  <si>
+    <t>SP_073</t>
+  </si>
+  <si>
+    <t>小哥哥踢到瓶盖了吗？</t>
+  </si>
+  <si>
+    <t>SP_074</t>
+  </si>
+  <si>
+    <t>小狗狗在吃什么？</t>
+  </si>
+  <si>
+    <t>雪糕</t>
+  </si>
+  <si>
+    <t>肉串</t>
+  </si>
+  <si>
+    <t>SP_075</t>
+  </si>
+  <si>
+    <t>主人喂给小狗狗什么东西？</t>
+  </si>
+  <si>
+    <t>小肉干</t>
+  </si>
+  <si>
+    <t>巧克力</t>
+  </si>
+  <si>
+    <t>SP_076</t>
+  </si>
+  <si>
+    <t>为什么上午迟迟上不了课？</t>
+  </si>
+  <si>
+    <t>表是画的</t>
+  </si>
+  <si>
+    <t>表坏了</t>
+  </si>
+  <si>
+    <t>SP_077</t>
+  </si>
+  <si>
+    <t>小姐姐手里是什么？</t>
+  </si>
+  <si>
+    <t>雪</t>
+  </si>
+  <si>
+    <t>花瓣</t>
+  </si>
+  <si>
+    <t>SP_078</t>
+  </si>
+  <si>
+    <t>狗狗为什么老是含着猫头？</t>
+  </si>
+  <si>
+    <t>其实是一种亲密的表现</t>
+  </si>
+  <si>
+    <t>饿了</t>
+  </si>
+  <si>
+    <t>SP_079</t>
+  </si>
+  <si>
+    <t>小哥哥是根据什么在开合？</t>
+  </si>
+  <si>
+    <t>音乐</t>
+  </si>
+  <si>
+    <t>手抖</t>
+  </si>
+  <si>
+    <t>SP_080</t>
+  </si>
+  <si>
+    <t>想要摸狗狗需要比什么？</t>
+  </si>
+  <si>
+    <t>身高</t>
+  </si>
+  <si>
+    <t>SP_081</t>
+  </si>
+  <si>
+    <t>小哥哥手里拿的是什么？</t>
+  </si>
+  <si>
+    <t>爱情</t>
+  </si>
+  <si>
+    <t>啤酒</t>
+  </si>
+  <si>
+    <t>SP_082</t>
+  </si>
+  <si>
+    <t>小哥哥为什么放弃了？</t>
+  </si>
+  <si>
+    <t>开启贤者模式</t>
+  </si>
+  <si>
+    <t>因为牙有问题</t>
+  </si>
+  <si>
+    <t>SP_083</t>
+  </si>
+  <si>
+    <t>狗</t>
+  </si>
+  <si>
+    <t>考拉</t>
+  </si>
+  <si>
+    <t>SP_084</t>
+  </si>
+  <si>
+    <t>姻缘是来了吗？</t>
+  </si>
+  <si>
+    <t>来了</t>
+  </si>
+  <si>
+    <t>SP_085</t>
+  </si>
+  <si>
+    <t>小狗主人藏到了什么地方？</t>
+  </si>
+  <si>
+    <t>门口</t>
+  </si>
+  <si>
+    <t>地下</t>
+  </si>
+  <si>
+    <t>SP_086</t>
+  </si>
+  <si>
+    <t>金毛在干什么？</t>
+  </si>
+  <si>
+    <t>和主人捉迷藏</t>
+  </si>
+  <si>
+    <t>偷吃</t>
+  </si>
+  <si>
+    <t>SP_087</t>
+  </si>
+  <si>
+    <t>小姐姐穿的是长裤吗？</t>
+  </si>
+  <si>
+    <t>SP_088</t>
+  </si>
+  <si>
+    <t>小哥哥在专心的干什么？</t>
+  </si>
+  <si>
+    <t>剪指甲</t>
+  </si>
+  <si>
+    <t>SP_089</t>
+  </si>
+  <si>
+    <t>不出意外的话我们再也什么？</t>
+  </si>
+  <si>
+    <t>不会见了</t>
+  </si>
+  <si>
+    <t>不吃饭了</t>
+  </si>
+  <si>
+    <t>SP_090</t>
+  </si>
+  <si>
+    <t>小姐姐的动作中有一个什么动作？</t>
+  </si>
+  <si>
+    <t>喵步</t>
+  </si>
+  <si>
+    <t>大劈棺</t>
+  </si>
+  <si>
+    <t>SP_091</t>
+  </si>
+  <si>
+    <t>歌词“我只想做你的太阳，在你的什么？”</t>
+  </si>
+  <si>
+    <t>心里啊</t>
+  </si>
+  <si>
+    <t>鞋底啊</t>
+  </si>
+  <si>
+    <t>SP_092</t>
+  </si>
+  <si>
+    <t>两只狗狗是同一种吗？</t>
+  </si>
+  <si>
+    <t>SP_093</t>
+  </si>
+  <si>
+    <t>帽子什么颜色的？</t>
+  </si>
+  <si>
+    <t>SP_094</t>
+  </si>
+  <si>
+    <t>为什么喊救命？</t>
+  </si>
+  <si>
+    <t>妈妈没在</t>
+  </si>
+  <si>
+    <t>SP_095</t>
+  </si>
+  <si>
+    <t>小狗到底是什么同意了吗？</t>
+  </si>
+  <si>
+    <t>同意了</t>
+  </si>
+  <si>
+    <t>没同意</t>
+  </si>
+  <si>
+    <t>SP_096</t>
+  </si>
+  <si>
+    <t>视频中兔子吃的是什么？</t>
+  </si>
+  <si>
+    <t>葱</t>
+  </si>
+  <si>
+    <t>蒜苔</t>
+  </si>
+  <si>
+    <t>SP_097</t>
+  </si>
+  <si>
+    <t>背景是什么地方？</t>
+  </si>
+  <si>
+    <t>电梯口</t>
+  </si>
+  <si>
+    <t>房间里</t>
+  </si>
+  <si>
+    <t>SP_098</t>
+  </si>
+  <si>
+    <t>什么字？</t>
+  </si>
+  <si>
+    <t>家门口</t>
+  </si>
+  <si>
+    <t>问</t>
+  </si>
+  <si>
+    <t>SP_099</t>
+  </si>
+  <si>
+    <t>小孩子拿了一个什么东西?</t>
   </si>
   <si>
     <t>袜子</t>
   </si>
   <si>
-    <t>SP_005</t>
-  </si>
-  <si>
-    <t>视频中的支架像什么？</t>
-  </si>
-  <si>
-    <t>脚脚</t>
-  </si>
-  <si>
-    <t>竹子</t>
-  </si>
-  <si>
-    <t>SP_006</t>
-  </si>
-  <si>
-    <t>视频中的木偶是怎么动起来的？</t>
-  </si>
-  <si>
-    <t>提线</t>
-  </si>
-  <si>
-    <t>机器</t>
-  </si>
-  <si>
-    <t>SP_007</t>
-  </si>
-  <si>
-    <t>皮球打到了几个人？</t>
-  </si>
-  <si>
-    <t>1个</t>
-  </si>
-  <si>
-    <t>2个</t>
-  </si>
-  <si>
-    <t>SP_008</t>
-  </si>
-  <si>
-    <t>一铲子可以切下几个？</t>
-  </si>
-  <si>
-    <t>SP_009</t>
-  </si>
-  <si>
-    <t>恐龙推着什么？</t>
-  </si>
-  <si>
-    <t>祖国人</t>
-  </si>
-  <si>
-    <t>奥特曼</t>
-  </si>
-  <si>
-    <t>SP_010</t>
-  </si>
-  <si>
-    <t>小鸭子头上有什么？</t>
-  </si>
-  <si>
-    <t>竹蜻蜓</t>
-  </si>
-  <si>
-    <t>自由</t>
-  </si>
-  <si>
-    <t>SP_011</t>
-  </si>
-  <si>
-    <t>视频中的东西是什么？</t>
-  </si>
-  <si>
-    <t>美女</t>
-  </si>
-  <si>
-    <t>蘑菇</t>
-  </si>
-  <si>
-    <t>SP_012</t>
-  </si>
-  <si>
-    <t>小伙砸下车是为了干什么？</t>
-  </si>
-  <si>
-    <t>看看路滑不滑</t>
-  </si>
-  <si>
-    <t>手动打开转向灯</t>
-  </si>
-  <si>
-    <t>SP_013</t>
-  </si>
-  <si>
-    <t>绳子吊着的是什么？</t>
-  </si>
-  <si>
-    <t>小狗狗</t>
-  </si>
-  <si>
-    <t>小猫猫</t>
-  </si>
-  <si>
-    <t>SP_014</t>
-  </si>
-  <si>
-    <t>拖鞋为什么会变成这样?</t>
-  </si>
-  <si>
-    <t>本来就这样</t>
-  </si>
-  <si>
-    <t>狗咬的</t>
-  </si>
-  <si>
-    <t>SP_015</t>
-  </si>
-  <si>
-    <t>摩托后座是什么？</t>
-  </si>
-  <si>
-    <t>猎犬</t>
-  </si>
-  <si>
-    <t>拿着手机的女人</t>
-  </si>
-  <si>
-    <t>SP_016</t>
-  </si>
-  <si>
-    <t>冰下面有水吗？</t>
-  </si>
-  <si>
-    <t>有</t>
-  </si>
-  <si>
-    <t>没有</t>
-  </si>
-  <si>
-    <t>SP_017</t>
-  </si>
-  <si>
-    <t>小孩手里拿的是什么？</t>
-  </si>
-  <si>
-    <t>可乐</t>
-  </si>
-  <si>
-    <t>雪碧</t>
-  </si>
-  <si>
-    <t>SP_018</t>
-  </si>
-  <si>
-    <t>视频中的“棒子”是指？</t>
-  </si>
-  <si>
-    <t>玉米</t>
-  </si>
-  <si>
-    <t>木棍</t>
-  </si>
-  <si>
-    <t>SP_019</t>
-  </si>
-  <si>
-    <t>视频中出现在屋顶上的是什么？</t>
-  </si>
-  <si>
-    <t>SP_020</t>
-  </si>
-  <si>
-    <t>小猫推到了什么？</t>
-  </si>
-  <si>
-    <t>灯</t>
-  </si>
-  <si>
-    <t>SP_021</t>
-  </si>
-  <si>
-    <t>小猪想要什么？</t>
-  </si>
-  <si>
-    <t>吃的</t>
-  </si>
-  <si>
-    <t>SP_022</t>
-  </si>
-  <si>
-    <t>小孩想要打下来什么？</t>
-  </si>
-  <si>
-    <t>飞机</t>
-  </si>
-  <si>
-    <t>蜻蜓</t>
-  </si>
-  <si>
-    <t>SP_023</t>
-  </si>
-  <si>
-    <t>鱼在干什么？</t>
-  </si>
-  <si>
-    <t>吐水</t>
-  </si>
-  <si>
-    <t>吃饭</t>
-  </si>
-  <si>
-    <t>SP_024</t>
-  </si>
-  <si>
-    <t>吹掉了老爷子的什么？</t>
-  </si>
-  <si>
-    <t>假牙</t>
-  </si>
-  <si>
-    <t>头发</t>
-  </si>
-  <si>
-    <t>SP_025</t>
-  </si>
-  <si>
-    <t>最后拿的是什么？</t>
-  </si>
-  <si>
-    <t>狗粮</t>
-  </si>
-  <si>
-    <t>猫粮</t>
-  </si>
-  <si>
-    <t>SP_026</t>
-  </si>
-  <si>
-    <t>视频中的人想要干什么？</t>
-  </si>
-  <si>
-    <t>给小猫洗澡</t>
-  </si>
-  <si>
-    <t>给小猫拔毛</t>
-  </si>
-  <si>
-    <t>SP_027</t>
-  </si>
-  <si>
-    <t>小哥哥在惊讶什么？</t>
-  </si>
-  <si>
-    <t>声音太大了</t>
-  </si>
-  <si>
-    <t>屁股疼</t>
-  </si>
-  <si>
-    <t>SP_028</t>
-  </si>
-  <si>
-    <t>熊猫在干什么？</t>
-  </si>
-  <si>
-    <t>尿尿</t>
-  </si>
-  <si>
-    <t>SP_029</t>
-  </si>
-  <si>
-    <t>黑人是真人吗？</t>
-  </si>
-  <si>
-    <t>是</t>
-  </si>
-  <si>
-    <t>不是</t>
-  </si>
-  <si>
-    <t>SP_030</t>
-  </si>
-  <si>
-    <t>这是什么鞋子？</t>
-  </si>
-  <si>
-    <t>水鞋</t>
-  </si>
-  <si>
-    <t>储水鞋</t>
-  </si>
-  <si>
-    <t>SP_031</t>
-  </si>
-  <si>
-    <t>视频中的人是什么学院的？</t>
-  </si>
-  <si>
-    <t>法学院的</t>
-  </si>
-  <si>
-    <t>农学院的</t>
-  </si>
-  <si>
-    <t>SP_032</t>
-  </si>
-  <si>
-    <t>视频中的表情包是谁？</t>
-  </si>
-  <si>
-    <t>小猪佩奇</t>
-  </si>
-  <si>
-    <t>喜洋洋</t>
-  </si>
-  <si>
-    <t>SP_033</t>
-  </si>
-  <si>
-    <t>视频中的人为什么伤心？</t>
-  </si>
-  <si>
-    <t>打不开了</t>
-  </si>
-  <si>
-    <t>过期了</t>
-  </si>
-  <si>
-    <t>SP_034</t>
-  </si>
-  <si>
-    <t>这是一个什么房间？</t>
-  </si>
-  <si>
-    <t>镜子房间</t>
-  </si>
-  <si>
-    <t>次元房间</t>
-  </si>
-  <si>
-    <t>SP_035</t>
-  </si>
-  <si>
-    <t>马桶像什么？</t>
-  </si>
-  <si>
-    <t>马</t>
-  </si>
-  <si>
-    <t>青蛙</t>
-  </si>
-  <si>
-    <t>SP_036</t>
-  </si>
-  <si>
-    <t>墙里的小人布置是什么场景？</t>
-  </si>
-  <si>
-    <t>DJ现场</t>
-  </si>
-  <si>
-    <t>厨房做饭</t>
-  </si>
-  <si>
-    <t>SP_037</t>
-  </si>
-  <si>
-    <t>这是什么地方？</t>
-  </si>
-  <si>
-    <t>次元入口</t>
-  </si>
-  <si>
-    <t>冰雪岩洞</t>
-  </si>
-  <si>
-    <t>SP_038</t>
-  </si>
-  <si>
-    <t>小哥哥遇到了什么问题？</t>
-  </si>
-  <si>
-    <t>伞坏了</t>
-  </si>
-  <si>
-    <t>拖鞋卡主了</t>
-  </si>
-  <si>
-    <t>SP_039</t>
-  </si>
-  <si>
-    <t>这是女孩子吗？</t>
-  </si>
-  <si>
-    <t>SP_040</t>
-  </si>
-  <si>
-    <t>视频是中什么天气</t>
-  </si>
-  <si>
-    <t>雨天</t>
-  </si>
-  <si>
-    <t>晴天</t>
-  </si>
-  <si>
-    <t>SP_041</t>
-  </si>
-  <si>
-    <t>前车的人拿出了什么水果？</t>
-  </si>
-  <si>
-    <t>西瓜</t>
-  </si>
-  <si>
-    <t>南瓜</t>
-  </si>
-  <si>
-    <t>SP_042</t>
-  </si>
-  <si>
-    <t>杆子上的图是什么？</t>
-  </si>
-  <si>
-    <t>鱼</t>
-  </si>
-  <si>
-    <t>老虎</t>
-  </si>
-  <si>
-    <t>SP_043</t>
-  </si>
-  <si>
-    <t>为什么会这样停车？</t>
-  </si>
-  <si>
-    <t>腿太短了</t>
-  </si>
-  <si>
-    <t>懒得</t>
-  </si>
-  <si>
-    <t>SP_044</t>
-  </si>
-  <si>
-    <t>你看到了吗?</t>
-  </si>
-  <si>
-    <t>看到了</t>
-  </si>
-  <si>
-    <t>没看到</t>
-  </si>
-  <si>
-    <t>SP_045</t>
-  </si>
-  <si>
-    <t>第三个被子是什么图案？</t>
-  </si>
-  <si>
-    <t>肉饼</t>
-  </si>
-  <si>
-    <t>鸡蛋</t>
-  </si>
-  <si>
-    <t>SP_046</t>
-  </si>
-  <si>
-    <t>视频中的小哥哥试图做什么？</t>
-  </si>
-  <si>
-    <t>比爱心</t>
-  </si>
-  <si>
-    <t>吃肉</t>
-  </si>
-  <si>
-    <t>SP_047</t>
-  </si>
-  <si>
-    <t>做好安全措施了吗？</t>
-  </si>
-  <si>
-    <t>做了</t>
-  </si>
-  <si>
-    <t>没做</t>
-  </si>
-  <si>
-    <t>SP_048</t>
-  </si>
-  <si>
-    <t>最后捂手的是？</t>
-  </si>
-  <si>
-    <t>SP_049</t>
-  </si>
-  <si>
-    <t>球拍是真断的？</t>
-  </si>
-  <si>
-    <t>自己断的</t>
-  </si>
-  <si>
-    <t>掰断的</t>
-  </si>
-  <si>
-    <t>SP_050</t>
-  </si>
-  <si>
-    <t>水冲走了什么？</t>
-  </si>
-  <si>
-    <t>铲车</t>
-  </si>
-  <si>
-    <t>SP_051</t>
-  </si>
-  <si>
-    <t>火中的是谁？</t>
-  </si>
-  <si>
-    <t>卡卡罗特</t>
-  </si>
-  <si>
-    <t>贝吉塔</t>
-  </si>
-  <si>
-    <t>SP_052</t>
-  </si>
-  <si>
-    <t>视频中的配音是什么动漫里的？</t>
-  </si>
-  <si>
-    <t>海绵宝宝</t>
-  </si>
-  <si>
-    <t>SP_053</t>
-  </si>
-  <si>
-    <t>小孩子给老虎投喂了什么？</t>
-  </si>
-  <si>
-    <t>肉</t>
-  </si>
-  <si>
-    <t>SP_054</t>
-  </si>
-  <si>
-    <t>小哥哥干了什么？</t>
-  </si>
-  <si>
-    <t>信仰之跃</t>
-  </si>
-  <si>
-    <t>雷霆跳跃</t>
-  </si>
-  <si>
-    <t>SP_055</t>
-  </si>
-  <si>
-    <t>小猫的眼睛是什么颜色？</t>
-  </si>
-  <si>
-    <t>蓝色</t>
-  </si>
-  <si>
-    <t>黑色</t>
-  </si>
-  <si>
-    <t>SP_056</t>
-  </si>
-  <si>
-    <t>这个车标是什么品牌？</t>
-  </si>
-  <si>
-    <t>迈凯伦</t>
-  </si>
-  <si>
-    <t>保时捷</t>
-  </si>
-  <si>
-    <t>SP_057</t>
-  </si>
-  <si>
-    <t>这是什么准备动作</t>
-  </si>
-  <si>
-    <t>跑步</t>
-  </si>
-  <si>
-    <t>跳水</t>
-  </si>
-  <si>
-    <t>SP_058</t>
-  </si>
-  <si>
-    <t>老板说的是几？</t>
-  </si>
-  <si>
-    <t>SP_059</t>
-  </si>
-  <si>
-    <t>形容一下小喵的内心</t>
-  </si>
-  <si>
-    <t>你最好有事</t>
-  </si>
-  <si>
-    <t>我谢谢你啊</t>
-  </si>
-  <si>
-    <t>SP_060</t>
-  </si>
-  <si>
-    <t>狗狗是怎么摔倒的？</t>
-  </si>
-  <si>
-    <t>鸡蛋滑到的</t>
-  </si>
-  <si>
-    <t>被鸭子气的</t>
-  </si>
-  <si>
-    <t>SP_061</t>
-  </si>
-  <si>
-    <t>视频中吃的这一口是什么颜色的冰沙？</t>
-  </si>
-  <si>
-    <t>白色</t>
-  </si>
-  <si>
-    <t>绿色</t>
-  </si>
-  <si>
-    <t>SP_062</t>
-  </si>
-  <si>
-    <t>第一个人是真的扭不动吗？</t>
-  </si>
-  <si>
-    <t>是的</t>
-  </si>
-  <si>
-    <t>不是的</t>
-  </si>
-  <si>
-    <t>SP_063</t>
-  </si>
-  <si>
-    <t>鳄鱼为什么无动于衷？</t>
-  </si>
-  <si>
-    <t>不在食谱中</t>
-  </si>
-  <si>
-    <t>饱了</t>
-  </si>
-  <si>
-    <t>SP_064</t>
-  </si>
-  <si>
-    <t>他在笑什么？</t>
-  </si>
-  <si>
-    <t>可以换新帽子了</t>
-  </si>
-  <si>
-    <t>帽子正好掉在牛头上</t>
-  </si>
-  <si>
-    <t>SP_065</t>
-  </si>
-  <si>
-    <t>利用了什么原理？</t>
-  </si>
-  <si>
-    <t>重力</t>
-  </si>
-  <si>
-    <t>弹力</t>
-  </si>
-  <si>
-    <t>SP_066</t>
-  </si>
-  <si>
-    <t>螃蟹是怎么走的？</t>
-  </si>
-  <si>
-    <t>滑着走</t>
-  </si>
-  <si>
-    <t>横着走</t>
-  </si>
-  <si>
-    <t>SP_067</t>
+    <t>品如</t>
+  </si>
+  <si>
+    <t>SP_100</t>
   </si>
 </sst>
 </file>
@@ -839,7 +1181,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="25">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -856,6 +1198,12 @@
     <font>
       <sz val="16"/>
       <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -1017,12 +1365,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1322,51 +1676,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -1376,98 +1727,101 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1486,10 +1840,16 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1813,10 +2173,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:H70"/>
+  <dimension ref="A1:H103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="D70" sqref="D70"/>
+    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
+      <selection activeCell="B68" sqref="B68:B103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="7"/>
@@ -1915,17 +2275,17 @@
       <c r="C4" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="6">
+        <v>5</v>
+      </c>
+      <c r="E4" s="6">
+        <v>6</v>
+      </c>
+      <c r="F4" s="6">
+        <v>1</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="6">
-        <v>1</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>22</v>
       </c>
       <c r="H4" s="4"/>
     </row>
@@ -1935,19 +2295,19 @@
         <v>2</v>
       </c>
       <c r="C5" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="6" t="s">
         <v>23</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>25</v>
       </c>
       <c r="F5" s="6">
         <v>2</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H5" s="4"/>
     </row>
@@ -1957,19 +2317,19 @@
         <v>3</v>
       </c>
       <c r="C6" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="F6" s="6">
+        <v>2</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>28</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F6" s="6">
-        <v>1</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>30</v>
       </c>
       <c r="H6" s="4"/>
     </row>
@@ -1979,19 +2339,19 @@
         <v>4</v>
       </c>
       <c r="C7" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="F7" s="6">
+        <v>1</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="F7" s="6">
-        <v>2</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>34</v>
       </c>
       <c r="H7" s="4"/>
     </row>
@@ -2001,19 +2361,19 @@
         <v>5</v>
       </c>
       <c r="C8" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="F8" s="6">
+        <v>1</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>36</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="F8" s="6">
-        <v>2</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>38</v>
       </c>
       <c r="H8" s="4"/>
     </row>
@@ -2023,19 +2383,19 @@
         <v>6</v>
       </c>
       <c r="C9" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="F9" s="6">
+        <v>1</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>40</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="F9" s="6">
-        <v>1</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>42</v>
       </c>
       <c r="H9" s="4"/>
     </row>
@@ -2045,19 +2405,19 @@
         <v>7</v>
       </c>
       <c r="C10" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="F10" s="6">
+        <v>1</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="F10" s="6">
-        <v>1</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="H10" s="4"/>
     </row>
@@ -2067,19 +2427,19 @@
         <v>8</v>
       </c>
       <c r="C11" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="F11" s="6">
+        <v>1</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>48</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="F11" s="6">
-        <v>2</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>50</v>
       </c>
       <c r="H11" s="4"/>
     </row>
@@ -2089,16 +2449,16 @@
         <v>9</v>
       </c>
       <c r="C12" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E12" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="D12" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>49</v>
-      </c>
       <c r="F12" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>52</v>
@@ -2119,7 +2479,7 @@
         <v>55</v>
       </c>
       <c r="F13" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>56</v>
@@ -2130,19 +2490,19 @@
       <c r="B14" s="3">
         <v>11</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="E14" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="F14" s="6">
-        <v>1</v>
-      </c>
-      <c r="G14" s="7" t="s">
+      <c r="F14" s="8">
+        <v>2</v>
+      </c>
+      <c r="G14" s="9" t="s">
         <v>60</v>
       </c>
     </row>
@@ -2180,7 +2540,7 @@
         <v>67</v>
       </c>
       <c r="F16" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>68</v>
@@ -2200,7 +2560,7 @@
         <v>71</v>
       </c>
       <c r="F17" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>72</v>
@@ -2260,7 +2620,7 @@
         <v>83</v>
       </c>
       <c r="F20" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>84</v>
@@ -2280,7 +2640,7 @@
         <v>87</v>
       </c>
       <c r="F21" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G21" s="7" t="s">
         <v>88</v>
@@ -2314,16 +2674,16 @@
         <v>93</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>70</v>
+        <v>94</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>71</v>
+        <v>95</v>
       </c>
       <c r="F23" s="6">
         <v>1</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="2:7">
@@ -2331,19 +2691,19 @@
         <v>21</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>41</v>
+        <v>99</v>
       </c>
       <c r="F24" s="6">
         <v>1</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="2:7">
@@ -2351,19 +2711,19 @@
         <v>22</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>99</v>
+        <v>74</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="F25" s="6">
         <v>2</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="26" customHeight="1" spans="2:7">
@@ -2371,19 +2731,19 @@
         <v>23</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F26" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="2:7">
@@ -2391,19 +2751,19 @@
         <v>24</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F27" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="28" customHeight="1" spans="2:7">
@@ -2411,19 +2771,19 @@
         <v>25</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F28" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="29" customHeight="1" spans="2:7">
@@ -2431,19 +2791,19 @@
         <v>26</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F29" s="6">
         <v>1</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="30" customHeight="1" spans="2:7">
@@ -2451,19 +2811,19 @@
         <v>27</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F30" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="31" customHeight="1" spans="2:7">
@@ -2471,19 +2831,19 @@
         <v>28</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F31" s="6">
         <v>1</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="32" customHeight="1" spans="2:7">
@@ -2491,19 +2851,19 @@
         <v>29</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>107</v>
+        <v>128</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="F32" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
     </row>
     <row r="33" customHeight="1" spans="2:7">
@@ -2511,19 +2871,19 @@
         <v>30</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="F33" s="6">
         <v>2</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
     </row>
     <row r="34" customHeight="1" spans="2:7">
@@ -2531,19 +2891,19 @@
         <v>31</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="F34" s="6">
         <v>1</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="35" customHeight="1" spans="2:7">
@@ -2551,19 +2911,19 @@
         <v>32</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="F35" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
     </row>
     <row r="36" customHeight="1" spans="2:7">
@@ -2571,19 +2931,19 @@
         <v>33</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="F36" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
     </row>
     <row r="37" customHeight="1" spans="2:7">
@@ -2591,19 +2951,19 @@
         <v>34</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>145</v>
+        <v>87</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="F37" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="38" customHeight="1" spans="2:7">
@@ -2611,19 +2971,19 @@
         <v>35</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>149</v>
+        <v>74</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F38" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="39" customHeight="1" spans="2:7">
@@ -2631,19 +2991,19 @@
         <v>36</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F39" s="6">
         <v>2</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="40" customHeight="1" spans="2:7">
@@ -2651,19 +3011,19 @@
         <v>37</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F40" s="6">
         <v>1</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="41" customHeight="1" spans="2:7">
@@ -2671,19 +3031,19 @@
         <v>38</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F41" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="42" customHeight="1" spans="2:7">
@@ -2691,19 +3051,19 @@
         <v>39</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F42" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="43" customHeight="1" spans="2:7">
@@ -2711,19 +3071,19 @@
         <v>40</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>129</v>
+        <v>170</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>130</v>
+        <v>171</v>
       </c>
       <c r="F43" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="44" customHeight="1" spans="2:7">
@@ -2731,19 +3091,19 @@
         <v>41</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="F44" s="6">
         <v>1</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
     <row r="45" customHeight="1" spans="2:7">
@@ -2751,19 +3111,19 @@
         <v>42</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>175</v>
+        <v>79</v>
       </c>
       <c r="E45" s="6" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="F45" s="6">
         <v>1</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="46" customHeight="1" spans="2:7">
@@ -2771,19 +3131,19 @@
         <v>43</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E46" s="6" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="F46" s="6">
         <v>1</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="47" customHeight="1" spans="2:7">
@@ -2791,19 +3151,19 @@
         <v>44</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>182</v>
+        <v>107</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F47" s="6">
         <v>1</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="48" customHeight="1" spans="2:7">
@@ -2811,19 +3171,19 @@
         <v>45</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F48" s="6">
         <v>1</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="49" customHeight="1" spans="2:7">
@@ -2831,19 +3191,19 @@
         <v>46</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E49" s="6" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F49" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="50" customHeight="1" spans="2:7">
@@ -2851,19 +3211,19 @@
         <v>47</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F50" s="6">
         <v>1</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="51" customHeight="1" spans="2:7">
@@ -2871,39 +3231,39 @@
         <v>48</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E51" s="6" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F51" s="6">
         <v>1</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="52" customHeight="1" spans="2:7">
       <c r="B52" s="3">
         <v>49</v>
       </c>
-      <c r="C52" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="D52" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="E52" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="F52" s="6">
-        <v>1</v>
-      </c>
-      <c r="G52" s="7" t="s">
+      <c r="C52" s="8" t="s">
         <v>203</v>
+      </c>
+      <c r="D52" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="E52" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="F52" s="8">
+        <v>1</v>
+      </c>
+      <c r="G52" s="9" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="53" customHeight="1" spans="2:7">
@@ -2911,19 +3271,19 @@
         <v>50</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="E53" s="6" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="F53" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
     </row>
     <row r="54" customHeight="1" spans="2:7">
@@ -2931,19 +3291,19 @@
         <v>51</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>59</v>
+        <v>212</v>
       </c>
       <c r="E54" s="6" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="F54" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
     </row>
     <row r="55" customHeight="1" spans="2:7">
@@ -2951,19 +3311,19 @@
         <v>52</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="E55" s="6" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="F55" s="6">
         <v>1</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="56" customHeight="1" spans="2:7">
@@ -2971,19 +3331,19 @@
         <v>53</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>142</v>
+        <v>74</v>
       </c>
       <c r="E56" s="6" t="s">
-        <v>216</v>
+        <v>79</v>
       </c>
       <c r="F56" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
     </row>
     <row r="57" customHeight="1" spans="2:7">
@@ -2991,19 +3351,19 @@
         <v>54</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>142</v>
+        <v>222</v>
       </c>
       <c r="E57" s="6" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="F57" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
     </row>
     <row r="58" customHeight="1" spans="2:7">
@@ -3011,19 +3371,19 @@
         <v>55</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>221</v>
+        <v>180</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="E58" s="6" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="F58" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
     </row>
     <row r="59" customHeight="1" spans="2:7">
@@ -3031,19 +3391,19 @@
         <v>56</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>226</v>
+        <v>74</v>
       </c>
       <c r="E59" s="6" t="s">
-        <v>227</v>
+        <v>79</v>
       </c>
       <c r="F59" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="60" customHeight="1" spans="2:7">
@@ -3051,19 +3411,19 @@
         <v>57</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="D60" s="6" t="s">
         <v>230</v>
       </c>
-      <c r="E60" s="6" t="s">
-        <v>231</v>
+      <c r="D60" s="6">
+        <v>100</v>
+      </c>
+      <c r="E60" s="6">
+        <v>50</v>
       </c>
       <c r="F60" s="6">
         <v>2</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="61" customHeight="1" spans="2:7">
@@ -3071,19 +3431,19 @@
         <v>58</v>
       </c>
       <c r="C61" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="D61" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="D61" s="6" t="s">
+      <c r="E61" s="6" t="s">
         <v>234</v>
       </c>
-      <c r="E61" s="6" t="s">
+      <c r="F61" s="6">
+        <v>2</v>
+      </c>
+      <c r="G61" s="7" t="s">
         <v>235</v>
-      </c>
-      <c r="F61" s="6">
-        <v>1</v>
-      </c>
-      <c r="G61" s="7" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="62" customHeight="1" spans="2:7">
@@ -3091,19 +3451,19 @@
         <v>59</v>
       </c>
       <c r="C62" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="D62" s="6" t="s">
         <v>237</v>
       </c>
-      <c r="D62" s="6">
-        <v>5</v>
-      </c>
-      <c r="E62" s="6">
-        <v>6</v>
+      <c r="E62" s="6" t="s">
+        <v>238</v>
       </c>
       <c r="F62" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="63" customHeight="1" spans="2:7">
@@ -3111,19 +3471,19 @@
         <v>60</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E63" s="6" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="F63" s="6">
         <v>1</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="64" customHeight="1" spans="2:7">
@@ -3131,19 +3491,19 @@
         <v>61</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E64" s="6" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="F64" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="65" customHeight="1" spans="2:7">
@@ -3151,19 +3511,19 @@
         <v>62</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E65" s="6" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="F65" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="66" customHeight="1" spans="2:7">
@@ -3171,19 +3531,19 @@
         <v>63</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E66" s="6" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="F66" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G66" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="67" customHeight="1" spans="2:7">
@@ -3191,19 +3551,19 @@
         <v>64</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E67" s="6" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="F67" s="6">
         <v>1</v>
       </c>
       <c r="G67" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="68" customHeight="1" spans="2:7">
@@ -3211,16 +3571,16 @@
         <v>65</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>260</v>
+        <v>140</v>
       </c>
       <c r="E68" s="6" t="s">
         <v>261</v>
       </c>
       <c r="F68" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G68" s="7" t="s">
         <v>262</v>
@@ -3254,16 +3614,676 @@
         <v>267</v>
       </c>
       <c r="D70" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="E70" s="6" t="s">
         <v>268</v>
       </c>
-      <c r="E70" s="6" t="s">
+      <c r="F70" s="6" t="s">
         <v>269</v>
-      </c>
-      <c r="F70" s="6">
-        <v>2</v>
       </c>
       <c r="G70" s="7" t="s">
         <v>270</v>
+      </c>
+    </row>
+    <row r="71" customHeight="1" spans="2:7">
+      <c r="B71" s="3">
+        <v>68</v>
+      </c>
+      <c r="C71" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="D71" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="E71" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="F71" s="6">
+        <v>2</v>
+      </c>
+      <c r="G71" s="7" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="72" customHeight="1" spans="2:7">
+      <c r="B72" s="3">
+        <v>69</v>
+      </c>
+      <c r="C72" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="D72" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="E72" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="F72" s="6">
+        <v>1</v>
+      </c>
+      <c r="G72" s="7" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="73" customHeight="1" spans="2:7">
+      <c r="B73" s="3">
+        <v>70</v>
+      </c>
+      <c r="C73" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="D73" s="6">
+        <v>1</v>
+      </c>
+      <c r="E73" s="6">
+        <v>2</v>
+      </c>
+      <c r="F73" s="6">
+        <v>2</v>
+      </c>
+      <c r="G73" s="7" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="74" customHeight="1" spans="2:7">
+      <c r="B74" s="3">
+        <v>71</v>
+      </c>
+      <c r="C74" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="D74" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="E74" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="F74" s="6">
+        <v>1</v>
+      </c>
+      <c r="G74" s="7" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="75" customHeight="1" spans="2:7">
+      <c r="B75" s="3">
+        <v>72</v>
+      </c>
+      <c r="C75" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="D75" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="E75" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="F75" s="6">
+        <v>1</v>
+      </c>
+      <c r="G75" s="7" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="76" customHeight="1" spans="2:7">
+      <c r="B76" s="3">
+        <v>73</v>
+      </c>
+      <c r="C76" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="D76" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="E76" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="F76" s="6">
+        <v>1</v>
+      </c>
+      <c r="G76" s="7" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="77" customHeight="1" spans="2:7">
+      <c r="B77" s="3">
+        <v>74</v>
+      </c>
+      <c r="C77" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="D77" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="E77" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="F77" s="6">
+        <v>1</v>
+      </c>
+      <c r="G77" s="7" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="78" customHeight="1" spans="2:7">
+      <c r="B78" s="3">
+        <v>75</v>
+      </c>
+      <c r="C78" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="D78" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="E78" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="F78" s="6">
+        <v>1</v>
+      </c>
+      <c r="G78" s="7" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="79" customHeight="1" spans="2:7">
+      <c r="B79" s="3">
+        <v>76</v>
+      </c>
+      <c r="C79" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="D79" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="E79" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="F79" s="6">
+        <v>1</v>
+      </c>
+      <c r="G79" s="7" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="80" customHeight="1" spans="2:7">
+      <c r="B80" s="3">
+        <v>77</v>
+      </c>
+      <c r="C80" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="D80" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="E80" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="F80" s="6">
+        <v>1</v>
+      </c>
+      <c r="G80" s="7" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="81" customHeight="1" spans="2:7">
+      <c r="B81" s="3">
+        <v>78</v>
+      </c>
+      <c r="C81" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="D81" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="E81" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="F81" s="6">
+        <v>1</v>
+      </c>
+      <c r="G81" s="7" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="82" customHeight="1" spans="2:7">
+      <c r="B82" s="3">
+        <v>79</v>
+      </c>
+      <c r="C82" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="D82" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="E82" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="F82" s="6">
+        <v>1</v>
+      </c>
+      <c r="G82" s="7" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="83" customHeight="1" spans="2:7">
+      <c r="B83" s="3">
+        <v>80</v>
+      </c>
+      <c r="C83" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="D83" s="6" t="s">
+        <v>313</v>
+      </c>
+      <c r="E83" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="F83" s="6">
+        <v>1</v>
+      </c>
+      <c r="G83" s="7" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="84" customHeight="1" spans="2:7">
+      <c r="B84" s="3">
+        <v>81</v>
+      </c>
+      <c r="C84" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="D84" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="E84" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="F84" s="6">
+        <v>2</v>
+      </c>
+      <c r="G84" s="7" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="85" customHeight="1" spans="2:7">
+      <c r="B85" s="3">
+        <v>82</v>
+      </c>
+      <c r="C85" s="6" t="s">
+        <v>319</v>
+      </c>
+      <c r="D85" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="E85" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="F85" s="6">
+        <v>2</v>
+      </c>
+      <c r="G85" s="7" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="86" customHeight="1" spans="2:7">
+      <c r="B86" s="3">
+        <v>83</v>
+      </c>
+      <c r="C86" s="6" t="s">
+        <v>323</v>
+      </c>
+      <c r="D86" s="6" t="s">
+        <v>324</v>
+      </c>
+      <c r="E86" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="F86" s="6">
+        <v>2</v>
+      </c>
+      <c r="G86" s="7" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="87" customHeight="1" spans="2:7">
+      <c r="B87" s="3">
+        <v>84</v>
+      </c>
+      <c r="C87" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="D87" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="E87" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="F87" s="6">
+        <v>2</v>
+      </c>
+      <c r="G87" s="7" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="88" customHeight="1" spans="2:7">
+      <c r="B88" s="3">
+        <v>85</v>
+      </c>
+      <c r="C88" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="D88" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="E88" s="6" t="s">
+        <v>331</v>
+      </c>
+      <c r="F88" s="6">
+        <v>1</v>
+      </c>
+      <c r="G88" s="7" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="89" customHeight="1" spans="2:7">
+      <c r="B89" s="3">
+        <v>86</v>
+      </c>
+      <c r="C89" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="D89" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="E89" s="6" t="s">
+        <v>335</v>
+      </c>
+      <c r="F89" s="6">
+        <v>1</v>
+      </c>
+      <c r="G89" s="7" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="90" customHeight="1" spans="2:7">
+      <c r="B90" s="3">
+        <v>87</v>
+      </c>
+      <c r="C90" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="D90" s="6" t="s">
+        <v>338</v>
+      </c>
+      <c r="E90" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="F90" s="6">
+        <v>1</v>
+      </c>
+      <c r="G90" s="7" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="91" customHeight="1" spans="2:7">
+      <c r="B91" s="3">
+        <v>88</v>
+      </c>
+      <c r="C91" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="D91" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="E91" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="F91" s="6">
+        <v>2</v>
+      </c>
+      <c r="G91" s="7" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="92" customHeight="1" spans="2:7">
+      <c r="B92" s="3">
+        <v>89</v>
+      </c>
+      <c r="C92" s="6" t="s">
+        <v>343</v>
+      </c>
+      <c r="D92" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="E92" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="F92" s="6">
+        <v>1</v>
+      </c>
+      <c r="G92" s="7" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="93" customHeight="1" spans="2:7">
+      <c r="B93" s="3">
+        <v>90</v>
+      </c>
+      <c r="C93" s="6" t="s">
+        <v>346</v>
+      </c>
+      <c r="D93" s="6" t="s">
+        <v>347</v>
+      </c>
+      <c r="E93" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="F93" s="6">
+        <v>1</v>
+      </c>
+      <c r="G93" s="7" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="94" customHeight="1" spans="2:7">
+      <c r="B94" s="3">
+        <v>91</v>
+      </c>
+      <c r="C94" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="D94" s="6" t="s">
+        <v>351</v>
+      </c>
+      <c r="E94" s="6" t="s">
+        <v>352</v>
+      </c>
+      <c r="F94" s="6">
+        <v>1</v>
+      </c>
+      <c r="G94" s="7" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="95" customHeight="1" spans="2:7">
+      <c r="B95" s="3">
+        <v>92</v>
+      </c>
+      <c r="C95" s="6" t="s">
+        <v>354</v>
+      </c>
+      <c r="D95" s="6" t="s">
+        <v>355</v>
+      </c>
+      <c r="E95" s="6" t="s">
+        <v>356</v>
+      </c>
+      <c r="F95" s="6">
+        <v>1</v>
+      </c>
+      <c r="G95" s="7" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="96" customHeight="1" spans="2:7">
+      <c r="B96" s="3">
+        <v>93</v>
+      </c>
+      <c r="C96" s="6" t="s">
+        <v>358</v>
+      </c>
+      <c r="D96" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="E96" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="F96" s="6">
+        <v>1</v>
+      </c>
+      <c r="G96" s="7" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="97" customHeight="1" spans="2:7">
+      <c r="B97" s="3">
+        <v>94</v>
+      </c>
+      <c r="C97" s="6" t="s">
+        <v>360</v>
+      </c>
+      <c r="D97" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="E97" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="F97" s="6">
+        <v>1</v>
+      </c>
+      <c r="G97" s="7" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="98" customHeight="1" spans="2:7">
+      <c r="B98" s="3">
+        <v>95</v>
+      </c>
+      <c r="C98" s="6" t="s">
+        <v>362</v>
+      </c>
+      <c r="D98" s="6" t="s">
+        <v>363</v>
+      </c>
+      <c r="E98" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="F98" s="6">
+        <v>2</v>
+      </c>
+      <c r="G98" s="7" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="99" customHeight="1" spans="2:7">
+      <c r="B99" s="3">
+        <v>96</v>
+      </c>
+      <c r="C99" s="6" t="s">
+        <v>365</v>
+      </c>
+      <c r="D99" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="E99" s="6" t="s">
+        <v>367</v>
+      </c>
+      <c r="F99" s="6">
+        <v>2</v>
+      </c>
+      <c r="G99" s="7" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="100" customHeight="1" spans="2:7">
+      <c r="B100" s="3">
+        <v>97</v>
+      </c>
+      <c r="C100" s="6" t="s">
+        <v>369</v>
+      </c>
+      <c r="D100" s="6" t="s">
+        <v>370</v>
+      </c>
+      <c r="E100" s="6" t="s">
+        <v>371</v>
+      </c>
+      <c r="F100" s="6">
+        <v>2</v>
+      </c>
+      <c r="G100" s="7" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="101" customHeight="1" spans="2:7">
+      <c r="B101" s="3">
+        <v>98</v>
+      </c>
+      <c r="C101" s="6" t="s">
+        <v>373</v>
+      </c>
+      <c r="D101" s="6" t="s">
+        <v>374</v>
+      </c>
+      <c r="E101" s="6" t="s">
+        <v>375</v>
+      </c>
+      <c r="F101" s="6">
+        <v>1</v>
+      </c>
+      <c r="G101" s="7" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="102" customHeight="1" spans="2:7">
+      <c r="B102" s="3">
+        <v>99</v>
+      </c>
+      <c r="C102" s="6" t="s">
+        <v>377</v>
+      </c>
+      <c r="D102" s="6" t="s">
+        <v>378</v>
+      </c>
+      <c r="E102" s="6" t="s">
+        <v>379</v>
+      </c>
+      <c r="F102" s="6">
+        <v>2</v>
+      </c>
+      <c r="G102" s="7" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="103" customHeight="1" spans="2:7">
+      <c r="B103" s="3">
+        <v>100</v>
+      </c>
+      <c r="C103" s="6" t="s">
+        <v>381</v>
+      </c>
+      <c r="D103" s="6" t="s">
+        <v>382</v>
+      </c>
+      <c r="E103" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="F103" s="6">
+        <v>1</v>
+      </c>
+      <c r="G103" s="7" t="s">
+        <v>384</v>
       </c>
     </row>
   </sheetData>

--- a/Client/Table/Level/视频答题题库.xlsx
+++ b/Client/Table/Level/视频答题题库.xlsx
@@ -823,7 +823,7 @@
     <t>我才没有</t>
   </si>
   <si>
-    <t>1；2</t>
+    <t>1,2</t>
   </si>
   <si>
     <t>SP_067</t>
@@ -2175,8 +2175,8 @@
   </sheetPr>
   <dimension ref="A1:H103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
-      <selection activeCell="B68" sqref="B68:B103"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="F70" sqref="F70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="7"/>

--- a/Client/Table/Level/视频答题题库.xlsx
+++ b/Client/Table/Level/视频答题题库.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30615" windowHeight="15480"/>
+    <workbookView windowWidth="30855" windowHeight="16065"/>
   </bookViews>
   <sheets>
     <sheet name="TableAnswerInfo_NJZW" sheetId="3" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="385">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1344" uniqueCount="1190">
   <si>
     <t>[2,2]</t>
   </si>
@@ -1169,6 +1169,2421 @@
   </si>
   <si>
     <t>SP_100</t>
+  </si>
+  <si>
+    <t>这是一直什么小狗？</t>
+  </si>
+  <si>
+    <t>柯基</t>
+  </si>
+  <si>
+    <t>SP_101</t>
+  </si>
+  <si>
+    <t>为什么扣不上？</t>
+  </si>
+  <si>
+    <t>小肚子太大了</t>
+  </si>
+  <si>
+    <t>扣子坏了</t>
+  </si>
+  <si>
+    <t>SP_102</t>
+  </si>
+  <si>
+    <t>这是什么科目？</t>
+  </si>
+  <si>
+    <t>数学</t>
+  </si>
+  <si>
+    <t>毛概</t>
+  </si>
+  <si>
+    <t>SP_103</t>
+  </si>
+  <si>
+    <t>小哥哥是玩什么摔倒的？</t>
+  </si>
+  <si>
+    <t>蹦极</t>
+  </si>
+  <si>
+    <t>滑板</t>
+  </si>
+  <si>
+    <t>SP_104</t>
+  </si>
+  <si>
+    <t>发光的是什么？</t>
+  </si>
+  <si>
+    <t>小灯</t>
+  </si>
+  <si>
+    <t>自然光</t>
+  </si>
+  <si>
+    <t>SP_105</t>
+  </si>
+  <si>
+    <t>这是什么仪式？</t>
+  </si>
+  <si>
+    <t>毕业典礼</t>
+  </si>
+  <si>
+    <t>诺贝尔颁奖</t>
+  </si>
+  <si>
+    <t>SP_106</t>
+  </si>
+  <si>
+    <t>视频中的人穿的什么衣服？</t>
+  </si>
+  <si>
+    <t>泳衣</t>
+  </si>
+  <si>
+    <t>袋鼠装</t>
+  </si>
+  <si>
+    <t>SP_107</t>
+  </si>
+  <si>
+    <t>身上的线是什么作用？</t>
+  </si>
+  <si>
+    <t>电线</t>
+  </si>
+  <si>
+    <t>SP_108</t>
+  </si>
+  <si>
+    <t>视频中一共几个人？</t>
+  </si>
+  <si>
+    <t>SP_109</t>
+  </si>
+  <si>
+    <t>女孩是是被什么冲走的？</t>
+  </si>
+  <si>
+    <t>浪</t>
+  </si>
+  <si>
+    <t>风</t>
+  </si>
+  <si>
+    <t>SP_110</t>
+  </si>
+  <si>
+    <t>小女孩胸前的是什么？</t>
+  </si>
+  <si>
+    <t>蝴蝶结</t>
+  </si>
+  <si>
+    <t>红领巾</t>
+  </si>
+  <si>
+    <t>SP_111</t>
+  </si>
+  <si>
+    <t>小男孩伸出来第几个手指？</t>
+  </si>
+  <si>
+    <t>大拇指</t>
+  </si>
+  <si>
+    <t>中指</t>
+  </si>
+  <si>
+    <t>SP_112</t>
+  </si>
+  <si>
+    <t>这是什么小动物？</t>
+  </si>
+  <si>
+    <t>小恐龙</t>
+  </si>
+  <si>
+    <t>小喵喵</t>
+  </si>
+  <si>
+    <t>SP_113</t>
+  </si>
+  <si>
+    <t>下雪了吗？</t>
+  </si>
+  <si>
+    <t>下了</t>
+  </si>
+  <si>
+    <t>没下</t>
+  </si>
+  <si>
+    <t>SP_114</t>
+  </si>
+  <si>
+    <t>木板是小女孩子踢断的吗？</t>
+  </si>
+  <si>
+    <t>SP_115</t>
+  </si>
+  <si>
+    <t>屁股是真的嘛？</t>
+  </si>
+  <si>
+    <t>SP_116</t>
+  </si>
+  <si>
+    <t>小哥哥蹬腿是为什么？</t>
+  </si>
+  <si>
+    <t>控制购物车</t>
+  </si>
+  <si>
+    <t>腿疼</t>
+  </si>
+  <si>
+    <t>SP_117</t>
+  </si>
+  <si>
+    <t>小哥哥的头怎么了？</t>
+  </si>
+  <si>
+    <t>癫痫</t>
+  </si>
+  <si>
+    <t>好奇</t>
+  </si>
+  <si>
+    <t>SP_118</t>
+  </si>
+  <si>
+    <t>只要我不尴尬，尴尬的就是谁？</t>
+  </si>
+  <si>
+    <t>别人</t>
+  </si>
+  <si>
+    <t>还是自己</t>
+  </si>
+  <si>
+    <t>SP_119</t>
+  </si>
+  <si>
+    <t>小哥哥撞到了什么颜色的车？</t>
+  </si>
+  <si>
+    <t>蓝色</t>
+  </si>
+  <si>
+    <t>SP_120</t>
+  </si>
+  <si>
+    <t>他们在学什么？</t>
+  </si>
+  <si>
+    <t>恐龙</t>
+  </si>
+  <si>
+    <t>鸵鸟</t>
+  </si>
+  <si>
+    <t>SP_121</t>
+  </si>
+  <si>
+    <t>SP_122</t>
+  </si>
+  <si>
+    <t>摔倒几个人？</t>
+  </si>
+  <si>
+    <t>SP_123</t>
+  </si>
+  <si>
+    <t>小孩抱着什么？</t>
+  </si>
+  <si>
+    <t>拖把</t>
+  </si>
+  <si>
+    <t>头发</t>
+  </si>
+  <si>
+    <t>SP_124</t>
+  </si>
+  <si>
+    <t>女孩胸前的数字是几？</t>
+  </si>
+  <si>
+    <t>SP_125</t>
+  </si>
+  <si>
+    <t>女孩的头发是被什么点燃的？</t>
+  </si>
+  <si>
+    <t>生日蜡烛</t>
+  </si>
+  <si>
+    <t>自然</t>
+  </si>
+  <si>
+    <t>SP_126</t>
+  </si>
+  <si>
+    <t>冰面是怎么裂开的？</t>
+  </si>
+  <si>
+    <t>女孩踩的</t>
+  </si>
+  <si>
+    <t>自己裂开的</t>
+  </si>
+  <si>
+    <t>SP_127</t>
+  </si>
+  <si>
+    <t>打中球了吗？</t>
+  </si>
+  <si>
+    <t>SP_128</t>
+  </si>
+  <si>
+    <t>女孩在惊呼什么？</t>
+  </si>
+  <si>
+    <t>自己跳的太好了</t>
+  </si>
+  <si>
+    <t>裤子撕开了</t>
+  </si>
+  <si>
+    <t>SP_129</t>
+  </si>
+  <si>
+    <t>男孩抢走了什么？</t>
+  </si>
+  <si>
+    <t>钱</t>
+  </si>
+  <si>
+    <t>车</t>
+  </si>
+  <si>
+    <t>SP_130</t>
+  </si>
+  <si>
+    <t>男孩成功了吗？</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>SP_131</t>
+  </si>
+  <si>
+    <t>男孩怎么了？</t>
+  </si>
+  <si>
+    <t>裤子掉了</t>
+  </si>
+  <si>
+    <t>衣服掉了</t>
+  </si>
+  <si>
+    <t>SP_132</t>
+  </si>
+  <si>
+    <t>谁赢了？</t>
+  </si>
+  <si>
+    <t>穿蓝色衣服的</t>
+  </si>
+  <si>
+    <t>穿黑色衣服的</t>
+  </si>
+  <si>
+    <t>SP_133</t>
+  </si>
+  <si>
+    <t>跑步机上放了一个什么？</t>
+  </si>
+  <si>
+    <t>鹿头</t>
+  </si>
+  <si>
+    <t>牛头</t>
+  </si>
+  <si>
+    <t>SP_134</t>
+  </si>
+  <si>
+    <t>接到篮球了吗？</t>
+  </si>
+  <si>
+    <t>SP_135</t>
+  </si>
+  <si>
+    <t>黑人小哥打对人了吗？</t>
+  </si>
+  <si>
+    <t>并没有</t>
+  </si>
+  <si>
+    <t>SP_136</t>
+  </si>
+  <si>
+    <t>进球了吗？</t>
+  </si>
+  <si>
+    <t>进了</t>
+  </si>
+  <si>
+    <t>SP_137</t>
+  </si>
+  <si>
+    <t>这是来自父亲的爱吗？</t>
+  </si>
+  <si>
+    <t>SP_138</t>
+  </si>
+  <si>
+    <t>小姐姐坐的是什么？</t>
+  </si>
+  <si>
+    <t>收纳箱</t>
+  </si>
+  <si>
+    <t>火车</t>
+  </si>
+  <si>
+    <t>SP_139</t>
+  </si>
+  <si>
+    <t>门号是多少？</t>
+  </si>
+  <si>
+    <t>SP_140</t>
+  </si>
+  <si>
+    <t>从视频中可以看出小哥哥是一个什么？</t>
+  </si>
+  <si>
+    <t>球迷</t>
+  </si>
+  <si>
+    <t>法师</t>
+  </si>
+  <si>
+    <t>SP_141</t>
+  </si>
+  <si>
+    <t>小哥哥为什么这么高兴？</t>
+  </si>
+  <si>
+    <t>乒乓球赢了</t>
+  </si>
+  <si>
+    <t>突然兴奋</t>
+  </si>
+  <si>
+    <t>SP_142</t>
+  </si>
+  <si>
+    <t>小Baby吃了什么？</t>
+  </si>
+  <si>
+    <t>西瓜</t>
+  </si>
+  <si>
+    <t>柠檬</t>
+  </si>
+  <si>
+    <t>SP_143</t>
+  </si>
+  <si>
+    <t>马为什么发怒了？</t>
+  </si>
+  <si>
+    <t>拉住头了</t>
+  </si>
+  <si>
+    <t>打它</t>
+  </si>
+  <si>
+    <t>SP_144</t>
+  </si>
+  <si>
+    <t>从她起身我们大概可以推断雪多高?</t>
+  </si>
+  <si>
+    <t>80cm</t>
+  </si>
+  <si>
+    <t>2M</t>
+  </si>
+  <si>
+    <t>SP_145</t>
+  </si>
+  <si>
+    <t>夹到了小伙子的什么地方？</t>
+  </si>
+  <si>
+    <t>嘴巴</t>
+  </si>
+  <si>
+    <t>鼻子</t>
+  </si>
+  <si>
+    <t>SP_146</t>
+  </si>
+  <si>
+    <t>扔的是什么球？</t>
+  </si>
+  <si>
+    <t>保龄球</t>
+  </si>
+  <si>
+    <t>篮球</t>
+  </si>
+  <si>
+    <t>SP_147</t>
+  </si>
+  <si>
+    <t>衣服怎么了？</t>
+  </si>
+  <si>
+    <t>没什么变化</t>
+  </si>
+  <si>
+    <t>缩水了</t>
+  </si>
+  <si>
+    <t>SP_148</t>
+  </si>
+  <si>
+    <t>什么碰了女孩子一下？</t>
+  </si>
+  <si>
+    <t>蜥蜴</t>
+  </si>
+  <si>
+    <t>鸭子</t>
+  </si>
+  <si>
+    <t>SP_149</t>
+  </si>
+  <si>
+    <t>男孩在干什么？</t>
+  </si>
+  <si>
+    <t>做梦</t>
+  </si>
+  <si>
+    <t>脑子有病</t>
+  </si>
+  <si>
+    <t>SP_150</t>
+  </si>
+  <si>
+    <t>女朋友在生气什么？</t>
+  </si>
+  <si>
+    <t>男朋友没有选对</t>
+  </si>
+  <si>
+    <t>他竟然真的敢看</t>
+  </si>
+  <si>
+    <t>SP_151</t>
+  </si>
+  <si>
+    <t>怎么摔倒的？</t>
+  </si>
+  <si>
+    <t>滑板被卡主了</t>
+  </si>
+  <si>
+    <t>滑板断了</t>
+  </si>
+  <si>
+    <t>SP_152</t>
+  </si>
+  <si>
+    <t>男人撞到人了吗？</t>
+  </si>
+  <si>
+    <t>SP_153</t>
+  </si>
+  <si>
+    <t>怎么掉下来了？</t>
+  </si>
+  <si>
+    <t>绳子开了</t>
+  </si>
+  <si>
+    <t>自己掉下来的</t>
+  </si>
+  <si>
+    <t>SP_154</t>
+  </si>
+  <si>
+    <t>小孩手里拿了一个什么？</t>
+  </si>
+  <si>
+    <t>手机</t>
+  </si>
+  <si>
+    <t>pad</t>
+  </si>
+  <si>
+    <t>SP_155</t>
+  </si>
+  <si>
+    <t>飞过来一个什么？</t>
+  </si>
+  <si>
+    <t>足球</t>
+  </si>
+  <si>
+    <t>SP_156</t>
+  </si>
+  <si>
+    <t>小伙子踩着什么？</t>
+  </si>
+  <si>
+    <t>旱冰鞋</t>
+  </si>
+  <si>
+    <t>SP_157</t>
+  </si>
+  <si>
+    <t>从步伐就可以看来什么？</t>
+  </si>
+  <si>
+    <t>真的疼</t>
+  </si>
+  <si>
+    <t>还不太行</t>
+  </si>
+  <si>
+    <t>SP_158</t>
+  </si>
+  <si>
+    <t>倒出来的是什么？</t>
+  </si>
+  <si>
+    <t>油</t>
+  </si>
+  <si>
+    <t>酒精</t>
+  </si>
+  <si>
+    <t>SP_159</t>
+  </si>
+  <si>
+    <t>玉米插到了什么上？</t>
+  </si>
+  <si>
+    <t>电钻</t>
+  </si>
+  <si>
+    <t>玉米地</t>
+  </si>
+  <si>
+    <t>SP_160</t>
+  </si>
+  <si>
+    <t>这算工伤吗？</t>
+  </si>
+  <si>
+    <t>不算</t>
+  </si>
+  <si>
+    <t>算</t>
+  </si>
+  <si>
+    <t>SP_161</t>
+  </si>
+  <si>
+    <t>这是什么现象？</t>
+  </si>
+  <si>
+    <t>篮球的报仇</t>
+  </si>
+  <si>
+    <t>力的反弹</t>
+  </si>
+  <si>
+    <t>SP_162</t>
+  </si>
+  <si>
+    <t>什么掉下来了？</t>
+  </si>
+  <si>
+    <t>灯</t>
+  </si>
+  <si>
+    <t>球</t>
+  </si>
+  <si>
+    <t>SP_163</t>
+  </si>
+  <si>
+    <t>这枪+了多少？</t>
+  </si>
+  <si>
+    <t>SP_164</t>
+  </si>
+  <si>
+    <t>小姐姐带钱了吗？</t>
+  </si>
+  <si>
+    <t>带了，没给</t>
+  </si>
+  <si>
+    <t>SP_165</t>
+  </si>
+  <si>
+    <t>是滑板的问题吗？</t>
+  </si>
+  <si>
+    <t>我说是就是</t>
+  </si>
+  <si>
+    <t>SP_166</t>
+  </si>
+  <si>
+    <t>墙上本来就有洞吗？</t>
+  </si>
+  <si>
+    <t>SP_167</t>
+  </si>
+  <si>
+    <t>小猫在做什么运动？</t>
+  </si>
+  <si>
+    <t>俯卧撑</t>
+  </si>
+  <si>
+    <t>仰卧起坐</t>
+  </si>
+  <si>
+    <t>SP_168</t>
+  </si>
+  <si>
+    <t>真是个悲伤的故事</t>
+  </si>
+  <si>
+    <t>哈哈哈哈</t>
+  </si>
+  <si>
+    <t>SP_169</t>
+  </si>
+  <si>
+    <t>你是不是在想这裤子怎么还不破？</t>
+  </si>
+  <si>
+    <t>被你看穿了</t>
+  </si>
+  <si>
+    <t>SP_170</t>
+  </si>
+  <si>
+    <t>脑中出现了什么词语？</t>
+  </si>
+  <si>
+    <t>看着都疼</t>
+  </si>
+  <si>
+    <t>前列腺刹车</t>
+  </si>
+  <si>
+    <t>SP_171</t>
+  </si>
+  <si>
+    <t>她为什么突然停下来了？</t>
+  </si>
+  <si>
+    <t>歌词“停下”</t>
+  </si>
+  <si>
+    <t>脚滑</t>
+  </si>
+  <si>
+    <t>SP_172</t>
+  </si>
+  <si>
+    <t>描述一下黑人小哥的内心</t>
+  </si>
+  <si>
+    <t>毫无波动</t>
+  </si>
+  <si>
+    <t>挖槽</t>
+  </si>
+  <si>
+    <t>SP_173</t>
+  </si>
+  <si>
+    <t>球碰不到他是因为什么？</t>
+  </si>
+  <si>
+    <t>摇摆不会超过最大</t>
+  </si>
+  <si>
+    <t>舍不得</t>
+  </si>
+  <si>
+    <t>SP_174</t>
+  </si>
+  <si>
+    <t>小伙子被什么吓到的？</t>
+  </si>
+  <si>
+    <t>蛇</t>
+  </si>
+  <si>
+    <t>小强</t>
+  </si>
+  <si>
+    <t>SP_175</t>
+  </si>
+  <si>
+    <t>平稳落地了吗?</t>
+  </si>
+  <si>
+    <t>SP_176</t>
+  </si>
+  <si>
+    <t>这画是用什么画成的？</t>
+  </si>
+  <si>
+    <t>辣椒酱</t>
+  </si>
+  <si>
+    <t>番茄酱</t>
+  </si>
+  <si>
+    <t>SP_177</t>
+  </si>
+  <si>
+    <t>鼻子是真的吗？</t>
+  </si>
+  <si>
+    <t>SP_178</t>
+  </si>
+  <si>
+    <t>视频中女生用什么开瓶？</t>
+  </si>
+  <si>
+    <t>刀</t>
+  </si>
+  <si>
+    <t>瓶起</t>
+  </si>
+  <si>
+    <t>SP_179</t>
+  </si>
+  <si>
+    <t>小哥哥用什么拍的自己？</t>
+  </si>
+  <si>
+    <t>黑板擦</t>
+  </si>
+  <si>
+    <t>白板擦</t>
+  </si>
+  <si>
+    <t>SP_180</t>
+  </si>
+  <si>
+    <t>左边小哥的眼睛是不是可以斜视？</t>
+  </si>
+  <si>
+    <t>SP_181</t>
+  </si>
+  <si>
+    <t>气氛都到这里了这么跳合适吗？</t>
+  </si>
+  <si>
+    <t>不适合</t>
+  </si>
+  <si>
+    <t>合适</t>
+  </si>
+  <si>
+    <t>SP_182</t>
+  </si>
+  <si>
+    <t>狗狗是不是被吓到了？</t>
+  </si>
+  <si>
+    <t>SP_183</t>
+  </si>
+  <si>
+    <t>她是怎么做到的？</t>
+  </si>
+  <si>
+    <t>超能力</t>
+  </si>
+  <si>
+    <t>中间是个镜子</t>
+  </si>
+  <si>
+    <t>SP_184</t>
+  </si>
+  <si>
+    <t>少看点鸡汤</t>
+  </si>
+  <si>
+    <t>相信自己</t>
+  </si>
+  <si>
+    <t>SP_185</t>
+  </si>
+  <si>
+    <t>怎么就移动过去了？</t>
+  </si>
+  <si>
+    <t>吸铁石</t>
+  </si>
+  <si>
+    <t>绞到头发了</t>
+  </si>
+  <si>
+    <t>SP_186</t>
+  </si>
+  <si>
+    <t>弯道快才是真的快？</t>
+  </si>
+  <si>
+    <t>SP_187</t>
+  </si>
+  <si>
+    <t>是什么给了她自信？</t>
+  </si>
+  <si>
+    <t>梁静茹</t>
+  </si>
+  <si>
+    <t>气球</t>
+  </si>
+  <si>
+    <t>SP_188</t>
+  </si>
+  <si>
+    <t>女孩为什么打她零食？</t>
+  </si>
+  <si>
+    <t>声音很烦</t>
+  </si>
+  <si>
+    <t>不给她吃</t>
+  </si>
+  <si>
+    <t>SP_189</t>
+  </si>
+  <si>
+    <t>怀里的是什么？</t>
+  </si>
+  <si>
+    <t>跳蚤</t>
+  </si>
+  <si>
+    <t>SP_190</t>
+  </si>
+  <si>
+    <t>他在模仿谁？</t>
+  </si>
+  <si>
+    <t>蝙蝠侠</t>
+  </si>
+  <si>
+    <t>超人</t>
+  </si>
+  <si>
+    <t>SP_191</t>
+  </si>
+  <si>
+    <t>这叫什么舞？</t>
+  </si>
+  <si>
+    <t>街舞</t>
+  </si>
+  <si>
+    <t>机械舞</t>
+  </si>
+  <si>
+    <t>SP_192</t>
+  </si>
+  <si>
+    <t>视频中屁股上放的是什么？</t>
+  </si>
+  <si>
+    <t>被子</t>
+  </si>
+  <si>
+    <t>肉</t>
+  </si>
+  <si>
+    <t>SP_193</t>
+  </si>
+  <si>
+    <t>视频中的小哥怎么懵了？</t>
+  </si>
+  <si>
+    <t>被撞的</t>
+  </si>
+  <si>
+    <t>接触不良</t>
+  </si>
+  <si>
+    <t>SP_194</t>
+  </si>
+  <si>
+    <t>跳过去了什么？</t>
+  </si>
+  <si>
+    <t>垃圾桶</t>
+  </si>
+  <si>
+    <t>车车</t>
+  </si>
+  <si>
+    <t>SP_195</t>
+  </si>
+  <si>
+    <t>从视频中可以看出完全是栏杆的问题</t>
+  </si>
+  <si>
+    <t>确实是</t>
+  </si>
+  <si>
+    <t>SP_196</t>
+  </si>
+  <si>
+    <t>这是什么技术？</t>
+  </si>
+  <si>
+    <t>3D</t>
+  </si>
+  <si>
+    <t>MAX</t>
+  </si>
+  <si>
+    <t>SP_197</t>
+  </si>
+  <si>
+    <t>小伙子踢到了什么？</t>
+  </si>
+  <si>
+    <t>路人的头</t>
+  </si>
+  <si>
+    <t>皮球</t>
+  </si>
+  <si>
+    <t>SP_198</t>
+  </si>
+  <si>
+    <t>利用了什么原理？</t>
+  </si>
+  <si>
+    <t>滑轮力量</t>
+  </si>
+  <si>
+    <t>杠杆原理</t>
+  </si>
+  <si>
+    <t>SP_199</t>
+  </si>
+  <si>
+    <t>猴哥来跟华子？</t>
+  </si>
+  <si>
+    <t>来</t>
+  </si>
+  <si>
+    <t>必须来</t>
+  </si>
+  <si>
+    <t>SP_200</t>
+  </si>
+  <si>
+    <t>什么喷出来了？</t>
+  </si>
+  <si>
+    <t>豆浆</t>
+  </si>
+  <si>
+    <t>奶</t>
+  </si>
+  <si>
+    <t>SP_201</t>
+  </si>
+  <si>
+    <t>后面是什么小宠物？</t>
+  </si>
+  <si>
+    <t>小狗</t>
+  </si>
+  <si>
+    <t>小猫</t>
+  </si>
+  <si>
+    <t>SP_202</t>
+  </si>
+  <si>
+    <t>鹦鹉是不是在骂人？</t>
+  </si>
+  <si>
+    <t>SP_203</t>
+  </si>
+  <si>
+    <t>你是不是这样的？</t>
+  </si>
+  <si>
+    <t>太真实了</t>
+  </si>
+  <si>
+    <t>摄像头，拆？懂？</t>
+  </si>
+  <si>
+    <t>SP_204</t>
+  </si>
+  <si>
+    <t>这算造句吗？</t>
+  </si>
+  <si>
+    <t>是吧？</t>
+  </si>
+  <si>
+    <t>SP_205</t>
+  </si>
+  <si>
+    <t>这是啥子哟？</t>
+  </si>
+  <si>
+    <t>有声玩具</t>
+  </si>
+  <si>
+    <t>小猪猪</t>
+  </si>
+  <si>
+    <t>SP_206</t>
+  </si>
+  <si>
+    <t>长发还是短发？</t>
+  </si>
+  <si>
+    <t>长发</t>
+  </si>
+  <si>
+    <t>短发</t>
+  </si>
+  <si>
+    <t>SP_207</t>
+  </si>
+  <si>
+    <t>回答的对嘛？</t>
+  </si>
+  <si>
+    <t>玉帝不是黄帝</t>
+  </si>
+  <si>
+    <t>回答的对</t>
+  </si>
+  <si>
+    <t>SP_208</t>
+  </si>
+  <si>
+    <t>嗨起来</t>
+  </si>
+  <si>
+    <t>让我们一起摇摆</t>
+  </si>
+  <si>
+    <t>接着奏乐接着舞</t>
+  </si>
+  <si>
+    <t>SP_209</t>
+  </si>
+  <si>
+    <t>茁壮成长是职位吗?</t>
+  </si>
+  <si>
+    <t>SP_210</t>
+  </si>
+  <si>
+    <t>狗狗说的对嘛？</t>
+  </si>
+  <si>
+    <t>对的</t>
+  </si>
+  <si>
+    <t>不对</t>
+  </si>
+  <si>
+    <t>SP_211</t>
+  </si>
+  <si>
+    <t>小姐姐在比什么动作？</t>
+  </si>
+  <si>
+    <t>比心心</t>
+  </si>
+  <si>
+    <t>击掌</t>
+  </si>
+  <si>
+    <t>SP_212</t>
+  </si>
+  <si>
+    <t>啊这？</t>
+  </si>
+  <si>
+    <t>还有这种操作？</t>
+  </si>
+  <si>
+    <t>SP_213</t>
+  </si>
+  <si>
+    <t>这情话土不土？</t>
+  </si>
+  <si>
+    <t>土</t>
+  </si>
+  <si>
+    <t>属实土</t>
+  </si>
+  <si>
+    <t>SP_214</t>
+  </si>
+  <si>
+    <t>你和猪有区别吗？</t>
+  </si>
+  <si>
+    <t>SP_215</t>
+  </si>
+  <si>
+    <t>狗子头上是什么东西？</t>
+  </si>
+  <si>
+    <t>良心</t>
+  </si>
+  <si>
+    <t>草帽</t>
+  </si>
+  <si>
+    <t>SP_216</t>
+  </si>
+  <si>
+    <t>泡澡舒服吗？</t>
+  </si>
+  <si>
+    <t>真的舒服</t>
+  </si>
+  <si>
+    <t>不舒服</t>
+  </si>
+  <si>
+    <t>SP_217</t>
+  </si>
+  <si>
+    <t>主人最后给狗狗涂了吗？</t>
+  </si>
+  <si>
+    <t>涂了</t>
+  </si>
+  <si>
+    <t>没涂</t>
+  </si>
+  <si>
+    <t>SP_218</t>
+  </si>
+  <si>
+    <t>最后是什么动作？</t>
+  </si>
+  <si>
+    <t>爱心</t>
+  </si>
+  <si>
+    <t>推心</t>
+  </si>
+  <si>
+    <t>SP_219</t>
+  </si>
+  <si>
+    <t>反应出了现实中的谁的内心？</t>
+  </si>
+  <si>
+    <t>男朋友</t>
+  </si>
+  <si>
+    <t>女朋友</t>
+  </si>
+  <si>
+    <t>SP_220</t>
+  </si>
+  <si>
+    <t>飞机能开窗户吗？</t>
+  </si>
+  <si>
+    <t>能</t>
+  </si>
+  <si>
+    <t>SP_221</t>
+  </si>
+  <si>
+    <t>说的还挺有道理？</t>
+  </si>
+  <si>
+    <t>有个锤子道理</t>
+  </si>
+  <si>
+    <t>没错</t>
+  </si>
+  <si>
+    <t>SP_222</t>
+  </si>
+  <si>
+    <t>大妈的什么东西丢了？</t>
+  </si>
+  <si>
+    <t>包包</t>
+  </si>
+  <si>
+    <t>钥匙</t>
+  </si>
+  <si>
+    <t>SP_223</t>
+  </si>
+  <si>
+    <t>古代人怎么死的？</t>
+  </si>
+  <si>
+    <t>热死的</t>
+  </si>
+  <si>
+    <t>老死了</t>
+  </si>
+  <si>
+    <t>SP_224</t>
+  </si>
+  <si>
+    <t>这要求合理吗？</t>
+  </si>
+  <si>
+    <t>合理</t>
+  </si>
+  <si>
+    <t>合理个锤子</t>
+  </si>
+  <si>
+    <t>SP_225</t>
+  </si>
+  <si>
+    <t>狗狗的回答对吗？</t>
+  </si>
+  <si>
+    <t>对</t>
+  </si>
+  <si>
+    <t>SP_226</t>
+  </si>
+  <si>
+    <t>迷茫的小喵喵给出了什么？</t>
+  </si>
+  <si>
+    <t>否定3连</t>
+  </si>
+  <si>
+    <t>迷茫2连</t>
+  </si>
+  <si>
+    <t>SP_227</t>
+  </si>
+  <si>
+    <t>小喵喵的鼻子怎么了？</t>
+  </si>
+  <si>
+    <t>有一个小黑点</t>
+  </si>
+  <si>
+    <t>挺正常的</t>
+  </si>
+  <si>
+    <t>SP_228</t>
+  </si>
+  <si>
+    <t>狗狗在干什么？</t>
+  </si>
+  <si>
+    <t>想一起玩</t>
+  </si>
+  <si>
+    <t>折磨人</t>
+  </si>
+  <si>
+    <t>SP_229</t>
+  </si>
+  <si>
+    <t>可爱不？</t>
+  </si>
+  <si>
+    <t>小猫好可爱</t>
+  </si>
+  <si>
+    <t>女孩好可爱</t>
+  </si>
+  <si>
+    <t>SP_230</t>
+  </si>
+  <si>
+    <t>一排都是什么狗狗？</t>
+  </si>
+  <si>
+    <t>SP_231</t>
+  </si>
+  <si>
+    <t>主人要换什么？</t>
+  </si>
+  <si>
+    <t>新喵喵</t>
+  </si>
+  <si>
+    <t>狗狗</t>
+  </si>
+  <si>
+    <t>SP_232</t>
+  </si>
+  <si>
+    <t>像不像？</t>
+  </si>
+  <si>
+    <t>有那么亿点点像</t>
+  </si>
+  <si>
+    <t>不太像</t>
+  </si>
+  <si>
+    <t>SP_233</t>
+  </si>
+  <si>
+    <t>座位不舒服</t>
+  </si>
+  <si>
+    <t>狗子被闪了一下</t>
+  </si>
+  <si>
+    <t>SP_234</t>
+  </si>
+  <si>
+    <t>最后让给它了吗？</t>
+  </si>
+  <si>
+    <t>SP_235</t>
+  </si>
+  <si>
+    <t>狗子脸上有什么东西？</t>
+  </si>
+  <si>
+    <t>鞋印</t>
+  </si>
+  <si>
+    <t>口红印</t>
+  </si>
+  <si>
+    <t>SP_236</t>
+  </si>
+  <si>
+    <t>狗子其实是想说？</t>
+  </si>
+  <si>
+    <t>你这样显得我很呆</t>
+  </si>
+  <si>
+    <t>我也是要面子的好吧</t>
+  </si>
+  <si>
+    <t>SP_237</t>
+  </si>
+  <si>
+    <t>狗子捐的是什么？</t>
+  </si>
+  <si>
+    <t>一盒钱</t>
+  </si>
+  <si>
+    <t>一盒钉子</t>
+  </si>
+  <si>
+    <t>SP_238</t>
+  </si>
+  <si>
+    <t>爸爸去厕所干什么？</t>
+  </si>
+  <si>
+    <t>吃东西</t>
+  </si>
+  <si>
+    <t>尿尿</t>
+  </si>
+  <si>
+    <t>SP_239</t>
+  </si>
+  <si>
+    <t>老爷爷是干什么的？</t>
+  </si>
+  <si>
+    <t>卖惨</t>
+  </si>
+  <si>
+    <t>卖冰淇淋</t>
+  </si>
+  <si>
+    <t>SP_240</t>
+  </si>
+  <si>
+    <t>下面比较符合词是什么？</t>
+  </si>
+  <si>
+    <t>恶龙咆哮</t>
+  </si>
+  <si>
+    <t>血盆大口</t>
+  </si>
+  <si>
+    <t>SP_241</t>
+  </si>
+  <si>
+    <t>是多啦A梦干的吗？</t>
+  </si>
+  <si>
+    <t>是的就是它</t>
+  </si>
+  <si>
+    <t>SP_242</t>
+  </si>
+  <si>
+    <t>狗子咬着的是什么？</t>
+  </si>
+  <si>
+    <t>狗链</t>
+  </si>
+  <si>
+    <t>皮筋</t>
+  </si>
+  <si>
+    <t>SP_243</t>
+  </si>
+  <si>
+    <t>喵喵是不是嫌弃狗狗？</t>
+  </si>
+  <si>
+    <t>SP_244</t>
+  </si>
+  <si>
+    <t>金吒木吒的父亲叫什么？</t>
+  </si>
+  <si>
+    <t>李静</t>
+  </si>
+  <si>
+    <t>李靖</t>
+  </si>
+  <si>
+    <t>SP_245</t>
+  </si>
+  <si>
+    <t>东西去哪里了？</t>
+  </si>
+  <si>
+    <t>消失了</t>
+  </si>
+  <si>
+    <t>耳朵上</t>
+  </si>
+  <si>
+    <t>SP_246</t>
+  </si>
+  <si>
+    <t>欠钱的都是什么？</t>
+  </si>
+  <si>
+    <t>大爷</t>
+  </si>
+  <si>
+    <t>弟弟</t>
+  </si>
+  <si>
+    <t>SP_247</t>
+  </si>
+  <si>
+    <t>最帅的是谁？</t>
+  </si>
+  <si>
+    <t>马云</t>
+  </si>
+  <si>
+    <t>王健林</t>
+  </si>
+  <si>
+    <t>SP_248</t>
+  </si>
+  <si>
+    <t>外面有几只小狗？</t>
+  </si>
+  <si>
+    <t>5只</t>
+  </si>
+  <si>
+    <t>6只</t>
+  </si>
+  <si>
+    <t>SP_249</t>
+  </si>
+  <si>
+    <t>女孩的戒指在哪个手指上？</t>
+  </si>
+  <si>
+    <t>SP_250</t>
+  </si>
+  <si>
+    <t>第一只狗狗是什么品种？</t>
+  </si>
+  <si>
+    <t>SP_251</t>
+  </si>
+  <si>
+    <t>狗子说对了吗？</t>
+  </si>
+  <si>
+    <t>全对</t>
+  </si>
+  <si>
+    <t>全不对</t>
+  </si>
+  <si>
+    <t>SP_252</t>
+  </si>
+  <si>
+    <t>视频中的葡萄甜吗？</t>
+  </si>
+  <si>
+    <t>SP_253</t>
+  </si>
+  <si>
+    <t>2斤比例的价格换算成1斤是多少钱？</t>
+  </si>
+  <si>
+    <t>SP_254</t>
+  </si>
+  <si>
+    <t>他们在干什么？</t>
+  </si>
+  <si>
+    <t>装逼</t>
+  </si>
+  <si>
+    <t>凡尔赛</t>
+  </si>
+  <si>
+    <t>SP_255</t>
+  </si>
+  <si>
+    <t>有几只小狗狗？</t>
+  </si>
+  <si>
+    <t>9只</t>
+  </si>
+  <si>
+    <t>SP_256</t>
+  </si>
+  <si>
+    <t>鹦鹉咬了狗狗的什么?</t>
+  </si>
+  <si>
+    <t>尾巴</t>
+  </si>
+  <si>
+    <t>爪子</t>
+  </si>
+  <si>
+    <t>SP_257</t>
+  </si>
+  <si>
+    <t>视频中的"kakaka"是指？</t>
+  </si>
+  <si>
+    <t>拍照</t>
+  </si>
+  <si>
+    <t>打手</t>
+  </si>
+  <si>
+    <t>SP_258</t>
+  </si>
+  <si>
+    <t>小白喵是担心什么？</t>
+  </si>
+  <si>
+    <t>有那么多钱不知道怎么花</t>
+  </si>
+  <si>
+    <t>担心钱飞不到自己手里</t>
+  </si>
+  <si>
+    <t>SP_259</t>
+  </si>
+  <si>
+    <t>鹦鹉说的是什么？</t>
+  </si>
+  <si>
+    <t>歌词</t>
+  </si>
+  <si>
+    <t>词语</t>
+  </si>
+  <si>
+    <t>SP_260</t>
+  </si>
+  <si>
+    <t>沙漠中有水吗？</t>
+  </si>
+  <si>
+    <t>SP_261</t>
+  </si>
+  <si>
+    <t>所以到底一块豆腐多少钱？</t>
+  </si>
+  <si>
+    <t>2块钱</t>
+  </si>
+  <si>
+    <t>1块钱</t>
+  </si>
+  <si>
+    <t>SP_262</t>
+  </si>
+  <si>
+    <t>视频中的“贼”是指？</t>
+  </si>
+  <si>
+    <t>特别，非常</t>
+  </si>
+  <si>
+    <t>偷东西的</t>
+  </si>
+  <si>
+    <t>SP_263</t>
+  </si>
+  <si>
+    <t>这种行为说白了就是？</t>
+  </si>
+  <si>
+    <t>三分热</t>
+  </si>
+  <si>
+    <t>瞻前顾后</t>
+  </si>
+  <si>
+    <t>SP_264</t>
+  </si>
+  <si>
+    <t>爸爸为什么没有等到孩子？</t>
+  </si>
+  <si>
+    <t>接错地方了</t>
+  </si>
+  <si>
+    <t>孩子瞎跑</t>
+  </si>
+  <si>
+    <t>SP_265</t>
+  </si>
+  <si>
+    <t>“十五菜一汤”是指？</t>
+  </si>
+  <si>
+    <t>麻辣烫</t>
+  </si>
+  <si>
+    <t>烤冷面</t>
+  </si>
+  <si>
+    <t>SP_266</t>
+  </si>
+  <si>
+    <t>“好像这个月来”然后是？</t>
+  </si>
+  <si>
+    <t>能给他似的</t>
+  </si>
+  <si>
+    <t>能给他</t>
+  </si>
+  <si>
+    <t>SP_267</t>
+  </si>
+  <si>
+    <t>这个“算”是指？</t>
+  </si>
+  <si>
+    <t>计算</t>
+  </si>
+  <si>
+    <t>配</t>
+  </si>
+  <si>
+    <t>SP_268</t>
+  </si>
+  <si>
+    <t>看什么书？</t>
+  </si>
+  <si>
+    <t>百科全书</t>
+  </si>
+  <si>
+    <t>说明书</t>
+  </si>
+  <si>
+    <t>SP_269</t>
+  </si>
+  <si>
+    <t>单身狗算动物吗？</t>
+  </si>
+  <si>
+    <t>SP_270</t>
+  </si>
+  <si>
+    <t>为什么？</t>
+  </si>
+  <si>
+    <t>因为爸爸丑</t>
+  </si>
+  <si>
+    <t>因为爸爸帅</t>
+  </si>
+  <si>
+    <t>SP_271</t>
+  </si>
+  <si>
+    <t>我们要做老师的什么？</t>
+  </si>
+  <si>
+    <t>乖宝宝</t>
+  </si>
+  <si>
+    <t>曹操</t>
+  </si>
+  <si>
+    <t>SP_272</t>
+  </si>
+  <si>
+    <t>法盲到底是什么意思？</t>
+  </si>
+  <si>
+    <t>对于法律没有认知</t>
+  </si>
+  <si>
+    <t>法国的盲人</t>
+  </si>
+  <si>
+    <t>SP_273</t>
+  </si>
+  <si>
+    <t>那是什么草？</t>
+  </si>
+  <si>
+    <t>含羞草</t>
+  </si>
+  <si>
+    <t>SP_274</t>
+  </si>
+  <si>
+    <t>这个算造句吗？</t>
+  </si>
+  <si>
+    <t>SP_275</t>
+  </si>
+  <si>
+    <t>主人藏到了什么地方？</t>
+  </si>
+  <si>
+    <t>床下</t>
+  </si>
+  <si>
+    <t>柜子里</t>
+  </si>
+  <si>
+    <t>SP_276</t>
+  </si>
+  <si>
+    <t>第一个是谁?</t>
+  </si>
+  <si>
+    <t>贞子</t>
+  </si>
+  <si>
+    <t>唐僧</t>
+  </si>
+  <si>
+    <t>SP_277</t>
+  </si>
+  <si>
+    <t>狗子提供了什么？</t>
+  </si>
+  <si>
+    <t>唾液</t>
+  </si>
+  <si>
+    <t>眼睛</t>
+  </si>
+  <si>
+    <t>SP_278</t>
+  </si>
+  <si>
+    <t>狗子为什么那么委屈?</t>
+  </si>
+  <si>
+    <t>吃的太差了</t>
+  </si>
+  <si>
+    <t>有对比就有伤害</t>
+  </si>
+  <si>
+    <t>SP_279</t>
+  </si>
+  <si>
+    <t>什么输光了？</t>
+  </si>
+  <si>
+    <t>猫粮</t>
+  </si>
+  <si>
+    <t>狗粮</t>
+  </si>
+  <si>
+    <t>SP_280</t>
+  </si>
+  <si>
+    <t>这是真的眼睛吗？</t>
+  </si>
+  <si>
+    <t>不是，合成的</t>
+  </si>
+  <si>
+    <t>SP_281</t>
+  </si>
+  <si>
+    <t>几只幼猫？</t>
+  </si>
+  <si>
+    <t>SP_282</t>
+  </si>
+  <si>
+    <t>那是两只什么东西？</t>
+  </si>
+  <si>
+    <t>老鼠</t>
+  </si>
+  <si>
+    <t>仓鼠</t>
+  </si>
+  <si>
+    <t>SP_283</t>
+  </si>
+  <si>
+    <t>它好像知道自己很可爱</t>
+  </si>
+  <si>
+    <t>SP_284</t>
+  </si>
+  <si>
+    <t>中间跳舞的是谁？</t>
+  </si>
+  <si>
+    <t>初音未来</t>
+  </si>
+  <si>
+    <t>郭德纲</t>
+  </si>
+  <si>
+    <t>SP_285</t>
+  </si>
+  <si>
+    <t>这是什么背景音？</t>
+  </si>
+  <si>
+    <t>开机</t>
+  </si>
+  <si>
+    <t>提醒</t>
+  </si>
+  <si>
+    <t>SP_286</t>
+  </si>
+  <si>
+    <t>说这个话的人是谁？</t>
+  </si>
+  <si>
+    <t>SP_287</t>
+  </si>
+  <si>
+    <t>想好再说</t>
+  </si>
+  <si>
+    <t>顺序很重要</t>
+  </si>
+  <si>
+    <t>SP_288</t>
+  </si>
+  <si>
+    <t>视频中对应了什么游戏？</t>
+  </si>
+  <si>
+    <t>超级玛丽</t>
+  </si>
+  <si>
+    <t>坦克世界</t>
+  </si>
+  <si>
+    <t>SP_289</t>
+  </si>
+  <si>
+    <t>为什么现在的人不愿意结婚？</t>
+  </si>
+  <si>
+    <t>压力太大</t>
+  </si>
+  <si>
+    <t>没意思</t>
+  </si>
+  <si>
+    <t>SP_290</t>
+  </si>
+  <si>
+    <t>一个手指变成了什么的一半？</t>
+  </si>
+  <si>
+    <t>心</t>
+  </si>
+  <si>
+    <t>爱</t>
+  </si>
+  <si>
+    <t>SP_291</t>
+  </si>
+  <si>
+    <t>视频中致敬什么电影？</t>
+  </si>
+  <si>
+    <t>喜剧之王</t>
+  </si>
+  <si>
+    <t>钟无艳</t>
+  </si>
+  <si>
+    <t>SP_292</t>
+  </si>
+  <si>
+    <t>前后最大的变化是什么？</t>
+  </si>
+  <si>
+    <t>毛变蓬松了</t>
+  </si>
+  <si>
+    <t>SP_293</t>
+  </si>
+  <si>
+    <t>左右两只吃的是同一根吗？</t>
+  </si>
+  <si>
+    <t>SP_294</t>
+  </si>
+  <si>
+    <t>头上挂着的是什么？</t>
+  </si>
+  <si>
+    <t>树叶</t>
+  </si>
+  <si>
+    <t>草</t>
+  </si>
+  <si>
+    <t>SP_295</t>
+  </si>
+  <si>
+    <t>因为什么没上去？</t>
+  </si>
+  <si>
+    <t>腿太短了</t>
+  </si>
+  <si>
+    <t>不会骑</t>
+  </si>
+  <si>
+    <t>SP_296</t>
+  </si>
+  <si>
+    <t>害人终害己</t>
+  </si>
+  <si>
+    <t>瘦子不堪一击</t>
+  </si>
+  <si>
+    <t>SP_297</t>
+  </si>
+  <si>
+    <t>男人怎么摔倒的？</t>
+  </si>
+  <si>
+    <t>梯子不稳</t>
+  </si>
+  <si>
+    <t>灯带下去的</t>
+  </si>
+  <si>
+    <t>SP_298</t>
+  </si>
+  <si>
+    <t>为什么会这样？</t>
+  </si>
+  <si>
+    <t>药上有磁性</t>
+  </si>
+  <si>
+    <t>神经病药</t>
+  </si>
+  <si>
+    <t>SP_299</t>
+  </si>
+  <si>
+    <t>鼻子像什么？</t>
+  </si>
+  <si>
+    <t>猪的</t>
+  </si>
+  <si>
+    <t>人的</t>
+  </si>
+  <si>
+    <t>SP_300</t>
+  </si>
+  <si>
+    <t>狗子为什么生无可恋？</t>
+  </si>
+  <si>
+    <t>堵车</t>
+  </si>
+  <si>
+    <t>热</t>
+  </si>
+  <si>
+    <t>SP_301</t>
+  </si>
+  <si>
+    <t>箱子里是什么？</t>
+  </si>
+  <si>
+    <t>毛绒玩具</t>
+  </si>
+  <si>
+    <t>小动物</t>
+  </si>
+  <si>
+    <t>SP_302</t>
+  </si>
+  <si>
+    <t>打到球了吗？</t>
+  </si>
+  <si>
+    <t>SP_303</t>
+  </si>
+  <si>
+    <t>显示器显示的是什么？</t>
+  </si>
+  <si>
+    <t>鬼脸</t>
+  </si>
+  <si>
+    <t>小小可爱</t>
+  </si>
+  <si>
+    <t>SP_304</t>
+  </si>
+  <si>
+    <t>毛绒玩具的头是什么外观？</t>
+  </si>
+  <si>
+    <t>小鸡</t>
+  </si>
+  <si>
+    <t>蔡徐坤</t>
+  </si>
+  <si>
+    <t>SP_305</t>
+  </si>
+  <si>
+    <t>视频中是什么动物？</t>
+  </si>
+  <si>
+    <t>浣熊</t>
+  </si>
+  <si>
+    <t>棕熊</t>
+  </si>
+  <si>
+    <t>SP_306</t>
+  </si>
+  <si>
+    <t>小哥哥为什么一直有泡沫？</t>
+  </si>
+  <si>
+    <t>因为有一个损友</t>
+  </si>
+  <si>
+    <t>洗头膏太好了</t>
+  </si>
+  <si>
+    <t>SP_307</t>
+  </si>
+  <si>
+    <t>成功上杆了吗？</t>
+  </si>
+  <si>
+    <t>SP_308</t>
+  </si>
+  <si>
+    <t>主持人是怎么飞起来的？</t>
+  </si>
+  <si>
+    <t>自己飞起来的</t>
+  </si>
+  <si>
+    <t>SP_309</t>
+  </si>
+  <si>
+    <t>小浣熊跳上去了吗？</t>
+  </si>
+  <si>
+    <t>SP_310</t>
+  </si>
+  <si>
+    <t>为什么没有划出去？</t>
+  </si>
+  <si>
+    <t>没水</t>
+  </si>
+  <si>
+    <t>SP_311</t>
+  </si>
+  <si>
+    <t>马为什么踢他？</t>
+  </si>
+  <si>
+    <t>玩马尾</t>
+  </si>
+  <si>
+    <t>他太丑了</t>
+  </si>
+  <si>
+    <t>SP_312</t>
+  </si>
+  <si>
+    <t>他真的掉下去了吗？</t>
+  </si>
+  <si>
+    <t>SP_313</t>
+  </si>
+  <si>
+    <t>小狗跳上去了吗？</t>
+  </si>
+  <si>
+    <t>SP_314</t>
+  </si>
+  <si>
+    <t>第二个进去篮筐的是什么？</t>
+  </si>
+  <si>
+    <t>人</t>
+  </si>
+  <si>
+    <t>SP_315</t>
+  </si>
+  <si>
+    <t>女孩怎么被踢到的？</t>
+  </si>
+  <si>
+    <t>没抓紧鞋子</t>
+  </si>
+  <si>
+    <t>蓄意报复</t>
+  </si>
+  <si>
+    <t>SP_316</t>
+  </si>
+  <si>
+    <t>小哥哥穿的什么颜色的衣服？</t>
+  </si>
+  <si>
+    <t>SP_317</t>
+  </si>
+  <si>
+    <t>小狗为什么跳舞？</t>
+  </si>
+  <si>
+    <t>因为有BUG</t>
+  </si>
+  <si>
+    <t>开心</t>
+  </si>
+  <si>
+    <t>SP_318</t>
+  </si>
+  <si>
+    <t>小孩跳进去了吗？</t>
+  </si>
+  <si>
+    <t>SP_319</t>
+  </si>
+  <si>
+    <t>拳击手在和什么对打？</t>
+  </si>
+  <si>
+    <t>狗熊</t>
+  </si>
+  <si>
+    <t>袋鼠</t>
+  </si>
+  <si>
+    <t>SP_320</t>
+  </si>
+  <si>
+    <t>这是什么直升机？</t>
+  </si>
+  <si>
+    <t>军用</t>
+  </si>
+  <si>
+    <t>玩具</t>
+  </si>
+  <si>
+    <t>SP_321</t>
+  </si>
+  <si>
+    <t>小喵的动作叫什么？</t>
+  </si>
+  <si>
+    <t>SP_322</t>
+  </si>
+  <si>
+    <t>车发生了什么？</t>
+  </si>
+  <si>
+    <t>轮子被压扁了</t>
+  </si>
+  <si>
+    <t>承受了不该承受</t>
+  </si>
+  <si>
+    <t>SP_323</t>
+  </si>
+  <si>
+    <t>小哥哥嚼了吗？</t>
+  </si>
+  <si>
+    <t>SP_324</t>
+  </si>
+  <si>
+    <t>锤子砸碎了什么？</t>
+  </si>
+  <si>
+    <t>椰子壳</t>
+  </si>
+  <si>
+    <t>西瓜皮</t>
+  </si>
+  <si>
+    <t>SP_325</t>
+  </si>
+  <si>
+    <t>小伙子在干什么？</t>
+  </si>
+  <si>
+    <t>当着面撒谎</t>
+  </si>
+  <si>
+    <t>善意的谎言</t>
+  </si>
+  <si>
+    <t>SP_326</t>
+  </si>
+  <si>
+    <t>小伙子自己的手机还在吗？</t>
+  </si>
+  <si>
+    <t>还在</t>
+  </si>
+  <si>
+    <t>不在了</t>
+  </si>
+  <si>
+    <t>SP_327</t>
+  </si>
+  <si>
+    <t>爸爸给小孩拿来了什么？</t>
+  </si>
+  <si>
+    <t>游戏机</t>
+  </si>
+  <si>
+    <t>香烟</t>
+  </si>
+  <si>
+    <t>SP_328</t>
+  </si>
+  <si>
+    <t>小姐姐会吃下去吗？</t>
+  </si>
+  <si>
+    <t>不会，有皮</t>
+  </si>
+  <si>
+    <t>会</t>
+  </si>
+  <si>
+    <t>SP_329</t>
+  </si>
+  <si>
+    <t>裁判穿着什么颜色的衣服？</t>
+  </si>
+  <si>
+    <t>粉色</t>
+  </si>
+  <si>
+    <t>SP_330</t>
+  </si>
+  <si>
+    <t>小孩因为什么睡着的？</t>
+  </si>
+  <si>
+    <t>时间太久了</t>
+  </si>
+  <si>
+    <t>声音太麻烦</t>
+  </si>
+  <si>
+    <t>SP_331</t>
   </si>
 </sst>
 </file>
@@ -1203,14 +3618,14 @@
     </font>
     <font>
       <sz val="16"/>
-      <color theme="1"/>
+      <color rgb="FF333333"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="16"/>
+      <sz val="15"/>
       <color rgb="FF333333"/>
-      <name val="宋体"/>
+      <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1821,7 +4236,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1840,17 +4255,29 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -2173,10 +4600,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:H103"/>
+  <dimension ref="A1:H334"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="F70" sqref="F70"/>
+    <sheetView tabSelected="1" topLeftCell="A317" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:G334"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="7"/>
@@ -2269,2021 +4696,6641 @@
     </row>
     <row r="4" ht="20.25" customHeight="1" spans="1:8">
       <c r="A4" s="3"/>
-      <c r="B4" s="3">
-        <v>1</v>
-      </c>
-      <c r="C4" s="6" t="s">
+      <c r="B4" s="6">
+        <v>1</v>
+      </c>
+      <c r="C4" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="7">
         <v>5</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="7">
         <v>6</v>
       </c>
-      <c r="F4" s="6">
-        <v>1</v>
-      </c>
-      <c r="G4" s="7" t="s">
+      <c r="F4" s="7">
+        <v>1</v>
+      </c>
+      <c r="G4" s="8" t="s">
         <v>20</v>
       </c>
       <c r="H4" s="4"/>
     </row>
     <row r="5" ht="20.25" customHeight="1" spans="1:8">
       <c r="A5" s="3"/>
-      <c r="B5" s="3">
-        <v>2</v>
-      </c>
-      <c r="C5" s="6" t="s">
+      <c r="B5" s="6">
+        <v>2</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="6">
-        <v>2</v>
-      </c>
-      <c r="G5" s="7" t="s">
+      <c r="F5" s="7">
+        <v>2</v>
+      </c>
+      <c r="G5" s="8" t="s">
         <v>24</v>
       </c>
       <c r="H5" s="4"/>
     </row>
     <row r="6" ht="20.25" customHeight="1" spans="1:8">
       <c r="A6" s="3"/>
-      <c r="B6" s="3">
+      <c r="B6" s="6">
         <v>3</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="6">
-        <v>2</v>
-      </c>
-      <c r="G6" s="7" t="s">
+      <c r="F6" s="7">
+        <v>2</v>
+      </c>
+      <c r="G6" s="8" t="s">
         <v>28</v>
       </c>
       <c r="H6" s="4"/>
     </row>
     <row r="7" ht="20.25" customHeight="1" spans="1:8">
       <c r="A7" s="3"/>
-      <c r="B7" s="3">
+      <c r="B7" s="6">
         <v>4</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="F7" s="6">
-        <v>1</v>
-      </c>
-      <c r="G7" s="7" t="s">
+      <c r="F7" s="7">
+        <v>1</v>
+      </c>
+      <c r="G7" s="8" t="s">
         <v>32</v>
       </c>
       <c r="H7" s="4"/>
     </row>
     <row r="8" ht="20.25" customHeight="1" spans="1:8">
       <c r="A8" s="3"/>
-      <c r="B8" s="3">
+      <c r="B8" s="6">
         <v>5</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F8" s="6">
-        <v>1</v>
-      </c>
-      <c r="G8" s="7" t="s">
+      <c r="F8" s="7">
+        <v>1</v>
+      </c>
+      <c r="G8" s="8" t="s">
         <v>36</v>
       </c>
       <c r="H8" s="4"/>
     </row>
     <row r="9" ht="20.25" customHeight="1" spans="1:8">
       <c r="A9" s="3"/>
-      <c r="B9" s="3">
+      <c r="B9" s="6">
         <v>6</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="F9" s="6">
-        <v>1</v>
-      </c>
-      <c r="G9" s="7" t="s">
+      <c r="F9" s="7">
+        <v>1</v>
+      </c>
+      <c r="G9" s="8" t="s">
         <v>40</v>
       </c>
       <c r="H9" s="4"/>
     </row>
     <row r="10" ht="20.25" customHeight="1" spans="1:8">
       <c r="A10" s="3"/>
-      <c r="B10" s="3">
+      <c r="B10" s="6">
         <v>7</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="F10" s="6">
-        <v>1</v>
-      </c>
-      <c r="G10" s="7" t="s">
+      <c r="F10" s="7">
+        <v>1</v>
+      </c>
+      <c r="G10" s="8" t="s">
         <v>44</v>
       </c>
       <c r="H10" s="4"/>
     </row>
     <row r="11" ht="20.25" customHeight="1" spans="1:8">
       <c r="A11" s="3"/>
-      <c r="B11" s="3">
+      <c r="B11" s="6">
         <v>8</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="F11" s="6">
-        <v>1</v>
-      </c>
-      <c r="G11" s="7" t="s">
+      <c r="F11" s="7">
+        <v>1</v>
+      </c>
+      <c r="G11" s="8" t="s">
         <v>48</v>
       </c>
       <c r="H11" s="4"/>
     </row>
     <row r="12" ht="20.25" customHeight="1" spans="1:8">
       <c r="A12" s="3"/>
-      <c r="B12" s="3">
+      <c r="B12" s="6">
         <v>9</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="F12" s="6">
-        <v>1</v>
-      </c>
-      <c r="G12" s="7" t="s">
+      <c r="F12" s="7">
+        <v>1</v>
+      </c>
+      <c r="G12" s="8" t="s">
         <v>52</v>
       </c>
       <c r="H12" s="4"/>
     </row>
     <row r="13" ht="20.25" customHeight="1" spans="2:8">
-      <c r="B13" s="3">
+      <c r="B13" s="6">
         <v>10</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="E13" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="F13" s="6">
-        <v>1</v>
-      </c>
-      <c r="G13" s="7" t="s">
+      <c r="F13" s="7">
+        <v>1</v>
+      </c>
+      <c r="G13" s="8" t="s">
         <v>56</v>
       </c>
       <c r="H13" s="4"/>
     </row>
     <row r="14" customHeight="1" spans="2:7">
-      <c r="B14" s="3">
+      <c r="B14" s="9">
         <v>11</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D14" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="E14" s="8" t="s">
+      <c r="E14" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="F14" s="8">
-        <v>2</v>
-      </c>
-      <c r="G14" s="9" t="s">
+      <c r="F14" s="10">
+        <v>2</v>
+      </c>
+      <c r="G14" s="11" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="2:7">
-      <c r="B15" s="3">
+      <c r="B15" s="6">
         <v>12</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D15" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="E15" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="F15" s="6">
-        <v>2</v>
-      </c>
-      <c r="G15" s="7" t="s">
+      <c r="F15" s="7">
+        <v>2</v>
+      </c>
+      <c r="G15" s="8" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="2:7">
-      <c r="B16" s="3">
+      <c r="B16" s="6">
         <v>13</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D16" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="E16" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="F16" s="6">
-        <v>1</v>
-      </c>
-      <c r="G16" s="7" t="s">
+      <c r="F16" s="7">
+        <v>1</v>
+      </c>
+      <c r="G16" s="8" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="2:7">
-      <c r="B17" s="3">
+      <c r="B17" s="6">
         <v>14</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="D17" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="E17" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="F17" s="6">
-        <v>1</v>
-      </c>
-      <c r="G17" s="7" t="s">
+      <c r="F17" s="7">
+        <v>1</v>
+      </c>
+      <c r="G17" s="8" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="2:7">
-      <c r="B18" s="3">
+      <c r="B18" s="6">
         <v>15</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="D18" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="E18" s="6" t="s">
+      <c r="E18" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="F18" s="6">
-        <v>2</v>
-      </c>
-      <c r="G18" s="7" t="s">
+      <c r="F18" s="7">
+        <v>2</v>
+      </c>
+      <c r="G18" s="8" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="2:7">
-      <c r="B19" s="3">
+      <c r="B19" s="6">
         <v>16</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="D19" s="6" t="s">
+      <c r="D19" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="E19" s="6" t="s">
+      <c r="E19" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F19" s="6">
-        <v>2</v>
-      </c>
-      <c r="G19" s="7" t="s">
+      <c r="F19" s="7">
+        <v>2</v>
+      </c>
+      <c r="G19" s="8" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="2:7">
-      <c r="B20" s="3">
+      <c r="B20" s="6">
         <v>17</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="D20" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="E20" s="6" t="s">
+      <c r="E20" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="F20" s="6">
-        <v>2</v>
-      </c>
-      <c r="G20" s="7" t="s">
+      <c r="F20" s="7">
+        <v>2</v>
+      </c>
+      <c r="G20" s="8" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="2:7">
-      <c r="B21" s="3">
+      <c r="B21" s="6">
         <v>18</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="D21" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="E21" s="6" t="s">
+      <c r="E21" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="F21" s="6">
-        <v>1</v>
-      </c>
-      <c r="G21" s="7" t="s">
+      <c r="F21" s="7">
+        <v>1</v>
+      </c>
+      <c r="G21" s="8" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="2:7">
-      <c r="B22" s="3">
+      <c r="B22" s="6">
         <v>19</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="D22" s="6" t="s">
+      <c r="D22" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="E22" s="6" t="s">
+      <c r="E22" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="F22" s="6">
-        <v>1</v>
-      </c>
-      <c r="G22" s="7" t="s">
+      <c r="F22" s="7">
+        <v>1</v>
+      </c>
+      <c r="G22" s="8" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="2:7">
-      <c r="B23" s="3">
+      <c r="B23" s="6">
         <v>20</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="D23" s="6" t="s">
+      <c r="D23" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="E23" s="6" t="s">
+      <c r="E23" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="F23" s="6">
-        <v>1</v>
-      </c>
-      <c r="G23" s="7" t="s">
+      <c r="F23" s="7">
+        <v>1</v>
+      </c>
+      <c r="G23" s="8" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="2:7">
-      <c r="B24" s="3">
+      <c r="B24" s="6">
         <v>21</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="D24" s="6" t="s">
+      <c r="D24" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="E24" s="6" t="s">
+      <c r="E24" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="F24" s="6">
-        <v>1</v>
-      </c>
-      <c r="G24" s="7" t="s">
+      <c r="F24" s="7">
+        <v>1</v>
+      </c>
+      <c r="G24" s="8" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="2:7">
-      <c r="B25" s="3">
+      <c r="B25" s="6">
         <v>22</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="D25" s="6" t="s">
+      <c r="D25" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="E25" s="6" t="s">
+      <c r="E25" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="F25" s="6">
-        <v>2</v>
-      </c>
-      <c r="G25" s="7" t="s">
+      <c r="F25" s="7">
+        <v>2</v>
+      </c>
+      <c r="G25" s="8" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="26" customHeight="1" spans="2:7">
-      <c r="B26" s="3">
+      <c r="B26" s="6">
         <v>23</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C26" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="D26" s="6" t="s">
+      <c r="D26" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="E26" s="6" t="s">
+      <c r="E26" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="F26" s="6">
-        <v>2</v>
-      </c>
-      <c r="G26" s="7" t="s">
+      <c r="F26" s="7">
+        <v>2</v>
+      </c>
+      <c r="G26" s="8" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="2:7">
-      <c r="B27" s="3">
+      <c r="B27" s="6">
         <v>24</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="C27" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="D27" s="6" t="s">
+      <c r="D27" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="E27" s="6" t="s">
+      <c r="E27" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="F27" s="6">
-        <v>2</v>
-      </c>
-      <c r="G27" s="7" t="s">
+      <c r="F27" s="7">
+        <v>2</v>
+      </c>
+      <c r="G27" s="8" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="28" customHeight="1" spans="2:7">
-      <c r="B28" s="3">
+      <c r="B28" s="6">
         <v>25</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="C28" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="D28" s="6" t="s">
+      <c r="D28" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="E28" s="6" t="s">
+      <c r="E28" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="F28" s="6">
-        <v>2</v>
-      </c>
-      <c r="G28" s="7" t="s">
+      <c r="F28" s="7">
+        <v>2</v>
+      </c>
+      <c r="G28" s="8" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="29" customHeight="1" spans="2:7">
-      <c r="B29" s="3">
+      <c r="B29" s="6">
         <v>26</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="C29" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="D29" s="6" t="s">
+      <c r="D29" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="E29" s="6" t="s">
+      <c r="E29" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="F29" s="6">
-        <v>1</v>
-      </c>
-      <c r="G29" s="7" t="s">
+      <c r="F29" s="7">
+        <v>1</v>
+      </c>
+      <c r="G29" s="8" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="30" customHeight="1" spans="2:7">
-      <c r="B30" s="3">
+      <c r="B30" s="6">
         <v>27</v>
       </c>
-      <c r="C30" s="6" t="s">
+      <c r="C30" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="D30" s="6" t="s">
+      <c r="D30" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="E30" s="6" t="s">
+      <c r="E30" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="F30" s="6">
-        <v>2</v>
-      </c>
-      <c r="G30" s="7" t="s">
+      <c r="F30" s="7">
+        <v>2</v>
+      </c>
+      <c r="G30" s="8" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="31" customHeight="1" spans="2:7">
-      <c r="B31" s="3">
+      <c r="B31" s="6">
         <v>28</v>
       </c>
-      <c r="C31" s="6" t="s">
+      <c r="C31" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="D31" s="6" t="s">
+      <c r="D31" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="E31" s="6" t="s">
+      <c r="E31" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="F31" s="6">
-        <v>1</v>
-      </c>
-      <c r="G31" s="7" t="s">
+      <c r="F31" s="7">
+        <v>1</v>
+      </c>
+      <c r="G31" s="8" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="32" customHeight="1" spans="2:7">
-      <c r="B32" s="3">
+      <c r="B32" s="6">
         <v>29</v>
       </c>
-      <c r="C32" s="6" t="s">
+      <c r="C32" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="D32" s="6" t="s">
+      <c r="D32" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="E32" s="6" t="s">
+      <c r="E32" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="F32" s="6">
-        <v>1</v>
-      </c>
-      <c r="G32" s="7" t="s">
+      <c r="F32" s="7">
+        <v>1</v>
+      </c>
+      <c r="G32" s="8" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="33" customHeight="1" spans="2:7">
-      <c r="B33" s="3">
+      <c r="B33" s="6">
         <v>30</v>
       </c>
-      <c r="C33" s="6" t="s">
+      <c r="C33" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="D33" s="6" t="s">
+      <c r="D33" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="E33" s="6" t="s">
+      <c r="E33" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="F33" s="6">
-        <v>2</v>
-      </c>
-      <c r="G33" s="7" t="s">
+      <c r="F33" s="7">
+        <v>2</v>
+      </c>
+      <c r="G33" s="8" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="34" customHeight="1" spans="2:7">
-      <c r="B34" s="3">
+      <c r="B34" s="6">
         <v>31</v>
       </c>
-      <c r="C34" s="6" t="s">
+      <c r="C34" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="D34" s="6" t="s">
+      <c r="D34" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="E34" s="6" t="s">
+      <c r="E34" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="F34" s="6">
-        <v>1</v>
-      </c>
-      <c r="G34" s="7" t="s">
+      <c r="F34" s="7">
+        <v>1</v>
+      </c>
+      <c r="G34" s="8" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="35" customHeight="1" spans="2:7">
-      <c r="B35" s="3">
+      <c r="B35" s="6">
         <v>32</v>
       </c>
-      <c r="C35" s="6" t="s">
+      <c r="C35" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="D35" s="6" t="s">
+      <c r="D35" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="E35" s="6" t="s">
+      <c r="E35" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="F35" s="6">
-        <v>1</v>
-      </c>
-      <c r="G35" s="7" t="s">
+      <c r="F35" s="7">
+        <v>1</v>
+      </c>
+      <c r="G35" s="8" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="36" customHeight="1" spans="2:7">
-      <c r="B36" s="3">
+      <c r="B36" s="6">
         <v>33</v>
       </c>
-      <c r="C36" s="6" t="s">
+      <c r="C36" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="D36" s="6" t="s">
+      <c r="D36" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="E36" s="6" t="s">
+      <c r="E36" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="F36" s="6">
-        <v>2</v>
-      </c>
-      <c r="G36" s="7" t="s">
+      <c r="F36" s="7">
+        <v>2</v>
+      </c>
+      <c r="G36" s="8" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="37" customHeight="1" spans="2:7">
-      <c r="B37" s="3">
+      <c r="B37" s="6">
         <v>34</v>
       </c>
-      <c r="C37" s="6" t="s">
+      <c r="C37" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="D37" s="6" t="s">
+      <c r="D37" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="E37" s="6" t="s">
+      <c r="E37" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="F37" s="6">
-        <v>2</v>
-      </c>
-      <c r="G37" s="7" t="s">
+      <c r="F37" s="7">
+        <v>2</v>
+      </c>
+      <c r="G37" s="8" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="38" customHeight="1" spans="2:7">
-      <c r="B38" s="3">
+      <c r="B38" s="6">
         <v>35</v>
       </c>
-      <c r="C38" s="6" t="s">
+      <c r="C38" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="D38" s="6" t="s">
+      <c r="D38" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="E38" s="6" t="s">
+      <c r="E38" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="F38" s="6">
-        <v>2</v>
-      </c>
-      <c r="G38" s="7" t="s">
+      <c r="F38" s="7">
+        <v>2</v>
+      </c>
+      <c r="G38" s="8" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="39" customHeight="1" spans="2:7">
-      <c r="B39" s="3">
+      <c r="B39" s="6">
         <v>36</v>
       </c>
-      <c r="C39" s="6" t="s">
+      <c r="C39" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="D39" s="6" t="s">
+      <c r="D39" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="E39" s="6" t="s">
+      <c r="E39" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="F39" s="6">
-        <v>2</v>
-      </c>
-      <c r="G39" s="7" t="s">
+      <c r="F39" s="7">
+        <v>2</v>
+      </c>
+      <c r="G39" s="8" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="40" customHeight="1" spans="2:7">
-      <c r="B40" s="3">
+      <c r="B40" s="6">
         <v>37</v>
       </c>
-      <c r="C40" s="6" t="s">
+      <c r="C40" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="D40" s="6" t="s">
+      <c r="D40" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="E40" s="6" t="s">
+      <c r="E40" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="F40" s="6">
-        <v>1</v>
-      </c>
-      <c r="G40" s="7" t="s">
+      <c r="F40" s="7">
+        <v>1</v>
+      </c>
+      <c r="G40" s="8" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="41" customHeight="1" spans="2:7">
-      <c r="B41" s="3">
+      <c r="B41" s="6">
         <v>38</v>
       </c>
-      <c r="C41" s="6" t="s">
+      <c r="C41" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="D41" s="6" t="s">
+      <c r="D41" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="E41" s="6" t="s">
+      <c r="E41" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="F41" s="6">
-        <v>1</v>
-      </c>
-      <c r="G41" s="7" t="s">
+      <c r="F41" s="7">
+        <v>1</v>
+      </c>
+      <c r="G41" s="8" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="42" customHeight="1" spans="2:7">
-      <c r="B42" s="3">
+      <c r="B42" s="6">
         <v>39</v>
       </c>
-      <c r="C42" s="6" t="s">
+      <c r="C42" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="D42" s="6" t="s">
+      <c r="D42" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="E42" s="6" t="s">
+      <c r="E42" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="F42" s="6">
-        <v>1</v>
-      </c>
-      <c r="G42" s="7" t="s">
+      <c r="F42" s="7">
+        <v>1</v>
+      </c>
+      <c r="G42" s="8" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="43" customHeight="1" spans="2:7">
-      <c r="B43" s="3">
+      <c r="B43" s="6">
         <v>40</v>
       </c>
-      <c r="C43" s="6" t="s">
+      <c r="C43" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="D43" s="6" t="s">
+      <c r="D43" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="E43" s="6" t="s">
+      <c r="E43" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="F43" s="6">
-        <v>2</v>
-      </c>
-      <c r="G43" s="7" t="s">
+      <c r="F43" s="7">
+        <v>2</v>
+      </c>
+      <c r="G43" s="8" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="44" customHeight="1" spans="2:7">
-      <c r="B44" s="3">
+      <c r="B44" s="6">
         <v>41</v>
       </c>
-      <c r="C44" s="6" t="s">
+      <c r="C44" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="D44" s="6" t="s">
+      <c r="D44" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="E44" s="6" t="s">
+      <c r="E44" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="F44" s="6">
-        <v>1</v>
-      </c>
-      <c r="G44" s="7" t="s">
+      <c r="F44" s="7">
+        <v>1</v>
+      </c>
+      <c r="G44" s="8" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="45" customHeight="1" spans="2:7">
-      <c r="B45" s="3">
+      <c r="B45" s="6">
         <v>42</v>
       </c>
-      <c r="C45" s="6" t="s">
+      <c r="C45" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="D45" s="6" t="s">
+      <c r="D45" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="E45" s="6" t="s">
+      <c r="E45" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="F45" s="6">
-        <v>1</v>
-      </c>
-      <c r="G45" s="7" t="s">
+      <c r="F45" s="7">
+        <v>1</v>
+      </c>
+      <c r="G45" s="8" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="46" customHeight="1" spans="2:7">
-      <c r="B46" s="3">
+      <c r="B46" s="6">
         <v>43</v>
       </c>
-      <c r="C46" s="6" t="s">
+      <c r="C46" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="D46" s="6" t="s">
+      <c r="D46" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="E46" s="6" t="s">
+      <c r="E46" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="F46" s="6">
-        <v>1</v>
-      </c>
-      <c r="G46" s="7" t="s">
+      <c r="F46" s="7">
+        <v>1</v>
+      </c>
+      <c r="G46" s="8" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="47" customHeight="1" spans="2:7">
-      <c r="B47" s="3">
+      <c r="B47" s="6">
         <v>44</v>
       </c>
-      <c r="C47" s="6" t="s">
+      <c r="C47" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="D47" s="6" t="s">
+      <c r="D47" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="E47" s="6" t="s">
+      <c r="E47" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="F47" s="6">
-        <v>1</v>
-      </c>
-      <c r="G47" s="7" t="s">
+      <c r="F47" s="7">
+        <v>1</v>
+      </c>
+      <c r="G47" s="8" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="48" customHeight="1" spans="2:7">
-      <c r="B48" s="3">
+      <c r="B48" s="6">
         <v>45</v>
       </c>
-      <c r="C48" s="6" t="s">
+      <c r="C48" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="D48" s="6" t="s">
+      <c r="D48" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="E48" s="6" t="s">
+      <c r="E48" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="F48" s="6">
-        <v>1</v>
-      </c>
-      <c r="G48" s="7" t="s">
+      <c r="F48" s="7">
+        <v>1</v>
+      </c>
+      <c r="G48" s="8" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="49" customHeight="1" spans="2:7">
-      <c r="B49" s="3">
+      <c r="B49" s="6">
         <v>46</v>
       </c>
-      <c r="C49" s="6" t="s">
+      <c r="C49" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="D49" s="6" t="s">
+      <c r="D49" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="E49" s="6" t="s">
+      <c r="E49" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="F49" s="6">
-        <v>1</v>
-      </c>
-      <c r="G49" s="7" t="s">
+      <c r="F49" s="7">
+        <v>1</v>
+      </c>
+      <c r="G49" s="8" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="50" customHeight="1" spans="2:7">
-      <c r="B50" s="3">
+      <c r="B50" s="6">
         <v>47</v>
       </c>
-      <c r="C50" s="6" t="s">
+      <c r="C50" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="D50" s="6" t="s">
+      <c r="D50" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="E50" s="6" t="s">
+      <c r="E50" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="F50" s="6">
-        <v>1</v>
-      </c>
-      <c r="G50" s="7" t="s">
+      <c r="F50" s="7">
+        <v>1</v>
+      </c>
+      <c r="G50" s="8" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="51" customHeight="1" spans="2:7">
-      <c r="B51" s="3">
+      <c r="B51" s="6">
         <v>48</v>
       </c>
-      <c r="C51" s="6" t="s">
+      <c r="C51" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="D51" s="6" t="s">
+      <c r="D51" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="E51" s="6" t="s">
+      <c r="E51" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="F51" s="6">
-        <v>1</v>
-      </c>
-      <c r="G51" s="7" t="s">
+      <c r="F51" s="7">
+        <v>1</v>
+      </c>
+      <c r="G51" s="8" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="52" customHeight="1" spans="2:7">
-      <c r="B52" s="3">
+      <c r="B52" s="9">
         <v>49</v>
       </c>
-      <c r="C52" s="8" t="s">
+      <c r="C52" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="D52" s="8" t="s">
+      <c r="D52" s="10" t="s">
         <v>204</v>
       </c>
-      <c r="E52" s="8" t="s">
+      <c r="E52" s="10" t="s">
         <v>205</v>
       </c>
-      <c r="F52" s="8">
-        <v>1</v>
-      </c>
-      <c r="G52" s="9" t="s">
+      <c r="F52" s="10">
+        <v>1</v>
+      </c>
+      <c r="G52" s="11" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="53" customHeight="1" spans="2:7">
-      <c r="B53" s="3">
+      <c r="B53" s="6">
         <v>50</v>
       </c>
-      <c r="C53" s="6" t="s">
+      <c r="C53" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="D53" s="6" t="s">
+      <c r="D53" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="E53" s="6" t="s">
+      <c r="E53" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="F53" s="6">
-        <v>1</v>
-      </c>
-      <c r="G53" s="7" t="s">
+      <c r="F53" s="7">
+        <v>1</v>
+      </c>
+      <c r="G53" s="8" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="54" customHeight="1" spans="2:7">
-      <c r="B54" s="3">
+      <c r="B54" s="6">
         <v>51</v>
       </c>
-      <c r="C54" s="6" t="s">
+      <c r="C54" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="D54" s="6" t="s">
+      <c r="D54" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="E54" s="6" t="s">
+      <c r="E54" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="F54" s="6">
-        <v>1</v>
-      </c>
-      <c r="G54" s="7" t="s">
+      <c r="F54" s="7">
+        <v>1</v>
+      </c>
+      <c r="G54" s="8" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="55" customHeight="1" spans="2:7">
-      <c r="B55" s="3">
+      <c r="B55" s="6">
         <v>52</v>
       </c>
-      <c r="C55" s="6" t="s">
+      <c r="C55" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="D55" s="6" t="s">
+      <c r="D55" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="E55" s="6" t="s">
+      <c r="E55" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="F55" s="6">
-        <v>1</v>
-      </c>
-      <c r="G55" s="7" t="s">
+      <c r="F55" s="7">
+        <v>1</v>
+      </c>
+      <c r="G55" s="8" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="56" customHeight="1" spans="2:7">
-      <c r="B56" s="3">
+      <c r="B56" s="6">
         <v>53</v>
       </c>
-      <c r="C56" s="6" t="s">
+      <c r="C56" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="D56" s="6" t="s">
+      <c r="D56" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="E56" s="6" t="s">
+      <c r="E56" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F56" s="6">
-        <v>1</v>
-      </c>
-      <c r="G56" s="7" t="s">
+      <c r="F56" s="7">
+        <v>1</v>
+      </c>
+      <c r="G56" s="8" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="57" customHeight="1" spans="2:7">
-      <c r="B57" s="3">
+      <c r="B57" s="6">
         <v>54</v>
       </c>
-      <c r="C57" s="6" t="s">
+      <c r="C57" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="D57" s="6" t="s">
+      <c r="D57" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="E57" s="6" t="s">
+      <c r="E57" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="F57" s="6">
-        <v>1</v>
-      </c>
-      <c r="G57" s="7" t="s">
+      <c r="F57" s="7">
+        <v>1</v>
+      </c>
+      <c r="G57" s="8" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="58" customHeight="1" spans="2:7">
-      <c r="B58" s="3">
+      <c r="B58" s="6">
         <v>55</v>
       </c>
-      <c r="C58" s="6" t="s">
+      <c r="C58" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="D58" s="6" t="s">
+      <c r="D58" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="E58" s="6" t="s">
+      <c r="E58" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="F58" s="6">
-        <v>1</v>
-      </c>
-      <c r="G58" s="7" t="s">
+      <c r="F58" s="7">
+        <v>1</v>
+      </c>
+      <c r="G58" s="8" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="59" customHeight="1" spans="2:7">
-      <c r="B59" s="3">
+      <c r="B59" s="6">
         <v>56</v>
       </c>
-      <c r="C59" s="6" t="s">
+      <c r="C59" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="D59" s="6" t="s">
+      <c r="D59" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="E59" s="6" t="s">
+      <c r="E59" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F59" s="6">
-        <v>1</v>
-      </c>
-      <c r="G59" s="7" t="s">
+      <c r="F59" s="7">
+        <v>1</v>
+      </c>
+      <c r="G59" s="8" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="60" customHeight="1" spans="2:7">
-      <c r="B60" s="3">
+      <c r="B60" s="6">
         <v>57</v>
       </c>
-      <c r="C60" s="6" t="s">
+      <c r="C60" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="D60" s="6">
+      <c r="D60" s="7">
         <v>100</v>
       </c>
-      <c r="E60" s="6">
+      <c r="E60" s="7">
         <v>50</v>
       </c>
-      <c r="F60" s="6">
-        <v>2</v>
-      </c>
-      <c r="G60" s="7" t="s">
+      <c r="F60" s="7">
+        <v>2</v>
+      </c>
+      <c r="G60" s="8" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="61" customHeight="1" spans="2:7">
-      <c r="B61" s="3">
+      <c r="B61" s="6">
         <v>58</v>
       </c>
-      <c r="C61" s="6" t="s">
+      <c r="C61" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="D61" s="6" t="s">
+      <c r="D61" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="E61" s="6" t="s">
+      <c r="E61" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="F61" s="6">
-        <v>2</v>
-      </c>
-      <c r="G61" s="7" t="s">
+      <c r="F61" s="7">
+        <v>2</v>
+      </c>
+      <c r="G61" s="8" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="62" customHeight="1" spans="2:7">
-      <c r="B62" s="3">
+      <c r="B62" s="6">
         <v>59</v>
       </c>
-      <c r="C62" s="6" t="s">
+      <c r="C62" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="D62" s="6" t="s">
+      <c r="D62" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="E62" s="6" t="s">
+      <c r="E62" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="F62" s="6">
-        <v>1</v>
-      </c>
-      <c r="G62" s="7" t="s">
+      <c r="F62" s="7">
+        <v>1</v>
+      </c>
+      <c r="G62" s="8" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="63" customHeight="1" spans="2:7">
-      <c r="B63" s="3">
+      <c r="B63" s="6">
         <v>60</v>
       </c>
-      <c r="C63" s="6" t="s">
+      <c r="C63" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="D63" s="6" t="s">
+      <c r="D63" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="E63" s="6" t="s">
+      <c r="E63" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="F63" s="6">
-        <v>1</v>
-      </c>
-      <c r="G63" s="7" t="s">
+      <c r="F63" s="7">
+        <v>1</v>
+      </c>
+      <c r="G63" s="8" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="64" customHeight="1" spans="2:7">
-      <c r="B64" s="3">
+      <c r="B64" s="6">
         <v>61</v>
       </c>
-      <c r="C64" s="6" t="s">
+      <c r="C64" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="D64" s="6" t="s">
+      <c r="D64" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="E64" s="6" t="s">
+      <c r="E64" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="F64" s="6">
-        <v>2</v>
-      </c>
-      <c r="G64" s="7" t="s">
+      <c r="F64" s="7">
+        <v>2</v>
+      </c>
+      <c r="G64" s="8" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="65" customHeight="1" spans="2:7">
-      <c r="B65" s="3">
+      <c r="B65" s="6">
         <v>62</v>
       </c>
-      <c r="C65" s="6" t="s">
+      <c r="C65" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="D65" s="6" t="s">
+      <c r="D65" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="E65" s="6" t="s">
+      <c r="E65" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="F65" s="6">
-        <v>2</v>
-      </c>
-      <c r="G65" s="7" t="s">
+      <c r="F65" s="7">
+        <v>2</v>
+      </c>
+      <c r="G65" s="8" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="66" customHeight="1" spans="2:7">
-      <c r="B66" s="3">
+      <c r="B66" s="6">
         <v>63</v>
       </c>
-      <c r="C66" s="6" t="s">
+      <c r="C66" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="D66" s="6" t="s">
+      <c r="D66" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="E66" s="6" t="s">
+      <c r="E66" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="F66" s="6">
-        <v>1</v>
-      </c>
-      <c r="G66" s="7" t="s">
+      <c r="F66" s="7">
+        <v>1</v>
+      </c>
+      <c r="G66" s="8" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="67" customHeight="1" spans="2:7">
-      <c r="B67" s="3">
+      <c r="B67" s="6">
         <v>64</v>
       </c>
-      <c r="C67" s="6" t="s">
+      <c r="C67" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="D67" s="6" t="s">
+      <c r="D67" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="E67" s="6" t="s">
+      <c r="E67" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="F67" s="6">
-        <v>1</v>
-      </c>
-      <c r="G67" s="7" t="s">
+      <c r="F67" s="7">
+        <v>1</v>
+      </c>
+      <c r="G67" s="8" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="68" customHeight="1" spans="2:7">
-      <c r="B68" s="3">
+      <c r="B68" s="6">
         <v>65</v>
       </c>
-      <c r="C68" s="6" t="s">
+      <c r="C68" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="D68" s="6" t="s">
+      <c r="D68" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="E68" s="6" t="s">
+      <c r="E68" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="F68" s="6">
-        <v>1</v>
-      </c>
-      <c r="G68" s="7" t="s">
+      <c r="F68" s="7">
+        <v>1</v>
+      </c>
+      <c r="G68" s="8" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="69" customHeight="1" spans="2:7">
-      <c r="B69" s="3">
+      <c r="B69" s="6">
         <v>66</v>
       </c>
-      <c r="C69" s="6" t="s">
+      <c r="C69" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="D69" s="6" t="s">
+      <c r="D69" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="E69" s="6" t="s">
+      <c r="E69" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="F69" s="6">
-        <v>2</v>
-      </c>
-      <c r="G69" s="7" t="s">
+      <c r="F69" s="7">
+        <v>2</v>
+      </c>
+      <c r="G69" s="8" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="70" customHeight="1" spans="2:7">
-      <c r="B70" s="3">
+      <c r="B70" s="6">
         <v>67</v>
       </c>
-      <c r="C70" s="6" t="s">
+      <c r="C70" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="D70" s="6" t="s">
+      <c r="D70" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="E70" s="6" t="s">
+      <c r="E70" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="F70" s="6" t="s">
+      <c r="F70" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="G70" s="7" t="s">
+      <c r="G70" s="8" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="71" customHeight="1" spans="2:7">
-      <c r="B71" s="3">
+      <c r="B71" s="6">
         <v>68</v>
       </c>
-      <c r="C71" s="6" t="s">
+      <c r="C71" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="D71" s="6" t="s">
+      <c r="D71" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="E71" s="6" t="s">
+      <c r="E71" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="F71" s="6">
-        <v>2</v>
-      </c>
-      <c r="G71" s="7" t="s">
+      <c r="F71" s="7">
+        <v>2</v>
+      </c>
+      <c r="G71" s="8" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="72" customHeight="1" spans="2:7">
-      <c r="B72" s="3">
+      <c r="B72" s="6">
         <v>69</v>
       </c>
-      <c r="C72" s="6" t="s">
+      <c r="C72" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="D72" s="6" t="s">
+      <c r="D72" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="E72" s="6" t="s">
+      <c r="E72" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F72" s="6">
-        <v>1</v>
-      </c>
-      <c r="G72" s="7" t="s">
+      <c r="F72" s="7">
+        <v>1</v>
+      </c>
+      <c r="G72" s="8" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="73" customHeight="1" spans="2:7">
-      <c r="B73" s="3">
+      <c r="B73" s="6">
         <v>70</v>
       </c>
-      <c r="C73" s="6" t="s">
+      <c r="C73" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="D73" s="6">
-        <v>1</v>
-      </c>
-      <c r="E73" s="6">
-        <v>2</v>
-      </c>
-      <c r="F73" s="6">
-        <v>2</v>
-      </c>
-      <c r="G73" s="7" t="s">
+      <c r="D73" s="7">
+        <v>1</v>
+      </c>
+      <c r="E73" s="7">
+        <v>2</v>
+      </c>
+      <c r="F73" s="7">
+        <v>2</v>
+      </c>
+      <c r="G73" s="8" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="74" customHeight="1" spans="2:7">
-      <c r="B74" s="3">
+      <c r="B74" s="6">
         <v>71</v>
       </c>
-      <c r="C74" s="6" t="s">
+      <c r="C74" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="D74" s="6" t="s">
+      <c r="D74" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="E74" s="6" t="s">
+      <c r="E74" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="F74" s="6">
-        <v>1</v>
-      </c>
-      <c r="G74" s="7" t="s">
+      <c r="F74" s="7">
+        <v>1</v>
+      </c>
+      <c r="G74" s="8" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="75" customHeight="1" spans="2:7">
-      <c r="B75" s="3">
+      <c r="B75" s="6">
         <v>72</v>
       </c>
-      <c r="C75" s="6" t="s">
+      <c r="C75" s="7" t="s">
         <v>284</v>
       </c>
-      <c r="D75" s="6" t="s">
+      <c r="D75" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="E75" s="6" t="s">
+      <c r="E75" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="F75" s="6">
-        <v>1</v>
-      </c>
-      <c r="G75" s="7" t="s">
+      <c r="F75" s="7">
+        <v>1</v>
+      </c>
+      <c r="G75" s="8" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="76" customHeight="1" spans="2:7">
-      <c r="B76" s="3">
+      <c r="B76" s="6">
         <v>73</v>
       </c>
-      <c r="C76" s="6" t="s">
+      <c r="C76" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="D76" s="6" t="s">
+      <c r="D76" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="E76" s="6" t="s">
+      <c r="E76" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="F76" s="6">
-        <v>1</v>
-      </c>
-      <c r="G76" s="7" t="s">
+      <c r="F76" s="7">
+        <v>1</v>
+      </c>
+      <c r="G76" s="8" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="77" customHeight="1" spans="2:7">
-      <c r="B77" s="3">
+      <c r="B77" s="6">
         <v>74</v>
       </c>
-      <c r="C77" s="6" t="s">
+      <c r="C77" s="7" t="s">
         <v>290</v>
       </c>
-      <c r="D77" s="6" t="s">
+      <c r="D77" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="E77" s="6" t="s">
+      <c r="E77" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="F77" s="6">
-        <v>1</v>
-      </c>
-      <c r="G77" s="7" t="s">
+      <c r="F77" s="7">
+        <v>1</v>
+      </c>
+      <c r="G77" s="8" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="78" customHeight="1" spans="2:7">
-      <c r="B78" s="3">
+      <c r="B78" s="6">
         <v>75</v>
       </c>
-      <c r="C78" s="6" t="s">
+      <c r="C78" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="D78" s="6" t="s">
+      <c r="D78" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="E78" s="6" t="s">
+      <c r="E78" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="F78" s="6">
-        <v>1</v>
-      </c>
-      <c r="G78" s="7" t="s">
+      <c r="F78" s="7">
+        <v>1</v>
+      </c>
+      <c r="G78" s="8" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="79" customHeight="1" spans="2:7">
-      <c r="B79" s="3">
+      <c r="B79" s="6">
         <v>76</v>
       </c>
-      <c r="C79" s="6" t="s">
+      <c r="C79" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="D79" s="6" t="s">
+      <c r="D79" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="E79" s="6" t="s">
+      <c r="E79" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="F79" s="6">
-        <v>1</v>
-      </c>
-      <c r="G79" s="7" t="s">
+      <c r="F79" s="7">
+        <v>1</v>
+      </c>
+      <c r="G79" s="8" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="80" customHeight="1" spans="2:7">
-      <c r="B80" s="3">
+      <c r="B80" s="6">
         <v>77</v>
       </c>
-      <c r="C80" s="6" t="s">
+      <c r="C80" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="D80" s="6" t="s">
+      <c r="D80" s="7" t="s">
         <v>301</v>
       </c>
-      <c r="E80" s="6" t="s">
+      <c r="E80" s="7" t="s">
         <v>302</v>
       </c>
-      <c r="F80" s="6">
-        <v>1</v>
-      </c>
-      <c r="G80" s="7" t="s">
+      <c r="F80" s="7">
+        <v>1</v>
+      </c>
+      <c r="G80" s="8" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="81" customHeight="1" spans="2:7">
-      <c r="B81" s="3">
+      <c r="B81" s="6">
         <v>78</v>
       </c>
-      <c r="C81" s="6" t="s">
+      <c r="C81" s="7" t="s">
         <v>304</v>
       </c>
-      <c r="D81" s="6" t="s">
+      <c r="D81" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="E81" s="6" t="s">
+      <c r="E81" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="F81" s="6">
-        <v>1</v>
-      </c>
-      <c r="G81" s="7" t="s">
+      <c r="F81" s="7">
+        <v>1</v>
+      </c>
+      <c r="G81" s="8" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="82" customHeight="1" spans="2:7">
-      <c r="B82" s="3">
+      <c r="B82" s="6">
         <v>79</v>
       </c>
-      <c r="C82" s="6" t="s">
+      <c r="C82" s="7" t="s">
         <v>308</v>
       </c>
-      <c r="D82" s="6" t="s">
+      <c r="D82" s="7" t="s">
         <v>309</v>
       </c>
-      <c r="E82" s="6" t="s">
+      <c r="E82" s="7" t="s">
         <v>310</v>
       </c>
-      <c r="F82" s="6">
-        <v>1</v>
-      </c>
-      <c r="G82" s="7" t="s">
+      <c r="F82" s="7">
+        <v>1</v>
+      </c>
+      <c r="G82" s="8" t="s">
         <v>311</v>
       </c>
     </row>
     <row r="83" customHeight="1" spans="2:7">
-      <c r="B83" s="3">
+      <c r="B83" s="6">
         <v>80</v>
       </c>
-      <c r="C83" s="6" t="s">
+      <c r="C83" s="7" t="s">
         <v>312</v>
       </c>
-      <c r="D83" s="6" t="s">
+      <c r="D83" s="7" t="s">
         <v>313</v>
       </c>
-      <c r="E83" s="6" t="s">
+      <c r="E83" s="7" t="s">
         <v>314</v>
       </c>
-      <c r="F83" s="6">
-        <v>1</v>
-      </c>
-      <c r="G83" s="7" t="s">
+      <c r="F83" s="7">
+        <v>1</v>
+      </c>
+      <c r="G83" s="8" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="84" customHeight="1" spans="2:7">
-      <c r="B84" s="3">
+      <c r="B84" s="6">
         <v>81</v>
       </c>
-      <c r="C84" s="6" t="s">
+      <c r="C84" s="7" t="s">
         <v>316</v>
       </c>
-      <c r="D84" s="6" t="s">
+      <c r="D84" s="7" t="s">
         <v>317</v>
       </c>
-      <c r="E84" s="6" t="s">
+      <c r="E84" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="F84" s="6">
-        <v>2</v>
-      </c>
-      <c r="G84" s="7" t="s">
+      <c r="F84" s="7">
+        <v>2</v>
+      </c>
+      <c r="G84" s="8" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="85" customHeight="1" spans="2:7">
-      <c r="B85" s="3">
+      <c r="B85" s="6">
         <v>82</v>
       </c>
-      <c r="C85" s="6" t="s">
+      <c r="C85" s="7" t="s">
         <v>319</v>
       </c>
-      <c r="D85" s="6" t="s">
+      <c r="D85" s="7" t="s">
         <v>320</v>
       </c>
-      <c r="E85" s="6" t="s">
+      <c r="E85" s="7" t="s">
         <v>321</v>
       </c>
-      <c r="F85" s="6">
-        <v>2</v>
-      </c>
-      <c r="G85" s="7" t="s">
+      <c r="F85" s="7">
+        <v>2</v>
+      </c>
+      <c r="G85" s="8" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="86" customHeight="1" spans="2:7">
-      <c r="B86" s="3">
+      <c r="B86" s="6">
         <v>83</v>
       </c>
-      <c r="C86" s="6" t="s">
+      <c r="C86" s="7" t="s">
         <v>323</v>
       </c>
-      <c r="D86" s="6" t="s">
+      <c r="D86" s="7" t="s">
         <v>324</v>
       </c>
-      <c r="E86" s="6" t="s">
+      <c r="E86" s="7" t="s">
         <v>325</v>
       </c>
-      <c r="F86" s="6">
-        <v>2</v>
-      </c>
-      <c r="G86" s="7" t="s">
+      <c r="F86" s="7">
+        <v>2</v>
+      </c>
+      <c r="G86" s="8" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="87" customHeight="1" spans="2:7">
-      <c r="B87" s="3">
+      <c r="B87" s="6">
         <v>84</v>
       </c>
-      <c r="C87" s="6" t="s">
+      <c r="C87" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="D87" s="6" t="s">
+      <c r="D87" s="7" t="s">
         <v>327</v>
       </c>
-      <c r="E87" s="6" t="s">
+      <c r="E87" s="7" t="s">
         <v>328</v>
       </c>
-      <c r="F87" s="6">
-        <v>2</v>
-      </c>
-      <c r="G87" s="7" t="s">
+      <c r="F87" s="7">
+        <v>2</v>
+      </c>
+      <c r="G87" s="8" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="88" customHeight="1" spans="2:7">
-      <c r="B88" s="3">
+      <c r="B88" s="6">
         <v>85</v>
       </c>
-      <c r="C88" s="6" t="s">
+      <c r="C88" s="7" t="s">
         <v>330</v>
       </c>
-      <c r="D88" s="6" t="s">
+      <c r="D88" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="E88" s="6" t="s">
+      <c r="E88" s="7" t="s">
         <v>331</v>
       </c>
-      <c r="F88" s="6">
-        <v>1</v>
-      </c>
-      <c r="G88" s="7" t="s">
+      <c r="F88" s="7">
+        <v>1</v>
+      </c>
+      <c r="G88" s="8" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="89" customHeight="1" spans="2:7">
-      <c r="B89" s="3">
+      <c r="B89" s="6">
         <v>86</v>
       </c>
-      <c r="C89" s="6" t="s">
+      <c r="C89" s="7" t="s">
         <v>333</v>
       </c>
-      <c r="D89" s="6" t="s">
+      <c r="D89" s="7" t="s">
         <v>334</v>
       </c>
-      <c r="E89" s="6" t="s">
+      <c r="E89" s="7" t="s">
         <v>335</v>
       </c>
-      <c r="F89" s="6">
-        <v>1</v>
-      </c>
-      <c r="G89" s="7" t="s">
+      <c r="F89" s="7">
+        <v>1</v>
+      </c>
+      <c r="G89" s="8" t="s">
         <v>336</v>
       </c>
     </row>
     <row r="90" customHeight="1" spans="2:7">
-      <c r="B90" s="3">
+      <c r="B90" s="6">
         <v>87</v>
       </c>
-      <c r="C90" s="6" t="s">
+      <c r="C90" s="7" t="s">
         <v>337</v>
       </c>
-      <c r="D90" s="6" t="s">
+      <c r="D90" s="7" t="s">
         <v>338</v>
       </c>
-      <c r="E90" s="6" t="s">
+      <c r="E90" s="7" t="s">
         <v>339</v>
       </c>
-      <c r="F90" s="6">
-        <v>1</v>
-      </c>
-      <c r="G90" s="7" t="s">
+      <c r="F90" s="7">
+        <v>1</v>
+      </c>
+      <c r="G90" s="8" t="s">
         <v>340</v>
       </c>
     </row>
     <row r="91" customHeight="1" spans="2:7">
-      <c r="B91" s="3">
+      <c r="B91" s="6">
         <v>88</v>
       </c>
-      <c r="C91" s="6" t="s">
+      <c r="C91" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="D91" s="6" t="s">
+      <c r="D91" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="E91" s="6" t="s">
+      <c r="E91" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F91" s="6">
-        <v>2</v>
-      </c>
-      <c r="G91" s="7" t="s">
+      <c r="F91" s="7">
+        <v>2</v>
+      </c>
+      <c r="G91" s="8" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="92" customHeight="1" spans="2:7">
-      <c r="B92" s="3">
+      <c r="B92" s="6">
         <v>89</v>
       </c>
-      <c r="C92" s="6" t="s">
+      <c r="C92" s="7" t="s">
         <v>343</v>
       </c>
-      <c r="D92" s="6" t="s">
+      <c r="D92" s="7" t="s">
         <v>344</v>
       </c>
-      <c r="E92" s="6" t="s">
+      <c r="E92" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="F92" s="6">
-        <v>1</v>
-      </c>
-      <c r="G92" s="7" t="s">
+      <c r="F92" s="7">
+        <v>1</v>
+      </c>
+      <c r="G92" s="8" t="s">
         <v>345</v>
       </c>
     </row>
     <row r="93" customHeight="1" spans="2:7">
-      <c r="B93" s="3">
+      <c r="B93" s="6">
         <v>90</v>
       </c>
-      <c r="C93" s="6" t="s">
+      <c r="C93" s="7" t="s">
         <v>346</v>
       </c>
-      <c r="D93" s="6" t="s">
+      <c r="D93" s="7" t="s">
         <v>347</v>
       </c>
-      <c r="E93" s="6" t="s">
+      <c r="E93" s="7" t="s">
         <v>348</v>
       </c>
-      <c r="F93" s="6">
-        <v>1</v>
-      </c>
-      <c r="G93" s="7" t="s">
+      <c r="F93" s="7">
+        <v>1</v>
+      </c>
+      <c r="G93" s="8" t="s">
         <v>349</v>
       </c>
     </row>
     <row r="94" customHeight="1" spans="2:7">
-      <c r="B94" s="3">
+      <c r="B94" s="6">
         <v>91</v>
       </c>
-      <c r="C94" s="6" t="s">
+      <c r="C94" s="7" t="s">
         <v>350</v>
       </c>
-      <c r="D94" s="6" t="s">
+      <c r="D94" s="7" t="s">
         <v>351</v>
       </c>
-      <c r="E94" s="6" t="s">
+      <c r="E94" s="7" t="s">
         <v>352</v>
       </c>
-      <c r="F94" s="6">
-        <v>1</v>
-      </c>
-      <c r="G94" s="7" t="s">
+      <c r="F94" s="7">
+        <v>1</v>
+      </c>
+      <c r="G94" s="8" t="s">
         <v>353</v>
       </c>
     </row>
     <row r="95" customHeight="1" spans="2:7">
-      <c r="B95" s="3">
+      <c r="B95" s="6">
         <v>92</v>
       </c>
-      <c r="C95" s="6" t="s">
+      <c r="C95" s="7" t="s">
         <v>354</v>
       </c>
-      <c r="D95" s="6" t="s">
+      <c r="D95" s="7" t="s">
         <v>355</v>
       </c>
-      <c r="E95" s="6" t="s">
+      <c r="E95" s="7" t="s">
         <v>356</v>
       </c>
-      <c r="F95" s="6">
-        <v>1</v>
-      </c>
-      <c r="G95" s="7" t="s">
+      <c r="F95" s="7">
+        <v>1</v>
+      </c>
+      <c r="G95" s="8" t="s">
         <v>357</v>
       </c>
     </row>
     <row r="96" customHeight="1" spans="2:7">
-      <c r="B96" s="3">
+      <c r="B96" s="6">
         <v>93</v>
       </c>
-      <c r="C96" s="6" t="s">
+      <c r="C96" s="7" t="s">
         <v>358</v>
       </c>
-      <c r="D96" s="6" t="s">
+      <c r="D96" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="E96" s="6" t="s">
+      <c r="E96" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="F96" s="6">
-        <v>1</v>
-      </c>
-      <c r="G96" s="7" t="s">
+      <c r="F96" s="7">
+        <v>1</v>
+      </c>
+      <c r="G96" s="8" t="s">
         <v>359</v>
       </c>
     </row>
     <row r="97" customHeight="1" spans="2:7">
-      <c r="B97" s="3">
+      <c r="B97" s="6">
         <v>94</v>
       </c>
-      <c r="C97" s="6" t="s">
+      <c r="C97" s="7" t="s">
         <v>360</v>
       </c>
-      <c r="D97" s="6" t="s">
+      <c r="D97" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="E97" s="6" t="s">
+      <c r="E97" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="F97" s="6">
-        <v>1</v>
-      </c>
-      <c r="G97" s="7" t="s">
+      <c r="F97" s="7">
+        <v>1</v>
+      </c>
+      <c r="G97" s="8" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="98" customHeight="1" spans="2:7">
-      <c r="B98" s="3">
+      <c r="B98" s="6">
         <v>95</v>
       </c>
-      <c r="C98" s="6" t="s">
+      <c r="C98" s="7" t="s">
         <v>362</v>
       </c>
-      <c r="D98" s="6" t="s">
+      <c r="D98" s="7" t="s">
         <v>363</v>
       </c>
-      <c r="E98" s="6" t="s">
+      <c r="E98" s="7" t="s">
         <v>310</v>
       </c>
-      <c r="F98" s="6">
-        <v>2</v>
-      </c>
-      <c r="G98" s="7" t="s">
+      <c r="F98" s="7">
+        <v>2</v>
+      </c>
+      <c r="G98" s="8" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="99" customHeight="1" spans="2:7">
-      <c r="B99" s="3">
+      <c r="B99" s="6">
         <v>96</v>
       </c>
-      <c r="C99" s="6" t="s">
+      <c r="C99" s="7" t="s">
         <v>365</v>
       </c>
-      <c r="D99" s="6" t="s">
+      <c r="D99" s="7" t="s">
         <v>366</v>
       </c>
-      <c r="E99" s="6" t="s">
+      <c r="E99" s="7" t="s">
         <v>367</v>
       </c>
-      <c r="F99" s="6">
-        <v>2</v>
-      </c>
-      <c r="G99" s="7" t="s">
+      <c r="F99" s="7">
+        <v>2</v>
+      </c>
+      <c r="G99" s="8" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="100" customHeight="1" spans="2:7">
-      <c r="B100" s="3">
+      <c r="B100" s="6">
         <v>97</v>
       </c>
-      <c r="C100" s="6" t="s">
+      <c r="C100" s="7" t="s">
         <v>369</v>
       </c>
-      <c r="D100" s="6" t="s">
+      <c r="D100" s="7" t="s">
         <v>370</v>
       </c>
-      <c r="E100" s="6" t="s">
+      <c r="E100" s="7" t="s">
         <v>371</v>
       </c>
-      <c r="F100" s="6">
-        <v>2</v>
-      </c>
-      <c r="G100" s="7" t="s">
+      <c r="F100" s="7">
+        <v>2</v>
+      </c>
+      <c r="G100" s="8" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="101" customHeight="1" spans="2:7">
-      <c r="B101" s="3">
+      <c r="B101" s="6">
         <v>98</v>
       </c>
-      <c r="C101" s="6" t="s">
+      <c r="C101" s="7" t="s">
         <v>373</v>
       </c>
-      <c r="D101" s="6" t="s">
+      <c r="D101" s="7" t="s">
         <v>374</v>
       </c>
-      <c r="E101" s="6" t="s">
+      <c r="E101" s="7" t="s">
         <v>375</v>
       </c>
-      <c r="F101" s="6">
-        <v>1</v>
-      </c>
-      <c r="G101" s="7" t="s">
+      <c r="F101" s="7">
+        <v>1</v>
+      </c>
+      <c r="G101" s="8" t="s">
         <v>376</v>
       </c>
     </row>
     <row r="102" customHeight="1" spans="2:7">
-      <c r="B102" s="3">
+      <c r="B102" s="6">
         <v>99</v>
       </c>
-      <c r="C102" s="6" t="s">
+      <c r="C102" s="7" t="s">
         <v>377</v>
       </c>
-      <c r="D102" s="6" t="s">
+      <c r="D102" s="7" t="s">
         <v>378</v>
       </c>
-      <c r="E102" s="6" t="s">
+      <c r="E102" s="7" t="s">
         <v>379</v>
       </c>
-      <c r="F102" s="6">
-        <v>2</v>
-      </c>
-      <c r="G102" s="7" t="s">
+      <c r="F102" s="7">
+        <v>2</v>
+      </c>
+      <c r="G102" s="8" t="s">
         <v>380</v>
       </c>
     </row>
     <row r="103" customHeight="1" spans="2:7">
-      <c r="B103" s="3">
+      <c r="B103" s="6">
         <v>100</v>
       </c>
-      <c r="C103" s="6" t="s">
+      <c r="C103" s="7" t="s">
         <v>381</v>
       </c>
-      <c r="D103" s="6" t="s">
+      <c r="D103" s="7" t="s">
         <v>382</v>
       </c>
-      <c r="E103" s="6" t="s">
+      <c r="E103" s="7" t="s">
         <v>383</v>
       </c>
-      <c r="F103" s="6">
-        <v>1</v>
-      </c>
-      <c r="G103" s="7" t="s">
+      <c r="F103" s="7">
+        <v>1</v>
+      </c>
+      <c r="G103" s="8" t="s">
         <v>384</v>
+      </c>
+    </row>
+    <row r="104" customHeight="1" spans="2:7">
+      <c r="B104" s="6">
+        <v>101</v>
+      </c>
+      <c r="C104" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="D104" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="E104" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="F104" s="7">
+        <v>2</v>
+      </c>
+      <c r="G104" s="8" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="105" customHeight="1" spans="2:7">
+      <c r="B105" s="6">
+        <v>102</v>
+      </c>
+      <c r="C105" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="D105" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="E105" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="F105" s="7">
+        <v>1</v>
+      </c>
+      <c r="G105" s="8" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="106" customHeight="1" spans="2:7">
+      <c r="B106" s="6">
+        <v>103</v>
+      </c>
+      <c r="C106" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="D106" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="E106" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="F106" s="7">
+        <v>1</v>
+      </c>
+      <c r="G106" s="8" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="107" customHeight="1" spans="2:7">
+      <c r="B107" s="6">
+        <v>104</v>
+      </c>
+      <c r="C107" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="D107" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="E107" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="F107" s="7">
+        <v>2</v>
+      </c>
+      <c r="G107" s="8" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="108" customHeight="1" spans="2:7">
+      <c r="B108" s="6">
+        <v>105</v>
+      </c>
+      <c r="C108" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="D108" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="E108" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="F108" s="7">
+        <v>1</v>
+      </c>
+      <c r="G108" s="8" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="109" customHeight="1" spans="2:7">
+      <c r="B109" s="6">
+        <v>106</v>
+      </c>
+      <c r="C109" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="D109" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="E109" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="F109" s="7">
+        <v>1</v>
+      </c>
+      <c r="G109" s="8" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="110" customHeight="1" spans="2:7">
+      <c r="B110" s="6">
+        <v>107</v>
+      </c>
+      <c r="C110" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="D110" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="E110" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="F110" s="7">
+        <v>2</v>
+      </c>
+      <c r="G110" s="8" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="111" customHeight="1" spans="2:7">
+      <c r="B111" s="6">
+        <v>108</v>
+      </c>
+      <c r="C111" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="D111" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="E111" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F111" s="7">
+        <v>1</v>
+      </c>
+      <c r="G111" s="8" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="112" customHeight="1" spans="2:7">
+      <c r="B112" s="6">
+        <v>109</v>
+      </c>
+      <c r="C112" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="D112" s="7">
+        <v>3</v>
+      </c>
+      <c r="E112" s="7">
+        <v>4</v>
+      </c>
+      <c r="F112" s="7">
+        <v>2</v>
+      </c>
+      <c r="G112" s="8" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="113" customHeight="1" spans="2:7">
+      <c r="B113" s="6">
+        <v>110</v>
+      </c>
+      <c r="C113" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="D113" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="E113" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="F113" s="7">
+        <v>1</v>
+      </c>
+      <c r="G113" s="8" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="114" customHeight="1" spans="2:7">
+      <c r="B114" s="6">
+        <v>111</v>
+      </c>
+      <c r="C114" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="D114" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="E114" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="F114" s="7">
+        <v>1</v>
+      </c>
+      <c r="G114" s="8" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="115" customHeight="1" spans="2:7">
+      <c r="B115" s="6">
+        <v>112</v>
+      </c>
+      <c r="C115" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="D115" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="E115" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="F115" s="7">
+        <v>2</v>
+      </c>
+      <c r="G115" s="8" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="116" customHeight="1" spans="2:7">
+      <c r="B116" s="6">
+        <v>113</v>
+      </c>
+      <c r="C116" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="D116" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="E116" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="F116" s="7">
+        <v>2</v>
+      </c>
+      <c r="G116" s="8" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="117" customHeight="1" spans="2:7">
+      <c r="B117" s="6">
+        <v>114</v>
+      </c>
+      <c r="C117" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="D117" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="E117" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="F117" s="7">
+        <v>1</v>
+      </c>
+      <c r="G117" s="8" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="118" customHeight="1" spans="2:7">
+      <c r="B118" s="6">
+        <v>115</v>
+      </c>
+      <c r="C118" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="D118" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="E118" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F118" s="7">
+        <v>2</v>
+      </c>
+      <c r="G118" s="8" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="119" customHeight="1" spans="2:7">
+      <c r="B119" s="6">
+        <v>116</v>
+      </c>
+      <c r="C119" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="D119" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="E119" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F119" s="7">
+        <v>2</v>
+      </c>
+      <c r="G119" s="8" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="120" customHeight="1" spans="2:7">
+      <c r="B120" s="6">
+        <v>117</v>
+      </c>
+      <c r="C120" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="D120" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="E120" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="F120" s="7">
+        <v>1</v>
+      </c>
+      <c r="G120" s="8" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="121" customHeight="1" spans="2:7">
+      <c r="B121" s="6">
+        <v>118</v>
+      </c>
+      <c r="C121" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="D121" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="E121" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="F121" s="7">
+        <v>2</v>
+      </c>
+      <c r="G121" s="8" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="122" customHeight="1" spans="2:7">
+      <c r="B122" s="6">
+        <v>119</v>
+      </c>
+      <c r="C122" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="D122" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="E122" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="F122" s="7">
+        <v>1</v>
+      </c>
+      <c r="G122" s="8" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="123" customHeight="1" spans="2:7">
+      <c r="B123" s="6">
+        <v>120</v>
+      </c>
+      <c r="C123" s="7" t="s">
+        <v>453</v>
+      </c>
+      <c r="D123" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="E123" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="F123" s="7">
+        <v>2</v>
+      </c>
+      <c r="G123" s="8" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="124" customHeight="1" spans="2:7">
+      <c r="B124" s="6">
+        <v>121</v>
+      </c>
+      <c r="C124" s="7" t="s">
+        <v>456</v>
+      </c>
+      <c r="D124" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="E124" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="F124" s="7">
+        <v>2</v>
+      </c>
+      <c r="G124" s="8" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="125" customHeight="1" spans="2:7">
+      <c r="B125" s="6">
+        <v>122</v>
+      </c>
+      <c r="C125" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="D125" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="E125" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F125" s="7">
+        <v>1</v>
+      </c>
+      <c r="G125" s="8" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="126" customHeight="1" spans="2:7">
+      <c r="B126" s="6">
+        <v>123</v>
+      </c>
+      <c r="C126" s="7" t="s">
+        <v>461</v>
+      </c>
+      <c r="D126" s="7">
+        <v>1</v>
+      </c>
+      <c r="E126" s="7">
+        <v>4</v>
+      </c>
+      <c r="F126" s="7">
+        <v>2</v>
+      </c>
+      <c r="G126" s="8" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="127" customHeight="1" spans="2:7">
+      <c r="B127" s="6">
+        <v>124</v>
+      </c>
+      <c r="C127" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="D127" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="E127" s="7" t="s">
+        <v>465</v>
+      </c>
+      <c r="F127" s="7">
+        <v>1</v>
+      </c>
+      <c r="G127" s="8" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="128" customHeight="1" spans="2:7">
+      <c r="B128" s="6">
+        <v>125</v>
+      </c>
+      <c r="C128" s="7" t="s">
+        <v>467</v>
+      </c>
+      <c r="D128" s="7">
+        <v>6</v>
+      </c>
+      <c r="E128" s="7">
+        <v>9</v>
+      </c>
+      <c r="F128" s="7">
+        <v>2</v>
+      </c>
+      <c r="G128" s="8" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="129" customHeight="1" spans="2:7">
+      <c r="B129" s="6">
+        <v>126</v>
+      </c>
+      <c r="C129" s="7" t="s">
+        <v>469</v>
+      </c>
+      <c r="D129" s="7" t="s">
+        <v>470</v>
+      </c>
+      <c r="E129" s="7" t="s">
+        <v>471</v>
+      </c>
+      <c r="F129" s="7">
+        <v>1</v>
+      </c>
+      <c r="G129" s="8" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="130" customHeight="1" spans="2:7">
+      <c r="B130" s="6">
+        <v>127</v>
+      </c>
+      <c r="C130" s="7" t="s">
+        <v>473</v>
+      </c>
+      <c r="D130" s="7" t="s">
+        <v>474</v>
+      </c>
+      <c r="E130" s="7" t="s">
+        <v>475</v>
+      </c>
+      <c r="F130" s="7">
+        <v>1</v>
+      </c>
+      <c r="G130" s="8" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="131" customHeight="1" spans="2:7">
+      <c r="B131" s="6">
+        <v>128</v>
+      </c>
+      <c r="C131" s="7" t="s">
+        <v>477</v>
+      </c>
+      <c r="D131" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="E131" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="F131" s="7">
+        <v>1</v>
+      </c>
+      <c r="G131" s="8" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="132" customHeight="1" spans="2:7">
+      <c r="B132" s="6">
+        <v>129</v>
+      </c>
+      <c r="C132" s="7" t="s">
+        <v>479</v>
+      </c>
+      <c r="D132" s="7" t="s">
+        <v>480</v>
+      </c>
+      <c r="E132" s="7" t="s">
+        <v>481</v>
+      </c>
+      <c r="F132" s="7">
+        <v>2</v>
+      </c>
+      <c r="G132" s="8" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="133" customHeight="1" spans="2:7">
+      <c r="B133" s="6">
+        <v>130</v>
+      </c>
+      <c r="C133" s="7" t="s">
+        <v>483</v>
+      </c>
+      <c r="D133" s="7" t="s">
+        <v>484</v>
+      </c>
+      <c r="E133" s="7" t="s">
+        <v>485</v>
+      </c>
+      <c r="F133" s="7">
+        <v>2</v>
+      </c>
+      <c r="G133" s="8" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="134" customHeight="1" spans="2:7">
+      <c r="B134" s="6">
+        <v>131</v>
+      </c>
+      <c r="C134" s="7" t="s">
+        <v>487</v>
+      </c>
+      <c r="D134" s="7" t="s">
+        <v>488</v>
+      </c>
+      <c r="E134" s="7" t="s">
+        <v>489</v>
+      </c>
+      <c r="F134" s="7">
+        <v>2</v>
+      </c>
+      <c r="G134" s="8" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="135" customHeight="1" spans="2:7">
+      <c r="B135" s="6">
+        <v>132</v>
+      </c>
+      <c r="C135" s="7" t="s">
+        <v>491</v>
+      </c>
+      <c r="D135" s="7" t="s">
+        <v>492</v>
+      </c>
+      <c r="E135" s="7" t="s">
+        <v>493</v>
+      </c>
+      <c r="F135" s="7">
+        <v>1</v>
+      </c>
+      <c r="G135" s="8" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="136" customHeight="1" spans="2:7">
+      <c r="B136" s="6">
+        <v>133</v>
+      </c>
+      <c r="C136" s="7" t="s">
+        <v>495</v>
+      </c>
+      <c r="D136" s="7" t="s">
+        <v>496</v>
+      </c>
+      <c r="E136" s="7" t="s">
+        <v>497</v>
+      </c>
+      <c r="F136" s="7">
+        <v>1</v>
+      </c>
+      <c r="G136" s="8" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="137" customHeight="1" spans="2:7">
+      <c r="B137" s="6">
+        <v>134</v>
+      </c>
+      <c r="C137" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="D137" s="7" t="s">
+        <v>500</v>
+      </c>
+      <c r="E137" s="7" t="s">
+        <v>501</v>
+      </c>
+      <c r="F137" s="7">
+        <v>1</v>
+      </c>
+      <c r="G137" s="8" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="138" customHeight="1" spans="2:7">
+      <c r="B138" s="6">
+        <v>135</v>
+      </c>
+      <c r="C138" s="7" t="s">
+        <v>503</v>
+      </c>
+      <c r="D138" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="E138" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="F138" s="7">
+        <v>1</v>
+      </c>
+      <c r="G138" s="8" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="139" customHeight="1" spans="2:7">
+      <c r="B139" s="6">
+        <v>136</v>
+      </c>
+      <c r="C139" s="7" t="s">
+        <v>505</v>
+      </c>
+      <c r="D139" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="E139" s="7" t="s">
+        <v>506</v>
+      </c>
+      <c r="F139" s="7">
+        <v>2</v>
+      </c>
+      <c r="G139" s="8" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="140" customHeight="1" spans="2:7">
+      <c r="B140" s="6">
+        <v>137</v>
+      </c>
+      <c r="C140" s="7" t="s">
+        <v>508</v>
+      </c>
+      <c r="D140" s="7" t="s">
+        <v>509</v>
+      </c>
+      <c r="E140" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="F140" s="7">
+        <v>2</v>
+      </c>
+      <c r="G140" s="8" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="141" customHeight="1" spans="2:7">
+      <c r="B141" s="6">
+        <v>138</v>
+      </c>
+      <c r="C141" s="7" t="s">
+        <v>511</v>
+      </c>
+      <c r="D141" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="E141" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F141" s="7">
+        <v>1</v>
+      </c>
+      <c r="G141" s="8" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="142" customHeight="1" spans="2:7">
+      <c r="B142" s="6">
+        <v>139</v>
+      </c>
+      <c r="C142" s="7" t="s">
+        <v>513</v>
+      </c>
+      <c r="D142" s="7" t="s">
+        <v>514</v>
+      </c>
+      <c r="E142" s="7" t="s">
+        <v>515</v>
+      </c>
+      <c r="F142" s="7">
+        <v>1</v>
+      </c>
+      <c r="G142" s="8" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="143" customHeight="1" spans="2:7">
+      <c r="B143" s="6">
+        <v>140</v>
+      </c>
+      <c r="C143" s="7" t="s">
+        <v>517</v>
+      </c>
+      <c r="D143" s="7">
+        <v>850</v>
+      </c>
+      <c r="E143" s="7">
+        <v>760</v>
+      </c>
+      <c r="F143" s="7">
+        <v>1</v>
+      </c>
+      <c r="G143" s="8" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="144" customHeight="1" spans="2:7">
+      <c r="B144" s="6">
+        <v>141</v>
+      </c>
+      <c r="C144" s="7" t="s">
+        <v>519</v>
+      </c>
+      <c r="D144" s="7" t="s">
+        <v>520</v>
+      </c>
+      <c r="E144" s="7" t="s">
+        <v>521</v>
+      </c>
+      <c r="F144" s="7">
+        <v>1</v>
+      </c>
+      <c r="G144" s="8" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="145" customHeight="1" spans="2:7">
+      <c r="B145" s="6">
+        <v>142</v>
+      </c>
+      <c r="C145" s="7" t="s">
+        <v>523</v>
+      </c>
+      <c r="D145" s="7" t="s">
+        <v>524</v>
+      </c>
+      <c r="E145" s="7" t="s">
+        <v>525</v>
+      </c>
+      <c r="F145" s="7">
+        <v>1</v>
+      </c>
+      <c r="G145" s="8" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="146" customHeight="1" spans="2:7">
+      <c r="B146" s="6">
+        <v>143</v>
+      </c>
+      <c r="C146" s="7" t="s">
+        <v>527</v>
+      </c>
+      <c r="D146" s="7" t="s">
+        <v>528</v>
+      </c>
+      <c r="E146" s="7" t="s">
+        <v>529</v>
+      </c>
+      <c r="F146" s="7">
+        <v>2</v>
+      </c>
+      <c r="G146" s="8" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="147" customHeight="1" spans="2:7">
+      <c r="B147" s="6">
+        <v>144</v>
+      </c>
+      <c r="C147" s="7" t="s">
+        <v>531</v>
+      </c>
+      <c r="D147" s="7" t="s">
+        <v>532</v>
+      </c>
+      <c r="E147" s="7" t="s">
+        <v>533</v>
+      </c>
+      <c r="F147" s="7">
+        <v>2</v>
+      </c>
+      <c r="G147" s="8" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="148" customHeight="1" spans="2:7">
+      <c r="B148" s="6">
+        <v>145</v>
+      </c>
+      <c r="C148" s="7" t="s">
+        <v>535</v>
+      </c>
+      <c r="D148" s="7" t="s">
+        <v>536</v>
+      </c>
+      <c r="E148" s="7" t="s">
+        <v>537</v>
+      </c>
+      <c r="F148" s="7">
+        <v>1</v>
+      </c>
+      <c r="G148" s="8" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="149" customHeight="1" spans="2:7">
+      <c r="B149" s="6">
+        <v>146</v>
+      </c>
+      <c r="C149" s="7" t="s">
+        <v>539</v>
+      </c>
+      <c r="D149" s="7" t="s">
+        <v>540</v>
+      </c>
+      <c r="E149" s="7" t="s">
+        <v>541</v>
+      </c>
+      <c r="F149" s="7">
+        <v>2</v>
+      </c>
+      <c r="G149" s="8" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="150" customHeight="1" spans="2:7">
+      <c r="B150" s="6">
+        <v>147</v>
+      </c>
+      <c r="C150" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="D150" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="E150" s="7" t="s">
+        <v>545</v>
+      </c>
+      <c r="F150" s="7">
+        <v>1</v>
+      </c>
+      <c r="G150" s="8" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="151" customHeight="1" spans="2:7">
+      <c r="B151" s="6">
+        <v>148</v>
+      </c>
+      <c r="C151" s="7" t="s">
+        <v>547</v>
+      </c>
+      <c r="D151" s="7" t="s">
+        <v>548</v>
+      </c>
+      <c r="E151" s="7" t="s">
+        <v>549</v>
+      </c>
+      <c r="F151" s="7">
+        <v>1</v>
+      </c>
+      <c r="G151" s="8" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="152" customHeight="1" spans="2:7">
+      <c r="B152" s="6">
+        <v>149</v>
+      </c>
+      <c r="C152" s="7" t="s">
+        <v>551</v>
+      </c>
+      <c r="D152" s="7" t="s">
+        <v>552</v>
+      </c>
+      <c r="E152" s="7" t="s">
+        <v>553</v>
+      </c>
+      <c r="F152" s="7">
+        <v>2</v>
+      </c>
+      <c r="G152" s="8" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="153" customHeight="1" spans="2:7">
+      <c r="B153" s="6">
+        <v>150</v>
+      </c>
+      <c r="C153" s="7" t="s">
+        <v>555</v>
+      </c>
+      <c r="D153" s="7" t="s">
+        <v>556</v>
+      </c>
+      <c r="E153" s="7" t="s">
+        <v>557</v>
+      </c>
+      <c r="F153" s="7">
+        <v>1</v>
+      </c>
+      <c r="G153" s="8" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="154" customHeight="1" spans="2:7">
+      <c r="B154" s="6">
+        <v>151</v>
+      </c>
+      <c r="C154" s="7" t="s">
+        <v>559</v>
+      </c>
+      <c r="D154" s="7" t="s">
+        <v>560</v>
+      </c>
+      <c r="E154" s="7" t="s">
+        <v>561</v>
+      </c>
+      <c r="F154" s="7">
+        <v>2</v>
+      </c>
+      <c r="G154" s="8" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="155" customHeight="1" spans="2:7">
+      <c r="B155" s="6">
+        <v>152</v>
+      </c>
+      <c r="C155" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="D155" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="E155" s="7" t="s">
+        <v>565</v>
+      </c>
+      <c r="F155" s="7">
+        <v>1</v>
+      </c>
+      <c r="G155" s="8" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="156" customHeight="1" spans="2:7">
+      <c r="B156" s="6">
+        <v>153</v>
+      </c>
+      <c r="C156" s="7" t="s">
+        <v>567</v>
+      </c>
+      <c r="D156" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="E156" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F156" s="7">
+        <v>1</v>
+      </c>
+      <c r="G156" s="8" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="157" customHeight="1" spans="2:7">
+      <c r="B157" s="6">
+        <v>154</v>
+      </c>
+      <c r="C157" s="7" t="s">
+        <v>569</v>
+      </c>
+      <c r="D157" s="7" t="s">
+        <v>570</v>
+      </c>
+      <c r="E157" s="7" t="s">
+        <v>571</v>
+      </c>
+      <c r="F157" s="7">
+        <v>1</v>
+      </c>
+      <c r="G157" s="8" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="158" customHeight="1" spans="2:7">
+      <c r="B158" s="6">
+        <v>155</v>
+      </c>
+      <c r="C158" s="7" t="s">
+        <v>573</v>
+      </c>
+      <c r="D158" s="7" t="s">
+        <v>574</v>
+      </c>
+      <c r="E158" s="7" t="s">
+        <v>575</v>
+      </c>
+      <c r="F158" s="7">
+        <v>2</v>
+      </c>
+      <c r="G158" s="8" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="159" customHeight="1" spans="2:7">
+      <c r="B159" s="6">
+        <v>156</v>
+      </c>
+      <c r="C159" s="7" t="s">
+        <v>577</v>
+      </c>
+      <c r="D159" s="7" t="s">
+        <v>545</v>
+      </c>
+      <c r="E159" s="7" t="s">
+        <v>578</v>
+      </c>
+      <c r="F159" s="7">
+        <v>1</v>
+      </c>
+      <c r="G159" s="8" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="160" customHeight="1" spans="2:7">
+      <c r="B160" s="6">
+        <v>157</v>
+      </c>
+      <c r="C160" s="7" t="s">
+        <v>580</v>
+      </c>
+      <c r="D160" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="E160" s="7" t="s">
+        <v>581</v>
+      </c>
+      <c r="F160" s="7">
+        <v>1</v>
+      </c>
+      <c r="G160" s="8" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="161" customHeight="1" spans="2:7">
+      <c r="B161" s="6">
+        <v>158</v>
+      </c>
+      <c r="C161" s="7" t="s">
+        <v>583</v>
+      </c>
+      <c r="D161" s="7" t="s">
+        <v>584</v>
+      </c>
+      <c r="E161" s="7" t="s">
+        <v>585</v>
+      </c>
+      <c r="F161" s="7">
+        <v>1</v>
+      </c>
+      <c r="G161" s="8" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="162" customHeight="1" spans="2:7">
+      <c r="B162" s="6">
+        <v>159</v>
+      </c>
+      <c r="C162" s="7" t="s">
+        <v>587</v>
+      </c>
+      <c r="D162" s="7" t="s">
+        <v>588</v>
+      </c>
+      <c r="E162" s="7" t="s">
+        <v>589</v>
+      </c>
+      <c r="F162" s="7">
+        <v>2</v>
+      </c>
+      <c r="G162" s="8" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="163" customHeight="1" spans="2:7">
+      <c r="B163" s="6">
+        <v>160</v>
+      </c>
+      <c r="C163" s="7" t="s">
+        <v>591</v>
+      </c>
+      <c r="D163" s="7" t="s">
+        <v>592</v>
+      </c>
+      <c r="E163" s="7" t="s">
+        <v>593</v>
+      </c>
+      <c r="F163" s="7">
+        <v>1</v>
+      </c>
+      <c r="G163" s="8" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="164" customHeight="1" spans="2:7">
+      <c r="B164" s="6">
+        <v>161</v>
+      </c>
+      <c r="C164" s="7" t="s">
+        <v>595</v>
+      </c>
+      <c r="D164" s="7" t="s">
+        <v>596</v>
+      </c>
+      <c r="E164" s="7" t="s">
+        <v>597</v>
+      </c>
+      <c r="F164" s="7">
+        <v>1</v>
+      </c>
+      <c r="G164" s="8" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="165" customHeight="1" spans="2:7">
+      <c r="B165" s="6">
+        <v>162</v>
+      </c>
+      <c r="C165" s="7" t="s">
+        <v>599</v>
+      </c>
+      <c r="D165" s="7" t="s">
+        <v>600</v>
+      </c>
+      <c r="E165" s="7" t="s">
+        <v>601</v>
+      </c>
+      <c r="F165" s="7">
+        <v>2</v>
+      </c>
+      <c r="G165" s="8" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="166" customHeight="1" spans="2:7">
+      <c r="B166" s="6">
+        <v>163</v>
+      </c>
+      <c r="C166" s="7" t="s">
+        <v>603</v>
+      </c>
+      <c r="D166" s="7" t="s">
+        <v>604</v>
+      </c>
+      <c r="E166" s="7" t="s">
+        <v>605</v>
+      </c>
+      <c r="F166" s="7">
+        <v>1</v>
+      </c>
+      <c r="G166" s="8" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="167" customHeight="1" spans="2:7">
+      <c r="B167" s="6">
+        <v>164</v>
+      </c>
+      <c r="C167" s="7" t="s">
+        <v>607</v>
+      </c>
+      <c r="D167" s="7">
+        <v>420</v>
+      </c>
+      <c r="E167" s="7">
+        <v>410</v>
+      </c>
+      <c r="F167" s="7">
+        <v>1</v>
+      </c>
+      <c r="G167" s="8" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="168" customHeight="1" spans="2:7">
+      <c r="B168" s="6">
+        <v>165</v>
+      </c>
+      <c r="C168" s="7" t="s">
+        <v>609</v>
+      </c>
+      <c r="D168" s="7" t="s">
+        <v>610</v>
+      </c>
+      <c r="E168" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="F168" s="7">
+        <v>1</v>
+      </c>
+      <c r="G168" s="8" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="169" customHeight="1" spans="2:7">
+      <c r="B169" s="6">
+        <v>166</v>
+      </c>
+      <c r="C169" s="7" t="s">
+        <v>612</v>
+      </c>
+      <c r="D169" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="E169" s="7" t="s">
+        <v>613</v>
+      </c>
+      <c r="F169" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="G169" s="8" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="170" customHeight="1" spans="2:7">
+      <c r="B170" s="6">
+        <v>167</v>
+      </c>
+      <c r="C170" s="7" t="s">
+        <v>615</v>
+      </c>
+      <c r="D170" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="E170" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F170" s="7">
+        <v>2</v>
+      </c>
+      <c r="G170" s="8" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="171" customHeight="1" spans="2:7">
+      <c r="B171" s="6">
+        <v>168</v>
+      </c>
+      <c r="C171" s="7" t="s">
+        <v>617</v>
+      </c>
+      <c r="D171" s="7" t="s">
+        <v>618</v>
+      </c>
+      <c r="E171" s="7" t="s">
+        <v>619</v>
+      </c>
+      <c r="F171" s="7">
+        <v>2</v>
+      </c>
+      <c r="G171" s="8" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="172" customHeight="1" spans="2:7">
+      <c r="B172" s="6">
+        <v>169</v>
+      </c>
+      <c r="C172" s="7" t="s">
+        <v>621</v>
+      </c>
+      <c r="D172" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="E172" s="7" t="s">
+        <v>622</v>
+      </c>
+      <c r="F172" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="G172" s="8" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="173" customHeight="1" spans="2:7">
+      <c r="B173" s="6">
+        <v>170</v>
+      </c>
+      <c r="C173" s="7" t="s">
+        <v>624</v>
+      </c>
+      <c r="D173" s="7" t="s">
+        <v>625</v>
+      </c>
+      <c r="E173" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F173" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="G173" s="8" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="174" customHeight="1" spans="2:7">
+      <c r="B174" s="6">
+        <v>171</v>
+      </c>
+      <c r="C174" s="7" t="s">
+        <v>627</v>
+      </c>
+      <c r="D174" s="7" t="s">
+        <v>628</v>
+      </c>
+      <c r="E174" s="7" t="s">
+        <v>629</v>
+      </c>
+      <c r="F174" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="G174" s="8" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="175" customHeight="1" spans="2:7">
+      <c r="B175" s="6">
+        <v>172</v>
+      </c>
+      <c r="C175" s="7" t="s">
+        <v>631</v>
+      </c>
+      <c r="D175" s="7" t="s">
+        <v>632</v>
+      </c>
+      <c r="E175" s="7" t="s">
+        <v>633</v>
+      </c>
+      <c r="F175" s="7">
+        <v>1</v>
+      </c>
+      <c r="G175" s="8" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="176" customHeight="1" spans="2:7">
+      <c r="B176" s="6">
+        <v>173</v>
+      </c>
+      <c r="C176" s="7" t="s">
+        <v>635</v>
+      </c>
+      <c r="D176" s="7" t="s">
+        <v>636</v>
+      </c>
+      <c r="E176" s="7" t="s">
+        <v>637</v>
+      </c>
+      <c r="F176" s="7">
+        <v>1</v>
+      </c>
+      <c r="G176" s="8" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="177" customHeight="1" spans="2:7">
+      <c r="B177" s="6">
+        <v>174</v>
+      </c>
+      <c r="C177" s="7" t="s">
+        <v>639</v>
+      </c>
+      <c r="D177" s="7" t="s">
+        <v>640</v>
+      </c>
+      <c r="E177" s="7" t="s">
+        <v>641</v>
+      </c>
+      <c r="F177" s="7">
+        <v>1</v>
+      </c>
+      <c r="G177" s="8" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="178" customHeight="1" spans="2:7">
+      <c r="B178" s="6">
+        <v>175</v>
+      </c>
+      <c r="C178" s="7" t="s">
+        <v>643</v>
+      </c>
+      <c r="D178" s="7" t="s">
+        <v>644</v>
+      </c>
+      <c r="E178" s="7" t="s">
+        <v>645</v>
+      </c>
+      <c r="F178" s="7">
+        <v>1</v>
+      </c>
+      <c r="G178" s="8" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="179" customHeight="1" spans="2:7">
+      <c r="B179" s="6">
+        <v>176</v>
+      </c>
+      <c r="C179" s="7" t="s">
+        <v>647</v>
+      </c>
+      <c r="D179" s="7" t="s">
+        <v>506</v>
+      </c>
+      <c r="E179" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F179" s="7">
+        <v>1</v>
+      </c>
+      <c r="G179" s="8" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="180" customHeight="1" spans="2:7">
+      <c r="B180" s="6">
+        <v>177</v>
+      </c>
+      <c r="C180" s="7" t="s">
+        <v>649</v>
+      </c>
+      <c r="D180" s="7" t="s">
+        <v>650</v>
+      </c>
+      <c r="E180" s="7" t="s">
+        <v>651</v>
+      </c>
+      <c r="F180" s="7">
+        <v>2</v>
+      </c>
+      <c r="G180" s="8" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="181" customHeight="1" spans="2:7">
+      <c r="B181" s="6">
+        <v>178</v>
+      </c>
+      <c r="C181" s="7" t="s">
+        <v>653</v>
+      </c>
+      <c r="D181" s="7" t="s">
+        <v>488</v>
+      </c>
+      <c r="E181" s="7" t="s">
+        <v>489</v>
+      </c>
+      <c r="F181" s="7">
+        <v>1</v>
+      </c>
+      <c r="G181" s="8" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="182" customHeight="1" spans="2:7">
+      <c r="B182" s="6">
+        <v>179</v>
+      </c>
+      <c r="C182" s="7" t="s">
+        <v>655</v>
+      </c>
+      <c r="D182" s="7" t="s">
+        <v>656</v>
+      </c>
+      <c r="E182" s="7" t="s">
+        <v>657</v>
+      </c>
+      <c r="F182" s="7">
+        <v>1</v>
+      </c>
+      <c r="G182" s="8" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="183" customHeight="1" spans="2:7">
+      <c r="B183" s="6">
+        <v>180</v>
+      </c>
+      <c r="C183" s="7" t="s">
+        <v>659</v>
+      </c>
+      <c r="D183" s="7" t="s">
+        <v>660</v>
+      </c>
+      <c r="E183" s="7" t="s">
+        <v>661</v>
+      </c>
+      <c r="F183" s="7">
+        <v>1</v>
+      </c>
+      <c r="G183" s="8" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="184" customHeight="1" spans="2:7">
+      <c r="B184" s="6">
+        <v>181</v>
+      </c>
+      <c r="C184" s="7" t="s">
+        <v>663</v>
+      </c>
+      <c r="D184" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="E184" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="F184" s="7">
+        <v>1</v>
+      </c>
+      <c r="G184" s="8" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="185" customHeight="1" spans="2:7">
+      <c r="B185" s="6">
+        <v>182</v>
+      </c>
+      <c r="C185" s="7" t="s">
+        <v>665</v>
+      </c>
+      <c r="D185" s="7" t="s">
+        <v>666</v>
+      </c>
+      <c r="E185" s="7" t="s">
+        <v>667</v>
+      </c>
+      <c r="F185" s="7">
+        <v>1</v>
+      </c>
+      <c r="G185" s="8" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="186" customHeight="1" spans="2:7">
+      <c r="B186" s="6">
+        <v>183</v>
+      </c>
+      <c r="C186" s="7" t="s">
+        <v>669</v>
+      </c>
+      <c r="D186" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="E186" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F186" s="7">
+        <v>1</v>
+      </c>
+      <c r="G186" s="8" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="187" customHeight="1" spans="2:7">
+      <c r="B187" s="6">
+        <v>184</v>
+      </c>
+      <c r="C187" s="7" t="s">
+        <v>671</v>
+      </c>
+      <c r="D187" s="7" t="s">
+        <v>672</v>
+      </c>
+      <c r="E187" s="7" t="s">
+        <v>673</v>
+      </c>
+      <c r="F187" s="7">
+        <v>2</v>
+      </c>
+      <c r="G187" s="8" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="188" customHeight="1" spans="2:7">
+      <c r="B188" s="6">
+        <v>185</v>
+      </c>
+      <c r="C188" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="D188" s="7" t="s">
+        <v>675</v>
+      </c>
+      <c r="E188" s="7" t="s">
+        <v>676</v>
+      </c>
+      <c r="F188" s="7">
+        <v>1</v>
+      </c>
+      <c r="G188" s="8" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="189" customHeight="1" spans="2:7">
+      <c r="B189" s="6">
+        <v>186</v>
+      </c>
+      <c r="C189" s="7" t="s">
+        <v>678</v>
+      </c>
+      <c r="D189" s="7" t="s">
+        <v>679</v>
+      </c>
+      <c r="E189" s="7" t="s">
+        <v>680</v>
+      </c>
+      <c r="F189" s="7">
+        <v>2</v>
+      </c>
+      <c r="G189" s="8" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="190" customHeight="1" spans="2:7">
+      <c r="B190" s="6">
+        <v>187</v>
+      </c>
+      <c r="C190" s="7" t="s">
+        <v>682</v>
+      </c>
+      <c r="D190" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="E190" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F190" s="7">
+        <v>1</v>
+      </c>
+      <c r="G190" s="8" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="191" customHeight="1" spans="2:7">
+      <c r="B191" s="6">
+        <v>188</v>
+      </c>
+      <c r="C191" s="7" t="s">
+        <v>684</v>
+      </c>
+      <c r="D191" s="7" t="s">
+        <v>685</v>
+      </c>
+      <c r="E191" s="7" t="s">
+        <v>686</v>
+      </c>
+      <c r="F191" s="7">
+        <v>2</v>
+      </c>
+      <c r="G191" s="8" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="192" customHeight="1" spans="2:7">
+      <c r="B192" s="6">
+        <v>189</v>
+      </c>
+      <c r="C192" s="7" t="s">
+        <v>688</v>
+      </c>
+      <c r="D192" s="7" t="s">
+        <v>689</v>
+      </c>
+      <c r="E192" s="7" t="s">
+        <v>690</v>
+      </c>
+      <c r="F192" s="7">
+        <v>1</v>
+      </c>
+      <c r="G192" s="8" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="193" customHeight="1" spans="2:7">
+      <c r="B193" s="6">
+        <v>190</v>
+      </c>
+      <c r="C193" s="7" t="s">
+        <v>692</v>
+      </c>
+      <c r="D193" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="E193" s="7" t="s">
+        <v>693</v>
+      </c>
+      <c r="F193" s="7">
+        <v>1</v>
+      </c>
+      <c r="G193" s="8" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="194" customHeight="1" spans="2:7">
+      <c r="B194" s="6">
+        <v>191</v>
+      </c>
+      <c r="C194" s="7" t="s">
+        <v>695</v>
+      </c>
+      <c r="D194" s="7" t="s">
+        <v>696</v>
+      </c>
+      <c r="E194" s="7" t="s">
+        <v>697</v>
+      </c>
+      <c r="F194" s="7">
+        <v>2</v>
+      </c>
+      <c r="G194" s="8" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="195" customHeight="1" spans="2:7">
+      <c r="B195" s="6">
+        <v>192</v>
+      </c>
+      <c r="C195" s="7" t="s">
+        <v>699</v>
+      </c>
+      <c r="D195" s="7" t="s">
+        <v>700</v>
+      </c>
+      <c r="E195" s="7" t="s">
+        <v>701</v>
+      </c>
+      <c r="F195" s="7">
+        <v>2</v>
+      </c>
+      <c r="G195" s="8" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="196" customHeight="1" spans="2:7">
+      <c r="B196" s="6">
+        <v>193</v>
+      </c>
+      <c r="C196" s="7" t="s">
+        <v>703</v>
+      </c>
+      <c r="D196" s="7" t="s">
+        <v>704</v>
+      </c>
+      <c r="E196" s="7" t="s">
+        <v>705</v>
+      </c>
+      <c r="F196" s="7">
+        <v>1</v>
+      </c>
+      <c r="G196" s="8" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="197" customHeight="1" spans="2:7">
+      <c r="B197" s="6">
+        <v>194</v>
+      </c>
+      <c r="C197" s="7" t="s">
+        <v>707</v>
+      </c>
+      <c r="D197" s="7" t="s">
+        <v>708</v>
+      </c>
+      <c r="E197" s="7" t="s">
+        <v>709</v>
+      </c>
+      <c r="F197" s="7">
+        <v>1</v>
+      </c>
+      <c r="G197" s="8" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="198" customHeight="1" spans="2:7">
+      <c r="B198" s="6">
+        <v>195</v>
+      </c>
+      <c r="C198" s="7" t="s">
+        <v>711</v>
+      </c>
+      <c r="D198" s="7" t="s">
+        <v>712</v>
+      </c>
+      <c r="E198" s="7" t="s">
+        <v>713</v>
+      </c>
+      <c r="F198" s="7">
+        <v>1</v>
+      </c>
+      <c r="G198" s="8" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="199" customHeight="1" spans="2:7">
+      <c r="B199" s="6">
+        <v>196</v>
+      </c>
+      <c r="C199" s="7" t="s">
+        <v>715</v>
+      </c>
+      <c r="D199" s="7" t="s">
+        <v>716</v>
+      </c>
+      <c r="E199" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F199" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="G199" s="8" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="200" customHeight="1" spans="2:7">
+      <c r="B200" s="6">
+        <v>197</v>
+      </c>
+      <c r="C200" s="7" t="s">
+        <v>718</v>
+      </c>
+      <c r="D200" s="7" t="s">
+        <v>719</v>
+      </c>
+      <c r="E200" s="7" t="s">
+        <v>720</v>
+      </c>
+      <c r="F200" s="7">
+        <v>1</v>
+      </c>
+      <c r="G200" s="8" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="201" customHeight="1" spans="2:7">
+      <c r="B201" s="6">
+        <v>198</v>
+      </c>
+      <c r="C201" s="7" t="s">
+        <v>722</v>
+      </c>
+      <c r="D201" s="7" t="s">
+        <v>723</v>
+      </c>
+      <c r="E201" s="7" t="s">
+        <v>724</v>
+      </c>
+      <c r="F201" s="7">
+        <v>1</v>
+      </c>
+      <c r="G201" s="8" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="202" customHeight="1" spans="2:7">
+      <c r="B202" s="6">
+        <v>199</v>
+      </c>
+      <c r="C202" s="7" t="s">
+        <v>726</v>
+      </c>
+      <c r="D202" s="7" t="s">
+        <v>727</v>
+      </c>
+      <c r="E202" s="7" t="s">
+        <v>728</v>
+      </c>
+      <c r="F202" s="7">
+        <v>2</v>
+      </c>
+      <c r="G202" s="8" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="203" customHeight="1" spans="2:7">
+      <c r="B203" s="6">
+        <v>200</v>
+      </c>
+      <c r="C203" s="7" t="s">
+        <v>730</v>
+      </c>
+      <c r="D203" s="7" t="s">
+        <v>731</v>
+      </c>
+      <c r="E203" s="7" t="s">
+        <v>732</v>
+      </c>
+      <c r="F203" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="G203" s="8" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="204" customHeight="1" spans="2:7">
+      <c r="B204" s="6">
+        <v>201</v>
+      </c>
+      <c r="C204" s="7" t="s">
+        <v>734</v>
+      </c>
+      <c r="D204" s="7" t="s">
+        <v>735</v>
+      </c>
+      <c r="E204" s="7" t="s">
+        <v>736</v>
+      </c>
+      <c r="F204" s="7">
+        <v>1</v>
+      </c>
+      <c r="G204" s="8" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="205" customHeight="1" spans="2:7">
+      <c r="B205" s="6">
+        <v>202</v>
+      </c>
+      <c r="C205" s="7" t="s">
+        <v>738</v>
+      </c>
+      <c r="D205" s="7" t="s">
+        <v>739</v>
+      </c>
+      <c r="E205" s="7" t="s">
+        <v>740</v>
+      </c>
+      <c r="F205" s="7">
+        <v>2</v>
+      </c>
+      <c r="G205" s="8" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="206" customHeight="1" spans="2:7">
+      <c r="B206" s="6">
+        <v>203</v>
+      </c>
+      <c r="C206" s="7" t="s">
+        <v>742</v>
+      </c>
+      <c r="D206" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="E206" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F206" s="7">
+        <v>1</v>
+      </c>
+      <c r="G206" s="8" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="207" customHeight="1" spans="2:7">
+      <c r="B207" s="6">
+        <v>204</v>
+      </c>
+      <c r="C207" s="7" t="s">
+        <v>744</v>
+      </c>
+      <c r="D207" s="7" t="s">
+        <v>745</v>
+      </c>
+      <c r="E207" s="7" t="s">
+        <v>746</v>
+      </c>
+      <c r="F207" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="G207" s="8" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="208" customHeight="1" spans="2:7">
+      <c r="B208" s="6">
+        <v>205</v>
+      </c>
+      <c r="C208" s="7" t="s">
+        <v>748</v>
+      </c>
+      <c r="D208" s="7" t="s">
+        <v>749</v>
+      </c>
+      <c r="E208" s="7" t="s">
+        <v>596</v>
+      </c>
+      <c r="F208" s="7">
+        <v>2</v>
+      </c>
+      <c r="G208" s="8" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="209" customHeight="1" spans="2:7">
+      <c r="B209" s="6">
+        <v>206</v>
+      </c>
+      <c r="C209" s="7" t="s">
+        <v>751</v>
+      </c>
+      <c r="D209" s="7" t="s">
+        <v>752</v>
+      </c>
+      <c r="E209" s="7" t="s">
+        <v>753</v>
+      </c>
+      <c r="F209" s="7">
+        <v>1</v>
+      </c>
+      <c r="G209" s="8" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="210" customHeight="1" spans="2:7">
+      <c r="B210" s="6">
+        <v>207</v>
+      </c>
+      <c r="C210" s="7" t="s">
+        <v>755</v>
+      </c>
+      <c r="D210" s="7" t="s">
+        <v>756</v>
+      </c>
+      <c r="E210" s="7" t="s">
+        <v>757</v>
+      </c>
+      <c r="F210" s="7">
+        <v>1</v>
+      </c>
+      <c r="G210" s="8" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="211" customHeight="1" spans="2:7">
+      <c r="B211" s="6">
+        <v>208</v>
+      </c>
+      <c r="C211" s="7" t="s">
+        <v>759</v>
+      </c>
+      <c r="D211" s="7" t="s">
+        <v>760</v>
+      </c>
+      <c r="E211" s="7" t="s">
+        <v>761</v>
+      </c>
+      <c r="F211" s="7">
+        <v>1</v>
+      </c>
+      <c r="G211" s="8" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="212" customHeight="1" spans="2:7">
+      <c r="B212" s="6">
+        <v>209</v>
+      </c>
+      <c r="C212" s="7" t="s">
+        <v>763</v>
+      </c>
+      <c r="D212" s="7" t="s">
+        <v>764</v>
+      </c>
+      <c r="E212" s="7" t="s">
+        <v>765</v>
+      </c>
+      <c r="F212" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="G212" s="8" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="213" customHeight="1" spans="2:7">
+      <c r="B213" s="6">
+        <v>210</v>
+      </c>
+      <c r="C213" s="7" t="s">
+        <v>767</v>
+      </c>
+      <c r="D213" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="E213" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="F213" s="7">
+        <v>1</v>
+      </c>
+      <c r="G213" s="8" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="214" customHeight="1" spans="2:7">
+      <c r="B214" s="6">
+        <v>211</v>
+      </c>
+      <c r="C214" s="7" t="s">
+        <v>769</v>
+      </c>
+      <c r="D214" s="7" t="s">
+        <v>770</v>
+      </c>
+      <c r="E214" s="7" t="s">
+        <v>771</v>
+      </c>
+      <c r="F214" s="7">
+        <v>1</v>
+      </c>
+      <c r="G214" s="8" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="215" customHeight="1" spans="2:7">
+      <c r="B215" s="6">
+        <v>212</v>
+      </c>
+      <c r="C215" s="7" t="s">
+        <v>773</v>
+      </c>
+      <c r="D215" s="7" t="s">
+        <v>774</v>
+      </c>
+      <c r="E215" s="7" t="s">
+        <v>775</v>
+      </c>
+      <c r="F215" s="7">
+        <v>1</v>
+      </c>
+      <c r="G215" s="8" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="216" customHeight="1" spans="2:7">
+      <c r="B216" s="6">
+        <v>213</v>
+      </c>
+      <c r="C216" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="D216" s="7" t="s">
+        <v>777</v>
+      </c>
+      <c r="E216" s="7" t="s">
+        <v>778</v>
+      </c>
+      <c r="F216" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="G216" s="8" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="217" customHeight="1" spans="2:7">
+      <c r="B217" s="6">
+        <v>214</v>
+      </c>
+      <c r="C217" s="7" t="s">
+        <v>780</v>
+      </c>
+      <c r="D217" s="7" t="s">
+        <v>781</v>
+      </c>
+      <c r="E217" s="7" t="s">
+        <v>782</v>
+      </c>
+      <c r="F217" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="G217" s="8" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="218" customHeight="1" spans="2:7">
+      <c r="B218" s="6">
+        <v>215</v>
+      </c>
+      <c r="C218" s="7" t="s">
+        <v>784</v>
+      </c>
+      <c r="D218" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="E218" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="F218" s="7">
+        <v>1</v>
+      </c>
+      <c r="G218" s="8" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="219" customHeight="1" spans="2:7">
+      <c r="B219" s="6">
+        <v>216</v>
+      </c>
+      <c r="C219" s="7" t="s">
+        <v>786</v>
+      </c>
+      <c r="D219" s="7" t="s">
+        <v>787</v>
+      </c>
+      <c r="E219" s="7" t="s">
+        <v>788</v>
+      </c>
+      <c r="F219" s="7">
+        <v>2</v>
+      </c>
+      <c r="G219" s="8" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="220" customHeight="1" spans="2:7">
+      <c r="B220" s="6">
+        <v>217</v>
+      </c>
+      <c r="C220" s="7" t="s">
+        <v>790</v>
+      </c>
+      <c r="D220" s="7" t="s">
+        <v>791</v>
+      </c>
+      <c r="E220" s="7" t="s">
+        <v>792</v>
+      </c>
+      <c r="F220" s="7">
+        <v>1</v>
+      </c>
+      <c r="G220" s="8" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="221" customHeight="1" spans="2:7">
+      <c r="B221" s="6">
+        <v>218</v>
+      </c>
+      <c r="C221" s="7" t="s">
+        <v>794</v>
+      </c>
+      <c r="D221" s="7" t="s">
+        <v>795</v>
+      </c>
+      <c r="E221" s="7" t="s">
+        <v>796</v>
+      </c>
+      <c r="F221" s="7">
+        <v>1</v>
+      </c>
+      <c r="G221" s="8" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="222" customHeight="1" spans="2:7">
+      <c r="B222" s="6">
+        <v>219</v>
+      </c>
+      <c r="C222" s="7" t="s">
+        <v>798</v>
+      </c>
+      <c r="D222" s="7" t="s">
+        <v>799</v>
+      </c>
+      <c r="E222" s="7" t="s">
+        <v>800</v>
+      </c>
+      <c r="F222" s="7">
+        <v>1</v>
+      </c>
+      <c r="G222" s="8" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="223" customHeight="1" spans="2:7">
+      <c r="B223" s="6">
+        <v>220</v>
+      </c>
+      <c r="C223" s="7" t="s">
+        <v>802</v>
+      </c>
+      <c r="D223" s="7" t="s">
+        <v>803</v>
+      </c>
+      <c r="E223" s="7" t="s">
+        <v>804</v>
+      </c>
+      <c r="F223" s="7">
+        <v>1</v>
+      </c>
+      <c r="G223" s="8" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="224" customHeight="1" spans="2:7">
+      <c r="B224" s="6">
+        <v>221</v>
+      </c>
+      <c r="C224" s="7" t="s">
+        <v>806</v>
+      </c>
+      <c r="D224" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="E224" s="7" t="s">
+        <v>807</v>
+      </c>
+      <c r="F224" s="7">
+        <v>1</v>
+      </c>
+      <c r="G224" s="8" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="225" customHeight="1" spans="2:7">
+      <c r="B225" s="6">
+        <v>222</v>
+      </c>
+      <c r="C225" s="7" t="s">
+        <v>809</v>
+      </c>
+      <c r="D225" s="7" t="s">
+        <v>810</v>
+      </c>
+      <c r="E225" s="7" t="s">
+        <v>811</v>
+      </c>
+      <c r="F225" s="7">
+        <v>1</v>
+      </c>
+      <c r="G225" s="8" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="226" customHeight="1" spans="2:7">
+      <c r="B226" s="6">
+        <v>223</v>
+      </c>
+      <c r="C226" s="7" t="s">
+        <v>813</v>
+      </c>
+      <c r="D226" s="7" t="s">
+        <v>814</v>
+      </c>
+      <c r="E226" s="7" t="s">
+        <v>815</v>
+      </c>
+      <c r="F226" s="7">
+        <v>2</v>
+      </c>
+      <c r="G226" s="8" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="227" customHeight="1" spans="2:7">
+      <c r="B227" s="6">
+        <v>224</v>
+      </c>
+      <c r="C227" s="7" t="s">
+        <v>817</v>
+      </c>
+      <c r="D227" s="7" t="s">
+        <v>818</v>
+      </c>
+      <c r="E227" s="7" t="s">
+        <v>819</v>
+      </c>
+      <c r="F227" s="7">
+        <v>2</v>
+      </c>
+      <c r="G227" s="8" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="228" customHeight="1" spans="2:7">
+      <c r="B228" s="12">
+        <v>225</v>
+      </c>
+      <c r="C228" s="7" t="s">
+        <v>821</v>
+      </c>
+      <c r="D228" s="7" t="s">
+        <v>822</v>
+      </c>
+      <c r="E228" s="7" t="s">
+        <v>823</v>
+      </c>
+      <c r="F228" s="7">
+        <v>2</v>
+      </c>
+      <c r="G228" s="8" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="229" customHeight="1" spans="2:7">
+      <c r="B229" s="6">
+        <v>226</v>
+      </c>
+      <c r="C229" s="7" t="s">
+        <v>825</v>
+      </c>
+      <c r="D229" s="7" t="s">
+        <v>826</v>
+      </c>
+      <c r="E229" s="7" t="s">
+        <v>771</v>
+      </c>
+      <c r="F229" s="7">
+        <v>2</v>
+      </c>
+      <c r="G229" s="8" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="230" customHeight="1" spans="2:7">
+      <c r="B230" s="6">
+        <v>227</v>
+      </c>
+      <c r="C230" s="7" t="s">
+        <v>828</v>
+      </c>
+      <c r="D230" s="7" t="s">
+        <v>829</v>
+      </c>
+      <c r="E230" s="7" t="s">
+        <v>830</v>
+      </c>
+      <c r="F230" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="G230" s="8" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="231" customHeight="1" spans="2:7">
+      <c r="B231" s="6">
+        <v>228</v>
+      </c>
+      <c r="C231" s="7" t="s">
+        <v>832</v>
+      </c>
+      <c r="D231" s="7" t="s">
+        <v>833</v>
+      </c>
+      <c r="E231" s="7" t="s">
+        <v>834</v>
+      </c>
+      <c r="F231" s="7">
+        <v>1</v>
+      </c>
+      <c r="G231" s="8" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="232" customHeight="1" spans="2:7">
+      <c r="B232" s="6">
+        <v>229</v>
+      </c>
+      <c r="C232" s="7" t="s">
+        <v>836</v>
+      </c>
+      <c r="D232" s="7" t="s">
+        <v>837</v>
+      </c>
+      <c r="E232" s="7" t="s">
+        <v>838</v>
+      </c>
+      <c r="F232" s="7">
+        <v>1</v>
+      </c>
+      <c r="G232" s="8" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="233" customHeight="1" spans="2:7">
+      <c r="B233" s="6">
+        <v>230</v>
+      </c>
+      <c r="C233" s="7" t="s">
+        <v>840</v>
+      </c>
+      <c r="D233" s="7" t="s">
+        <v>841</v>
+      </c>
+      <c r="E233" s="7" t="s">
+        <v>842</v>
+      </c>
+      <c r="F233" s="7">
+        <v>1</v>
+      </c>
+      <c r="G233" s="8" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="234" customHeight="1" spans="2:7">
+      <c r="B234" s="6">
+        <v>231</v>
+      </c>
+      <c r="C234" s="7" t="s">
+        <v>844</v>
+      </c>
+      <c r="D234" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="E234" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="F234" s="7">
+        <v>2</v>
+      </c>
+      <c r="G234" s="8" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="235" customHeight="1" spans="2:7">
+      <c r="B235" s="6">
+        <v>232</v>
+      </c>
+      <c r="C235" s="7" t="s">
+        <v>846</v>
+      </c>
+      <c r="D235" s="7" t="s">
+        <v>847</v>
+      </c>
+      <c r="E235" s="7" t="s">
+        <v>848</v>
+      </c>
+      <c r="F235" s="7">
+        <v>2</v>
+      </c>
+      <c r="G235" s="8" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="236" customHeight="1" spans="2:7">
+      <c r="B236" s="6">
+        <v>233</v>
+      </c>
+      <c r="C236" s="7" t="s">
+        <v>850</v>
+      </c>
+      <c r="D236" s="7" t="s">
+        <v>851</v>
+      </c>
+      <c r="E236" s="7" t="s">
+        <v>852</v>
+      </c>
+      <c r="F236" s="7">
+        <v>1</v>
+      </c>
+      <c r="G236" s="8" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="237" customHeight="1" spans="2:7">
+      <c r="B237" s="6">
+        <v>234</v>
+      </c>
+      <c r="C237" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="D237" s="7" t="s">
+        <v>854</v>
+      </c>
+      <c r="E237" s="7" t="s">
+        <v>855</v>
+      </c>
+      <c r="F237" s="7">
+        <v>2</v>
+      </c>
+      <c r="G237" s="8" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="238" customHeight="1" spans="2:7">
+      <c r="B238" s="6">
+        <v>235</v>
+      </c>
+      <c r="C238" s="7" t="s">
+        <v>857</v>
+      </c>
+      <c r="D238" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="E238" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="F238" s="7">
+        <v>1</v>
+      </c>
+      <c r="G238" s="8" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="239" customHeight="1" spans="2:7">
+      <c r="B239" s="6">
+        <v>236</v>
+      </c>
+      <c r="C239" s="7" t="s">
+        <v>859</v>
+      </c>
+      <c r="D239" s="7" t="s">
+        <v>860</v>
+      </c>
+      <c r="E239" s="7" t="s">
+        <v>861</v>
+      </c>
+      <c r="F239" s="7">
+        <v>2</v>
+      </c>
+      <c r="G239" s="8" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="240" customHeight="1" spans="2:7">
+      <c r="B240" s="6">
+        <v>237</v>
+      </c>
+      <c r="C240" s="7" t="s">
+        <v>863</v>
+      </c>
+      <c r="D240" s="7" t="s">
+        <v>864</v>
+      </c>
+      <c r="E240" s="7" t="s">
+        <v>865</v>
+      </c>
+      <c r="F240" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="G240" s="8" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="241" customHeight="1" spans="2:7">
+      <c r="B241" s="6">
+        <v>238</v>
+      </c>
+      <c r="C241" s="7" t="s">
+        <v>867</v>
+      </c>
+      <c r="D241" s="7" t="s">
+        <v>868</v>
+      </c>
+      <c r="E241" s="7" t="s">
+        <v>869</v>
+      </c>
+      <c r="F241" s="7">
+        <v>2</v>
+      </c>
+      <c r="G241" s="8" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="242" customHeight="1" spans="2:7">
+      <c r="B242" s="6">
+        <v>239</v>
+      </c>
+      <c r="C242" s="7" t="s">
+        <v>871</v>
+      </c>
+      <c r="D242" s="7" t="s">
+        <v>872</v>
+      </c>
+      <c r="E242" s="7" t="s">
+        <v>873</v>
+      </c>
+      <c r="F242" s="7">
+        <v>2</v>
+      </c>
+      <c r="G242" s="8" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="243" customHeight="1" spans="2:7">
+      <c r="B243" s="6">
+        <v>240</v>
+      </c>
+      <c r="C243" s="7" t="s">
+        <v>875</v>
+      </c>
+      <c r="D243" s="7" t="s">
+        <v>876</v>
+      </c>
+      <c r="E243" s="7" t="s">
+        <v>877</v>
+      </c>
+      <c r="F243" s="7">
+        <v>2</v>
+      </c>
+      <c r="G243" s="8" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="244" customHeight="1" spans="2:7">
+      <c r="B244" s="6">
+        <v>241</v>
+      </c>
+      <c r="C244" s="7" t="s">
+        <v>879</v>
+      </c>
+      <c r="D244" s="7" t="s">
+        <v>880</v>
+      </c>
+      <c r="E244" s="7" t="s">
+        <v>881</v>
+      </c>
+      <c r="F244" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="G244" s="8" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="245" customHeight="1" spans="2:7">
+      <c r="B245" s="6">
+        <v>242</v>
+      </c>
+      <c r="C245" s="7" t="s">
+        <v>883</v>
+      </c>
+      <c r="D245" s="7" t="s">
+        <v>884</v>
+      </c>
+      <c r="E245" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F245" s="7">
+        <v>2</v>
+      </c>
+      <c r="G245" s="8" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="246" customHeight="1" spans="2:7">
+      <c r="B246" s="6">
+        <v>243</v>
+      </c>
+      <c r="C246" s="7" t="s">
+        <v>886</v>
+      </c>
+      <c r="D246" s="7" t="s">
+        <v>887</v>
+      </c>
+      <c r="E246" s="7" t="s">
+        <v>888</v>
+      </c>
+      <c r="F246" s="7">
+        <v>1</v>
+      </c>
+      <c r="G246" s="8" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="247" customHeight="1" spans="2:7">
+      <c r="B247" s="6">
+        <v>244</v>
+      </c>
+      <c r="C247" s="7" t="s">
+        <v>890</v>
+      </c>
+      <c r="D247" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="E247" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F247" s="7">
+        <v>1</v>
+      </c>
+      <c r="G247" s="8" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="248" customHeight="1" spans="2:7">
+      <c r="B248" s="6">
+        <v>245</v>
+      </c>
+      <c r="C248" s="7" t="s">
+        <v>892</v>
+      </c>
+      <c r="D248" s="7" t="s">
+        <v>893</v>
+      </c>
+      <c r="E248" s="13" t="s">
+        <v>894</v>
+      </c>
+      <c r="F248" s="7">
+        <v>2</v>
+      </c>
+      <c r="G248" s="8" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="249" customHeight="1" spans="2:7">
+      <c r="B249" s="6">
+        <v>246</v>
+      </c>
+      <c r="C249" s="7" t="s">
+        <v>896</v>
+      </c>
+      <c r="D249" s="7" t="s">
+        <v>897</v>
+      </c>
+      <c r="E249" s="7" t="s">
+        <v>898</v>
+      </c>
+      <c r="F249" s="7">
+        <v>2</v>
+      </c>
+      <c r="G249" s="8" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="250" customHeight="1" spans="2:7">
+      <c r="B250" s="6">
+        <v>247</v>
+      </c>
+      <c r="C250" s="7" t="s">
+        <v>900</v>
+      </c>
+      <c r="D250" s="7" t="s">
+        <v>901</v>
+      </c>
+      <c r="E250" s="7" t="s">
+        <v>902</v>
+      </c>
+      <c r="F250" s="7">
+        <v>1</v>
+      </c>
+      <c r="G250" s="8" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="251" customHeight="1" spans="2:7">
+      <c r="B251" s="6">
+        <v>248</v>
+      </c>
+      <c r="C251" s="7" t="s">
+        <v>904</v>
+      </c>
+      <c r="D251" s="7" t="s">
+        <v>905</v>
+      </c>
+      <c r="E251" s="7" t="s">
+        <v>906</v>
+      </c>
+      <c r="F251" s="7">
+        <v>2</v>
+      </c>
+      <c r="G251" s="8" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="252" customHeight="1" spans="2:7">
+      <c r="B252" s="6">
+        <v>249</v>
+      </c>
+      <c r="C252" s="7" t="s">
+        <v>908</v>
+      </c>
+      <c r="D252" s="7" t="s">
+        <v>909</v>
+      </c>
+      <c r="E252" s="7" t="s">
+        <v>910</v>
+      </c>
+      <c r="F252" s="7">
+        <v>2</v>
+      </c>
+      <c r="G252" s="8" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="253" customHeight="1" spans="2:7">
+      <c r="B253" s="6">
+        <v>250</v>
+      </c>
+      <c r="C253" s="7" t="s">
+        <v>912</v>
+      </c>
+      <c r="D253" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="E253" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="F253" s="7">
+        <v>2</v>
+      </c>
+      <c r="G253" s="8" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="254" customHeight="1" spans="2:7">
+      <c r="B254" s="6">
+        <v>251</v>
+      </c>
+      <c r="C254" s="7" t="s">
+        <v>914</v>
+      </c>
+      <c r="D254" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="E254" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="F254" s="7">
+        <v>2</v>
+      </c>
+      <c r="G254" s="8" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="255" customHeight="1" spans="2:7">
+      <c r="B255" s="6">
+        <v>252</v>
+      </c>
+      <c r="C255" s="7" t="s">
+        <v>916</v>
+      </c>
+      <c r="D255" s="7" t="s">
+        <v>917</v>
+      </c>
+      <c r="E255" s="7" t="s">
+        <v>918</v>
+      </c>
+      <c r="F255" s="7">
+        <v>2</v>
+      </c>
+      <c r="G255" s="8" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="256" customHeight="1" spans="2:7">
+      <c r="B256" s="6">
+        <v>253</v>
+      </c>
+      <c r="C256" s="7" t="s">
+        <v>920</v>
+      </c>
+      <c r="D256" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="E256" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="F256" s="7">
+        <v>1</v>
+      </c>
+      <c r="G256" s="8" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="257" customHeight="1" spans="2:7">
+      <c r="B257" s="6">
+        <v>254</v>
+      </c>
+      <c r="C257" s="7" t="s">
+        <v>922</v>
+      </c>
+      <c r="D257" s="7">
+        <v>10</v>
+      </c>
+      <c r="E257" s="7">
+        <v>15</v>
+      </c>
+      <c r="F257" s="7">
+        <v>2</v>
+      </c>
+      <c r="G257" s="8" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="258" customHeight="1" spans="2:7">
+      <c r="B258" s="6">
+        <v>255</v>
+      </c>
+      <c r="C258" s="7" t="s">
+        <v>924</v>
+      </c>
+      <c r="D258" s="7" t="s">
+        <v>925</v>
+      </c>
+      <c r="E258" s="7" t="s">
+        <v>926</v>
+      </c>
+      <c r="F258" s="7">
+        <v>1</v>
+      </c>
+      <c r="G258" s="8" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="259" customHeight="1" spans="2:7">
+      <c r="B259" s="6">
+        <v>256</v>
+      </c>
+      <c r="C259" s="7" t="s">
+        <v>928</v>
+      </c>
+      <c r="D259" s="7" t="s">
+        <v>909</v>
+      </c>
+      <c r="E259" s="7" t="s">
+        <v>929</v>
+      </c>
+      <c r="F259" s="7">
+        <v>2</v>
+      </c>
+      <c r="G259" s="8" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="260" customHeight="1" spans="2:7">
+      <c r="B260" s="6">
+        <v>257</v>
+      </c>
+      <c r="C260" s="7" t="s">
+        <v>931</v>
+      </c>
+      <c r="D260" s="7" t="s">
+        <v>932</v>
+      </c>
+      <c r="E260" s="7" t="s">
+        <v>933</v>
+      </c>
+      <c r="F260" s="7">
+        <v>1</v>
+      </c>
+      <c r="G260" s="8" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="261" customHeight="1" spans="2:7">
+      <c r="B261" s="6">
+        <v>258</v>
+      </c>
+      <c r="C261" s="7" t="s">
+        <v>935</v>
+      </c>
+      <c r="D261" s="7" t="s">
+        <v>936</v>
+      </c>
+      <c r="E261" s="7" t="s">
+        <v>937</v>
+      </c>
+      <c r="F261" s="7">
+        <v>1</v>
+      </c>
+      <c r="G261" s="8" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="262" customHeight="1" spans="2:7">
+      <c r="B262" s="6">
+        <v>259</v>
+      </c>
+      <c r="C262" s="7" t="s">
+        <v>939</v>
+      </c>
+      <c r="D262" s="7" t="s">
+        <v>940</v>
+      </c>
+      <c r="E262" s="7" t="s">
+        <v>941</v>
+      </c>
+      <c r="F262" s="7">
+        <v>1</v>
+      </c>
+      <c r="G262" s="8" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="263" customHeight="1" spans="2:7">
+      <c r="B263" s="6">
+        <v>260</v>
+      </c>
+      <c r="C263" s="7" t="s">
+        <v>943</v>
+      </c>
+      <c r="D263" s="7" t="s">
+        <v>944</v>
+      </c>
+      <c r="E263" s="7" t="s">
+        <v>945</v>
+      </c>
+      <c r="F263" s="7">
+        <v>1</v>
+      </c>
+      <c r="G263" s="8" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="264" customHeight="1" spans="2:7">
+      <c r="B264" s="6">
+        <v>261</v>
+      </c>
+      <c r="C264" s="7" t="s">
+        <v>947</v>
+      </c>
+      <c r="D264" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="E264" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="F264" s="7">
+        <v>1</v>
+      </c>
+      <c r="G264" s="8" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="265" customHeight="1" spans="2:7">
+      <c r="B265" s="6">
+        <v>262</v>
+      </c>
+      <c r="C265" s="7" t="s">
+        <v>949</v>
+      </c>
+      <c r="D265" s="7" t="s">
+        <v>950</v>
+      </c>
+      <c r="E265" s="7" t="s">
+        <v>951</v>
+      </c>
+      <c r="F265" s="7">
+        <v>1</v>
+      </c>
+      <c r="G265" s="8" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="266" customHeight="1" spans="2:7">
+      <c r="B266" s="6">
+        <v>263</v>
+      </c>
+      <c r="C266" s="7" t="s">
+        <v>953</v>
+      </c>
+      <c r="D266" s="7" t="s">
+        <v>954</v>
+      </c>
+      <c r="E266" s="7" t="s">
+        <v>955</v>
+      </c>
+      <c r="F266" s="7">
+        <v>2</v>
+      </c>
+      <c r="G266" s="8" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="267" customHeight="1" spans="2:7">
+      <c r="B267" s="6">
+        <v>264</v>
+      </c>
+      <c r="C267" s="7" t="s">
+        <v>957</v>
+      </c>
+      <c r="D267" s="7" t="s">
+        <v>958</v>
+      </c>
+      <c r="E267" s="7" t="s">
+        <v>959</v>
+      </c>
+      <c r="F267" s="7">
+        <v>1</v>
+      </c>
+      <c r="G267" s="8" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="268" customHeight="1" spans="2:7">
+      <c r="B268" s="6">
+        <v>265</v>
+      </c>
+      <c r="C268" s="7" t="s">
+        <v>961</v>
+      </c>
+      <c r="D268" s="7" t="s">
+        <v>962</v>
+      </c>
+      <c r="E268" s="7" t="s">
+        <v>963</v>
+      </c>
+      <c r="F268" s="7">
+        <v>1</v>
+      </c>
+      <c r="G268" s="8" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="269" customHeight="1" spans="2:7">
+      <c r="B269" s="6">
+        <v>266</v>
+      </c>
+      <c r="C269" s="7" t="s">
+        <v>965</v>
+      </c>
+      <c r="D269" s="7" t="s">
+        <v>966</v>
+      </c>
+      <c r="E269" s="7" t="s">
+        <v>967</v>
+      </c>
+      <c r="F269" s="7">
+        <v>1</v>
+      </c>
+      <c r="G269" s="8" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="270" customHeight="1" spans="2:7">
+      <c r="B270" s="6">
+        <v>267</v>
+      </c>
+      <c r="C270" s="7" t="s">
+        <v>969</v>
+      </c>
+      <c r="D270" s="7" t="s">
+        <v>970</v>
+      </c>
+      <c r="E270" s="7" t="s">
+        <v>971</v>
+      </c>
+      <c r="F270" s="7">
+        <v>1</v>
+      </c>
+      <c r="G270" s="8" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="271" customHeight="1" spans="2:7">
+      <c r="B271" s="6">
+        <v>268</v>
+      </c>
+      <c r="C271" s="7" t="s">
+        <v>973</v>
+      </c>
+      <c r="D271" s="7" t="s">
+        <v>974</v>
+      </c>
+      <c r="E271" s="7" t="s">
+        <v>975</v>
+      </c>
+      <c r="F271" s="7">
+        <v>1</v>
+      </c>
+      <c r="G271" s="8" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="272" customHeight="1" spans="2:7">
+      <c r="B272" s="6">
+        <v>269</v>
+      </c>
+      <c r="C272" s="7" t="s">
+        <v>977</v>
+      </c>
+      <c r="D272" s="7" t="s">
+        <v>978</v>
+      </c>
+      <c r="E272" s="7" t="s">
+        <v>979</v>
+      </c>
+      <c r="F272" s="7">
+        <v>1</v>
+      </c>
+      <c r="G272" s="8" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="273" customHeight="1" spans="2:7">
+      <c r="B273" s="6">
+        <v>270</v>
+      </c>
+      <c r="C273" s="7" t="s">
+        <v>981</v>
+      </c>
+      <c r="D273" s="7" t="s">
+        <v>597</v>
+      </c>
+      <c r="E273" s="7" t="s">
+        <v>596</v>
+      </c>
+      <c r="F273" s="7">
+        <v>2</v>
+      </c>
+      <c r="G273" s="8" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="274" customHeight="1" spans="2:7">
+      <c r="B274" s="6">
+        <v>271</v>
+      </c>
+      <c r="C274" s="7" t="s">
+        <v>983</v>
+      </c>
+      <c r="D274" s="7" t="s">
+        <v>984</v>
+      </c>
+      <c r="E274" s="7" t="s">
+        <v>985</v>
+      </c>
+      <c r="F274" s="7">
+        <v>1</v>
+      </c>
+      <c r="G274" s="8" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="275" customHeight="1" spans="2:7">
+      <c r="B275" s="6">
+        <v>272</v>
+      </c>
+      <c r="C275" s="7" t="s">
+        <v>987</v>
+      </c>
+      <c r="D275" s="7" t="s">
+        <v>988</v>
+      </c>
+      <c r="E275" s="7" t="s">
+        <v>989</v>
+      </c>
+      <c r="F275" s="7">
+        <v>1</v>
+      </c>
+      <c r="G275" s="8" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="276" customHeight="1" spans="2:7">
+      <c r="B276" s="6">
+        <v>273</v>
+      </c>
+      <c r="C276" s="7" t="s">
+        <v>991</v>
+      </c>
+      <c r="D276" s="7" t="s">
+        <v>992</v>
+      </c>
+      <c r="E276" s="7" t="s">
+        <v>993</v>
+      </c>
+      <c r="F276" s="7">
+        <v>1</v>
+      </c>
+      <c r="G276" s="8" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="277" customHeight="1" spans="2:7">
+      <c r="B277" s="6">
+        <v>274</v>
+      </c>
+      <c r="C277" s="7" t="s">
+        <v>995</v>
+      </c>
+      <c r="D277" s="7" t="s">
+        <v>989</v>
+      </c>
+      <c r="E277" s="7" t="s">
+        <v>996</v>
+      </c>
+      <c r="F277" s="7">
+        <v>2</v>
+      </c>
+      <c r="G277" s="8" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="278" customHeight="1" spans="2:7">
+      <c r="B278" s="6">
+        <v>275</v>
+      </c>
+      <c r="C278" s="7" t="s">
+        <v>998</v>
+      </c>
+      <c r="D278" s="7" t="s">
+        <v>597</v>
+      </c>
+      <c r="E278" s="7" t="s">
+        <v>596</v>
+      </c>
+      <c r="F278" s="7">
+        <v>1</v>
+      </c>
+      <c r="G278" s="8" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="279" customHeight="1" spans="2:7">
+      <c r="B279" s="6">
+        <v>276</v>
+      </c>
+      <c r="C279" s="7" t="s">
+        <v>1000</v>
+      </c>
+      <c r="D279" s="7" t="s">
+        <v>1001</v>
+      </c>
+      <c r="E279" s="7" t="s">
+        <v>1002</v>
+      </c>
+      <c r="F279" s="7">
+        <v>2</v>
+      </c>
+      <c r="G279" s="8" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="280" customHeight="1" spans="2:7">
+      <c r="B280" s="6">
+        <v>277</v>
+      </c>
+      <c r="C280" s="7" t="s">
+        <v>1004</v>
+      </c>
+      <c r="D280" s="7" t="s">
+        <v>1005</v>
+      </c>
+      <c r="E280" s="7" t="s">
+        <v>1006</v>
+      </c>
+      <c r="F280" s="7">
+        <v>2</v>
+      </c>
+      <c r="G280" s="8" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="281" customHeight="1" spans="2:7">
+      <c r="B281" s="6">
+        <v>278</v>
+      </c>
+      <c r="C281" s="7" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D281" s="7" t="s">
+        <v>1009</v>
+      </c>
+      <c r="E281" s="7" t="s">
+        <v>1010</v>
+      </c>
+      <c r="F281" s="7">
+        <v>1</v>
+      </c>
+      <c r="G281" s="8" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="282" customHeight="1" spans="2:7">
+      <c r="B282" s="6">
+        <v>279</v>
+      </c>
+      <c r="C282" s="7" t="s">
+        <v>1012</v>
+      </c>
+      <c r="D282" s="7" t="s">
+        <v>1013</v>
+      </c>
+      <c r="E282" s="7" t="s">
+        <v>1014</v>
+      </c>
+      <c r="F282" s="7">
+        <v>2</v>
+      </c>
+      <c r="G282" s="8" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="283" customHeight="1" spans="2:7">
+      <c r="B283" s="6">
+        <v>280</v>
+      </c>
+      <c r="C283" s="7" t="s">
+        <v>1016</v>
+      </c>
+      <c r="D283" s="7" t="s">
+        <v>1017</v>
+      </c>
+      <c r="E283" s="7" t="s">
+        <v>1018</v>
+      </c>
+      <c r="F283" s="7">
+        <v>1</v>
+      </c>
+      <c r="G283" s="8" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="284" customHeight="1" spans="2:7">
+      <c r="B284" s="6">
+        <v>281</v>
+      </c>
+      <c r="C284" s="7" t="s">
+        <v>1020</v>
+      </c>
+      <c r="D284" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="E284" s="7" t="s">
+        <v>1021</v>
+      </c>
+      <c r="F284" s="7">
+        <v>2</v>
+      </c>
+      <c r="G284" s="8" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="285" customHeight="1" spans="2:7">
+      <c r="B285" s="6">
+        <v>282</v>
+      </c>
+      <c r="C285" s="7" t="s">
+        <v>1023</v>
+      </c>
+      <c r="D285" s="7">
+        <v>3</v>
+      </c>
+      <c r="E285" s="7">
+        <v>4</v>
+      </c>
+      <c r="F285" s="7">
+        <v>2</v>
+      </c>
+      <c r="G285" s="8" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="286" customHeight="1" spans="2:7">
+      <c r="B286" s="6">
+        <v>283</v>
+      </c>
+      <c r="C286" s="7" t="s">
+        <v>1025</v>
+      </c>
+      <c r="D286" s="7" t="s">
+        <v>1026</v>
+      </c>
+      <c r="E286" s="7" t="s">
+        <v>1027</v>
+      </c>
+      <c r="F286" s="7">
+        <v>2</v>
+      </c>
+      <c r="G286" s="8" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="287" customHeight="1" spans="2:7">
+      <c r="B287" s="6">
+        <v>284</v>
+      </c>
+      <c r="C287" s="7" t="s">
+        <v>1029</v>
+      </c>
+      <c r="D287" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="E287" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F287" s="7">
+        <v>1</v>
+      </c>
+      <c r="G287" s="8" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="288" customHeight="1" spans="2:7">
+      <c r="B288" s="6">
+        <v>285</v>
+      </c>
+      <c r="C288" s="7" t="s">
+        <v>1031</v>
+      </c>
+      <c r="D288" s="7" t="s">
+        <v>1032</v>
+      </c>
+      <c r="E288" s="7" t="s">
+        <v>1033</v>
+      </c>
+      <c r="F288" s="7">
+        <v>1</v>
+      </c>
+      <c r="G288" s="8" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="289" customHeight="1" spans="2:7">
+      <c r="B289" s="6">
+        <v>286</v>
+      </c>
+      <c r="C289" s="7" t="s">
+        <v>1035</v>
+      </c>
+      <c r="D289" s="7" t="s">
+        <v>1036</v>
+      </c>
+      <c r="E289" s="7" t="s">
+        <v>1037</v>
+      </c>
+      <c r="F289" s="7">
+        <v>2</v>
+      </c>
+      <c r="G289" s="8" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="290" customHeight="1" spans="2:7">
+      <c r="B290" s="6">
+        <v>287</v>
+      </c>
+      <c r="C290" s="7" t="s">
+        <v>1039</v>
+      </c>
+      <c r="D290" s="7" t="s">
+        <v>906</v>
+      </c>
+      <c r="E290" s="7" t="s">
+        <v>905</v>
+      </c>
+      <c r="F290" s="7">
+        <v>2</v>
+      </c>
+      <c r="G290" s="8" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="291" customHeight="1" spans="2:7">
+      <c r="B291" s="6">
+        <v>288</v>
+      </c>
+      <c r="C291" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="D291" s="7" t="s">
+        <v>1041</v>
+      </c>
+      <c r="E291" s="7" t="s">
+        <v>1042</v>
+      </c>
+      <c r="F291" s="7">
+        <v>2</v>
+      </c>
+      <c r="G291" s="8" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="292" customHeight="1" spans="2:7">
+      <c r="B292" s="6">
+        <v>289</v>
+      </c>
+      <c r="C292" s="7" t="s">
+        <v>1044</v>
+      </c>
+      <c r="D292" s="7" t="s">
+        <v>1045</v>
+      </c>
+      <c r="E292" s="7" t="s">
+        <v>1046</v>
+      </c>
+      <c r="F292" s="7">
+        <v>1</v>
+      </c>
+      <c r="G292" s="8" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="293" customHeight="1" spans="2:7">
+      <c r="B293" s="6">
+        <v>290</v>
+      </c>
+      <c r="C293" s="7" t="s">
+        <v>1048</v>
+      </c>
+      <c r="D293" s="7" t="s">
+        <v>1049</v>
+      </c>
+      <c r="E293" s="7" t="s">
+        <v>1050</v>
+      </c>
+      <c r="F293" s="7">
+        <v>1</v>
+      </c>
+      <c r="G293" s="8" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="294" customHeight="1" spans="2:7">
+      <c r="B294" s="6">
+        <v>291</v>
+      </c>
+      <c r="C294" s="7" t="s">
+        <v>1052</v>
+      </c>
+      <c r="D294" s="7" t="s">
+        <v>1053</v>
+      </c>
+      <c r="E294" s="7" t="s">
+        <v>1054</v>
+      </c>
+      <c r="F294" s="7">
+        <v>1</v>
+      </c>
+      <c r="G294" s="8" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="295" customHeight="1" spans="2:7">
+      <c r="B295" s="6">
+        <v>292</v>
+      </c>
+      <c r="C295" s="7" t="s">
+        <v>1056</v>
+      </c>
+      <c r="D295" s="7" t="s">
+        <v>1057</v>
+      </c>
+      <c r="E295" s="7" t="s">
+        <v>1058</v>
+      </c>
+      <c r="F295" s="7">
+        <v>1</v>
+      </c>
+      <c r="G295" s="8" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="296" customHeight="1" spans="2:7">
+      <c r="B296" s="6">
+        <v>293</v>
+      </c>
+      <c r="C296" s="7" t="s">
+        <v>1060</v>
+      </c>
+      <c r="D296" s="7" t="s">
+        <v>548</v>
+      </c>
+      <c r="E296" s="7" t="s">
+        <v>1061</v>
+      </c>
+      <c r="F296" s="7">
+        <v>2</v>
+      </c>
+      <c r="G296" s="8" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="297" customHeight="1" spans="2:7">
+      <c r="B297" s="6">
+        <v>294</v>
+      </c>
+      <c r="C297" s="7" t="s">
+        <v>1063</v>
+      </c>
+      <c r="D297" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="E297" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F297" s="7">
+        <v>1</v>
+      </c>
+      <c r="G297" s="8" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="298" customHeight="1" spans="2:7">
+      <c r="B298" s="6">
+        <v>295</v>
+      </c>
+      <c r="C298" s="7" t="s">
+        <v>1065</v>
+      </c>
+      <c r="D298" s="7" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E298" s="7" t="s">
+        <v>1067</v>
+      </c>
+      <c r="F298" s="7">
+        <v>1</v>
+      </c>
+      <c r="G298" s="8" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="299" customHeight="1" spans="2:7">
+      <c r="B299" s="6">
+        <v>296</v>
+      </c>
+      <c r="C299" s="7" t="s">
+        <v>1069</v>
+      </c>
+      <c r="D299" s="7" t="s">
+        <v>1070</v>
+      </c>
+      <c r="E299" s="7" t="s">
+        <v>1071</v>
+      </c>
+      <c r="F299" s="7">
+        <v>1</v>
+      </c>
+      <c r="G299" s="8" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="300" customHeight="1" spans="2:7">
+      <c r="B300" s="6">
+        <v>297</v>
+      </c>
+      <c r="C300" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="D300" s="7" t="s">
+        <v>1073</v>
+      </c>
+      <c r="E300" s="7" t="s">
+        <v>1074</v>
+      </c>
+      <c r="F300" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="G300" s="8" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="301" customHeight="1" spans="2:7">
+      <c r="B301" s="6">
+        <v>298</v>
+      </c>
+      <c r="C301" s="7" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D301" s="7" t="s">
+        <v>1077</v>
+      </c>
+      <c r="E301" s="7" t="s">
+        <v>1078</v>
+      </c>
+      <c r="F301" s="7">
+        <v>1</v>
+      </c>
+      <c r="G301" s="8" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="302" customHeight="1" spans="2:7">
+      <c r="B302" s="6">
+        <v>299</v>
+      </c>
+      <c r="C302" s="7" t="s">
+        <v>1080</v>
+      </c>
+      <c r="D302" s="7" t="s">
+        <v>1081</v>
+      </c>
+      <c r="E302" s="7" t="s">
+        <v>1082</v>
+      </c>
+      <c r="F302" s="7">
+        <v>1</v>
+      </c>
+      <c r="G302" s="8" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="303" customHeight="1" spans="2:7">
+      <c r="B303" s="6">
+        <v>300</v>
+      </c>
+      <c r="C303" s="7" t="s">
+        <v>1084</v>
+      </c>
+      <c r="D303" s="7" t="s">
+        <v>1085</v>
+      </c>
+      <c r="E303" s="7" t="s">
+        <v>1086</v>
+      </c>
+      <c r="F303" s="7">
+        <v>1</v>
+      </c>
+      <c r="G303" s="8" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="304" customHeight="1" spans="2:7">
+      <c r="B304" s="6">
+        <v>301</v>
+      </c>
+      <c r="C304" s="7" t="s">
+        <v>1088</v>
+      </c>
+      <c r="D304" s="7" t="s">
+        <v>1089</v>
+      </c>
+      <c r="E304" s="7" t="s">
+        <v>1090</v>
+      </c>
+      <c r="F304" s="7">
+        <v>1</v>
+      </c>
+      <c r="G304" s="8" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="305" customHeight="1" spans="2:7">
+      <c r="B305" s="6">
+        <v>302</v>
+      </c>
+      <c r="C305" s="7" t="s">
+        <v>1092</v>
+      </c>
+      <c r="D305" s="7" t="s">
+        <v>1093</v>
+      </c>
+      <c r="E305" s="7" t="s">
+        <v>1094</v>
+      </c>
+      <c r="F305" s="7">
+        <v>1</v>
+      </c>
+      <c r="G305" s="8" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="306" customHeight="1" spans="2:7">
+      <c r="B306" s="6">
+        <v>303</v>
+      </c>
+      <c r="C306" s="7" t="s">
+        <v>1096</v>
+      </c>
+      <c r="D306" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="E306" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="F306" s="7">
+        <v>2</v>
+      </c>
+      <c r="G306" s="8" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="307" customHeight="1" spans="2:7">
+      <c r="B307" s="6">
+        <v>304</v>
+      </c>
+      <c r="C307" s="7" t="s">
+        <v>1098</v>
+      </c>
+      <c r="D307" s="7" t="s">
+        <v>1099</v>
+      </c>
+      <c r="E307" s="7" t="s">
+        <v>1100</v>
+      </c>
+      <c r="F307" s="7">
+        <v>1</v>
+      </c>
+      <c r="G307" s="8" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="308" customHeight="1" spans="2:7">
+      <c r="B308" s="6">
+        <v>305</v>
+      </c>
+      <c r="C308" s="7" t="s">
+        <v>1102</v>
+      </c>
+      <c r="D308" s="7" t="s">
+        <v>1103</v>
+      </c>
+      <c r="E308" s="7" t="s">
+        <v>1104</v>
+      </c>
+      <c r="F308" s="7">
+        <v>1</v>
+      </c>
+      <c r="G308" s="8" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="309" customHeight="1" spans="2:7">
+      <c r="B309" s="6">
+        <v>306</v>
+      </c>
+      <c r="C309" s="7" t="s">
+        <v>1106</v>
+      </c>
+      <c r="D309" s="7" t="s">
+        <v>1107</v>
+      </c>
+      <c r="E309" s="7" t="s">
+        <v>1108</v>
+      </c>
+      <c r="F309" s="7">
+        <v>1</v>
+      </c>
+      <c r="G309" s="8" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="310" customHeight="1" spans="2:7">
+      <c r="B310" s="6">
+        <v>307</v>
+      </c>
+      <c r="C310" s="7" t="s">
+        <v>1110</v>
+      </c>
+      <c r="D310" s="7" t="s">
+        <v>1111</v>
+      </c>
+      <c r="E310" s="7" t="s">
+        <v>1112</v>
+      </c>
+      <c r="F310" s="7">
+        <v>1</v>
+      </c>
+      <c r="G310" s="8" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="311" customHeight="1" spans="2:7">
+      <c r="B311" s="6">
+        <v>308</v>
+      </c>
+      <c r="C311" s="7" t="s">
+        <v>1114</v>
+      </c>
+      <c r="D311" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="E311" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="F311" s="7">
+        <v>2</v>
+      </c>
+      <c r="G311" s="8" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="312" customHeight="1" spans="2:7">
+      <c r="B312" s="6">
+        <v>309</v>
+      </c>
+      <c r="C312" s="7" t="s">
+        <v>1116</v>
+      </c>
+      <c r="D312" s="7" t="s">
+        <v>708</v>
+      </c>
+      <c r="E312" s="7" t="s">
+        <v>1117</v>
+      </c>
+      <c r="F312" s="7">
+        <v>1</v>
+      </c>
+      <c r="G312" s="8" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="313" customHeight="1" spans="2:7">
+      <c r="B313" s="6">
+        <v>310</v>
+      </c>
+      <c r="C313" s="7" t="s">
+        <v>1119</v>
+      </c>
+      <c r="D313" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="E313" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="F313" s="7">
+        <v>2</v>
+      </c>
+      <c r="G313" s="8" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="314" customHeight="1" spans="2:7">
+      <c r="B314" s="6">
+        <v>311</v>
+      </c>
+      <c r="C314" s="7" t="s">
+        <v>1121</v>
+      </c>
+      <c r="D314" s="7" t="s">
+        <v>1122</v>
+      </c>
+      <c r="E314" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="F314" s="7">
+        <v>1</v>
+      </c>
+      <c r="G314" s="8" t="s">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="315" customHeight="1" spans="2:7">
+      <c r="B315" s="6">
+        <v>312</v>
+      </c>
+      <c r="C315" s="7" t="s">
+        <v>1124</v>
+      </c>
+      <c r="D315" s="7" t="s">
+        <v>1125</v>
+      </c>
+      <c r="E315" s="7" t="s">
+        <v>1126</v>
+      </c>
+      <c r="F315" s="7">
+        <v>1</v>
+      </c>
+      <c r="G315" s="8" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="316" customHeight="1" spans="2:7">
+      <c r="B316" s="6">
+        <v>313</v>
+      </c>
+      <c r="C316" s="7" t="s">
+        <v>1128</v>
+      </c>
+      <c r="D316" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="E316" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F316" s="7">
+        <v>2</v>
+      </c>
+      <c r="G316" s="8" t="s">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="317" customHeight="1" spans="2:7">
+      <c r="B317" s="6">
+        <v>314</v>
+      </c>
+      <c r="C317" s="7" t="s">
+        <v>1130</v>
+      </c>
+      <c r="D317" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="E317" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="F317" s="7">
+        <v>1</v>
+      </c>
+      <c r="G317" s="8" t="s">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="318" customHeight="1" spans="2:7">
+      <c r="B318" s="6">
+        <v>315</v>
+      </c>
+      <c r="C318" s="7" t="s">
+        <v>1132</v>
+      </c>
+      <c r="D318" s="7" t="s">
+        <v>545</v>
+      </c>
+      <c r="E318" s="7" t="s">
+        <v>1133</v>
+      </c>
+      <c r="F318" s="7">
+        <v>2</v>
+      </c>
+      <c r="G318" s="8" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="319" customHeight="1" spans="2:7">
+      <c r="B319" s="6">
+        <v>316</v>
+      </c>
+      <c r="C319" s="7" t="s">
+        <v>1135</v>
+      </c>
+      <c r="D319" s="7" t="s">
+        <v>1136</v>
+      </c>
+      <c r="E319" s="7" t="s">
+        <v>1137</v>
+      </c>
+      <c r="F319" s="7">
+        <v>1</v>
+      </c>
+      <c r="G319" s="8" t="s">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="320" customHeight="1" spans="2:7">
+      <c r="B320" s="6">
+        <v>317</v>
+      </c>
+      <c r="C320" s="7" t="s">
+        <v>1139</v>
+      </c>
+      <c r="D320" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="E320" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F320" s="7">
+        <v>1</v>
+      </c>
+      <c r="G320" s="8" t="s">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="321" customHeight="1" spans="2:7">
+      <c r="B321" s="6">
+        <v>318</v>
+      </c>
+      <c r="C321" s="7" t="s">
+        <v>1141</v>
+      </c>
+      <c r="D321" s="7" t="s">
+        <v>1142</v>
+      </c>
+      <c r="E321" s="7" t="s">
+        <v>1143</v>
+      </c>
+      <c r="F321" s="7">
+        <v>1</v>
+      </c>
+      <c r="G321" s="8" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="322" customHeight="1" spans="2:7">
+      <c r="B322" s="6">
+        <v>319</v>
+      </c>
+      <c r="C322" s="7" t="s">
+        <v>1145</v>
+      </c>
+      <c r="D322" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="E322" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="F322" s="7">
+        <v>2</v>
+      </c>
+      <c r="G322" s="8" t="s">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="323" customHeight="1" spans="2:7">
+      <c r="B323" s="6">
+        <v>320</v>
+      </c>
+      <c r="C323" s="7" t="s">
+        <v>1147</v>
+      </c>
+      <c r="D323" s="7" t="s">
+        <v>1148</v>
+      </c>
+      <c r="E323" s="7" t="s">
+        <v>1149</v>
+      </c>
+      <c r="F323" s="7">
+        <v>2</v>
+      </c>
+      <c r="G323" s="8" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="324" customHeight="1" spans="2:7">
+      <c r="B324" s="6">
+        <v>321</v>
+      </c>
+      <c r="C324" s="7" t="s">
+        <v>1151</v>
+      </c>
+      <c r="D324" s="7" t="s">
+        <v>1152</v>
+      </c>
+      <c r="E324" s="7" t="s">
+        <v>1153</v>
+      </c>
+      <c r="F324" s="7">
+        <v>2</v>
+      </c>
+      <c r="G324" s="8" t="s">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="325" customHeight="1" spans="2:7">
+      <c r="B325" s="6">
+        <v>322</v>
+      </c>
+      <c r="C325" s="7" t="s">
+        <v>1155</v>
+      </c>
+      <c r="D325" s="7" t="s">
+        <v>775</v>
+      </c>
+      <c r="E325" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="F325" s="7">
+        <v>1</v>
+      </c>
+      <c r="G325" s="8" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="326" customHeight="1" spans="2:7">
+      <c r="B326" s="6">
+        <v>323</v>
+      </c>
+      <c r="C326" s="7" t="s">
+        <v>1157</v>
+      </c>
+      <c r="D326" s="7" t="s">
+        <v>1158</v>
+      </c>
+      <c r="E326" s="7" t="s">
+        <v>1159</v>
+      </c>
+      <c r="F326" s="7">
+        <v>1</v>
+      </c>
+      <c r="G326" s="8" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="327" customHeight="1" spans="2:7">
+      <c r="B327" s="6">
+        <v>324</v>
+      </c>
+      <c r="C327" s="7" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D327" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="E327" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="F327" s="7">
+        <v>2</v>
+      </c>
+      <c r="G327" s="8" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="328" customHeight="1" spans="2:7">
+      <c r="B328" s="6">
+        <v>325</v>
+      </c>
+      <c r="C328" s="7" t="s">
+        <v>1163</v>
+      </c>
+      <c r="D328" s="7" t="s">
+        <v>1164</v>
+      </c>
+      <c r="E328" s="7" t="s">
+        <v>1165</v>
+      </c>
+      <c r="F328" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="G328" s="8" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="329" customHeight="1" spans="2:7">
+      <c r="B329" s="6">
+        <v>326</v>
+      </c>
+      <c r="C329" s="7" t="s">
+        <v>1167</v>
+      </c>
+      <c r="D329" s="7" t="s">
+        <v>1168</v>
+      </c>
+      <c r="E329" s="7" t="s">
+        <v>1169</v>
+      </c>
+      <c r="F329" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="G329" s="8" t="s">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="330" customHeight="1" spans="2:7">
+      <c r="B330" s="6">
+        <v>327</v>
+      </c>
+      <c r="C330" s="7" t="s">
+        <v>1171</v>
+      </c>
+      <c r="D330" s="7" t="s">
+        <v>1172</v>
+      </c>
+      <c r="E330" s="7" t="s">
+        <v>1173</v>
+      </c>
+      <c r="F330" s="7">
+        <v>2</v>
+      </c>
+      <c r="G330" s="8" t="s">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="331" customHeight="1" spans="2:7">
+      <c r="B331" s="6">
+        <v>328</v>
+      </c>
+      <c r="C331" s="7" t="s">
+        <v>1175</v>
+      </c>
+      <c r="D331" s="7" t="s">
+        <v>1176</v>
+      </c>
+      <c r="E331" s="7" t="s">
+        <v>1177</v>
+      </c>
+      <c r="F331" s="7">
+        <v>1</v>
+      </c>
+      <c r="G331" s="8" t="s">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="332" customHeight="1" spans="2:7">
+      <c r="B332" s="6">
+        <v>329</v>
+      </c>
+      <c r="C332" s="7" t="s">
+        <v>1179</v>
+      </c>
+      <c r="D332" s="7" t="s">
+        <v>1180</v>
+      </c>
+      <c r="E332" s="7" t="s">
+        <v>1181</v>
+      </c>
+      <c r="F332" s="7">
+        <v>1</v>
+      </c>
+      <c r="G332" s="8" t="s">
+        <v>1182</v>
+      </c>
+    </row>
+    <row r="333" customHeight="1" spans="2:7">
+      <c r="B333" s="6">
+        <v>330</v>
+      </c>
+      <c r="C333" s="7" t="s">
+        <v>1183</v>
+      </c>
+      <c r="D333" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="E333" s="7" t="s">
+        <v>1184</v>
+      </c>
+      <c r="F333" s="7">
+        <v>2</v>
+      </c>
+      <c r="G333" s="8" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="334" customHeight="1" spans="2:7">
+      <c r="B334" s="6">
+        <v>331</v>
+      </c>
+      <c r="C334" s="7" t="s">
+        <v>1186</v>
+      </c>
+      <c r="D334" s="7" t="s">
+        <v>1187</v>
+      </c>
+      <c r="E334" s="7" t="s">
+        <v>1188</v>
+      </c>
+      <c r="F334" s="7">
+        <v>1</v>
+      </c>
+      <c r="G334" s="8" t="s">
+        <v>1189</v>
       </c>
     </row>
   </sheetData>
